--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-india-wipB2\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897B51F1-E0D1-44BE-BF8D-1318B2F047EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="19410" windowHeight="11010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,15 +18,24 @@
     <sheet name="India Rail" sheetId="7" r:id="rId3"/>
     <sheet name="India Aircraft" sheetId="6" r:id="rId4"/>
     <sheet name="India Road" sheetId="5" r:id="rId5"/>
-    <sheet name="SYVbT-passenger" sheetId="2" r:id="rId6"/>
-    <sheet name="SYVbT-freight" sheetId="4" r:id="rId7"/>
+    <sheet name="India AVLo" sheetId="9" r:id="rId6"/>
+    <sheet name="SYVbT-passenger" sheetId="2" r:id="rId7"/>
+    <sheet name="SYVbT-freight" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="167">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -39,25 +49,12 @@
     <t>http://morth.nic.in/showfile.asp?lid=3141</t>
   </si>
   <si>
-    <t>Railway statistics survey 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://www.indianrailways.gov.in/railwayboard/uploads/directorate/stat_econ/IRSP_2016-17/Facts_Figure/Fact_Figures%20English%202016-17.pdf</t>
-  </si>
-  <si>
     <t>aircraft</t>
   </si>
   <si>
     <t>Ships</t>
   </si>
   <si>
-    <t>Handbook of Civil Aviation Statistics 2016-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dgca.gov.in/pub/Handbook_2016-17.pdf </t>
-  </si>
-  <si>
     <t>battery electric vehicle</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>plugin hybrid vehicle</t>
   </si>
   <si>
-    <t>nonroad vehicle</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -91,12 +85,6 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>Total (Passenger + Freight)</t>
-  </si>
-  <si>
-    <t>Departing Passengers</t>
-  </si>
-  <si>
     <t>Freight Transported (MT)</t>
   </si>
   <si>
@@ -193,18 +181,12 @@
     <t>Freight</t>
   </si>
   <si>
-    <t>DUPLICATE, Assuming zero</t>
-  </si>
-  <si>
     <t>Passenger Vehcile Technology Shares</t>
   </si>
   <si>
     <t>Freight Vehicle Technology Shares</t>
   </si>
   <si>
-    <t>Passenger Vehcile Breakdown by Technology (Vehicle KM)</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -256,15 +238,9 @@
     <t>Calculations</t>
   </si>
   <si>
-    <t>Page 3, Key Statics</t>
-  </si>
-  <si>
     <t>Ministry of Railways</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rail</t>
-  </si>
-  <si>
     <t>Page 34, Annex 2.2</t>
   </si>
   <si>
@@ -286,27 +262,9 @@
     <t>NITI Aayog, Government of India</t>
   </si>
   <si>
-    <t>Tables XIIa and XIIb</t>
-  </si>
-  <si>
-    <t>Categories: Passenger cum cargo, Passenger service, Pleasure yachts</t>
-  </si>
-  <si>
     <t>Categories: all other categories</t>
   </si>
   <si>
-    <t>Number of Ships</t>
-  </si>
-  <si>
-    <t>Ministry of Shipping</t>
-  </si>
-  <si>
-    <t>Indian Shipping Statistics 2017</t>
-  </si>
-  <si>
-    <t>Table 1.7, Pages 15-19</t>
-  </si>
-  <si>
     <t>Totals</t>
   </si>
   <si>
@@ -368,22 +326,353 @@
   </si>
   <si>
     <t>omnibuses</t>
+  </si>
+  <si>
+    <t>Number of Vehicles</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Railway Year Book 2017-18</t>
+  </si>
+  <si>
+    <t>http://www.indianrailways.gov.in/railwayboard/uploads/directorate/stat_econ/pdf_annual_report/Railway%20Year%20Book_2017_18.pdf</t>
+  </si>
+  <si>
+    <t>Page 3, Key Statistics; P4, Other important statistics</t>
+  </si>
+  <si>
+    <t>http://www.dgca.nic.in/pub/HANDBOOK%202017-18/HANDBOOK%202017-18.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle Loading </t>
+  </si>
+  <si>
+    <t>(passengers)</t>
+  </si>
+  <si>
+    <t>(tons)</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Aircraft Statistics - 2018</t>
+  </si>
+  <si>
+    <t>Ministry of Railways Data (2018):</t>
+  </si>
+  <si>
+    <t>Total Fleet (Passenger + Freight)</t>
+  </si>
+  <si>
+    <t>Total Passengers</t>
+  </si>
+  <si>
+    <t>(Domestic &amp; Intnl.)</t>
+  </si>
+  <si>
+    <t>(excluded)</t>
+  </si>
+  <si>
+    <t>Passenger Vehicle Breakdown by Technology (Vehicle KM)</t>
+  </si>
+  <si>
+    <t>Source: IESS</t>
+  </si>
+  <si>
+    <t>Rail Fleet Breakdown by Technology (Vehicle KM)</t>
+  </si>
+  <si>
+    <t>RAIL</t>
+  </si>
+  <si>
+    <t>RAIL-Passenger</t>
+  </si>
+  <si>
+    <t>RAIL-frieght</t>
+  </si>
+  <si>
+    <t>Passenger electric rail</t>
+  </si>
+  <si>
+    <t>Passenger diesel rail</t>
+  </si>
+  <si>
+    <t>Freight diesel rail</t>
+  </si>
+  <si>
+    <t>Freight electric rail</t>
+  </si>
+  <si>
+    <t>Tabs XIIa and XIIb (Table 12.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SHIPPING</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Table 22.1 - STRENGTH OF INDIAN MERCHANT SHIPPING FLEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (As on 31st December)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Coastal Shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Overseas  Shipping</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Type of Vessels</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dry Cargo Liner </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dry Cargo Bulk Carrier </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Oil Tanker</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Passenger-cum-Cargo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(4)</t>
+    </r>
+  </si>
+  <si>
+    <t>Off-shore Supply</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specialised for Off-shore Services </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+  </si>
+  <si>
+    <t>Timber Carrier</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dry Cargo Liner </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dry Cargo Bulk Carrier </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(7)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Oil Tanker</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ore/Oil Bulk Carrier </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(9)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Passenger-cum-Cargo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(10)</t>
+    </r>
+  </si>
+  <si>
+    <t>No. Of Vessels</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Categories: Passenger cum cargo</t>
+  </si>
+  <si>
+    <t>Number of Ships (2016 - latest year available)*</t>
+  </si>
+  <si>
+    <t>*Includes both coastal and overseas</t>
+  </si>
+  <si>
+    <t>Ministry of Shipping/Ministry of Statistics &amp; Programme Implementation</t>
+  </si>
+  <si>
+    <t>SHIPPING - Statistical Year Book India 2018</t>
+  </si>
+  <si>
+    <t>http://www.mospi.gov.in/statistical-year-book-india/2018/191</t>
+  </si>
+  <si>
+    <t>Sr. No 22.1 - Strength of Indian Merchant Shipping Fleet</t>
+  </si>
+  <si>
+    <t>We assume maritime heavy fuel oil to be closest to diesel, and apportion ships to diesel technology type.</t>
+  </si>
+  <si>
+    <t>We assume jet fuel to be most similar to diesel, and apportion aircrafts to diesel technology type.</t>
+  </si>
+  <si>
+    <t>Handbook of Civil Aviation Statistics 2017-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes: </t>
+  </si>
+  <si>
+    <t>Fleet sizes for each vehicle type are updated for latest available sources in govt. sources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The govt. reports don't give a breakdown of the vehicle fleet by technology type, so </t>
+  </si>
+  <si>
+    <t>and applied to the base year fleet of each vehicle type to disaggregate by technology.</t>
+  </si>
+  <si>
+    <t>There are no hydrogen technology vehicle types for the base year, and values are zero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we use IESS Level 2 (BAU) trajectory values on "Vehicle Km by type of Vehicle" to determine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the ratios for various technologies like diesel, electric, CNG etc. The ratios are for year 2017, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="###0.00_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,8 +953,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,8 +1159,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1053,6 +1389,293 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1078,7 +1701,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
       <alignment horizontal="left"/>
@@ -1113,28 +1736,28 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1223,7 +1846,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1260,25 +1883,23 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1287,7 +1908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1316,7 +1937,7 @@
     </xf>
     <xf numFmtId="2" fontId="40" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="43" fillId="29" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="43" fillId="29" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1327,10 +1948,10 @@
     <xf numFmtId="9" fontId="40" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
@@ -1340,152 +1961,336 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="29" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="48" fillId="34" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="34" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="34" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="144">
-    <cellStyle name="20% - Accent1 2" xfId="15"/>
-    <cellStyle name="20% - Accent2 2" xfId="16"/>
-    <cellStyle name="20% - Accent3 2" xfId="17"/>
-    <cellStyle name="20% - Accent4 2" xfId="18"/>
-    <cellStyle name="20% - Accent5 2" xfId="19"/>
-    <cellStyle name="20% - Accent6 2" xfId="20"/>
-    <cellStyle name="40% - Accent1 2" xfId="21"/>
-    <cellStyle name="40% - Accent2 2" xfId="22"/>
-    <cellStyle name="40% - Accent3 2" xfId="23"/>
-    <cellStyle name="40% - Accent4 2" xfId="24"/>
-    <cellStyle name="40% - Accent5 2" xfId="25"/>
-    <cellStyle name="40% - Accent6 2" xfId="26"/>
-    <cellStyle name="60% - Accent1 2" xfId="27"/>
-    <cellStyle name="60% - Accent2 2" xfId="28"/>
-    <cellStyle name="60% - Accent3 2" xfId="29"/>
-    <cellStyle name="60% - Accent4 2" xfId="30"/>
-    <cellStyle name="60% - Accent5 2" xfId="31"/>
-    <cellStyle name="60% - Accent6 2" xfId="32"/>
-    <cellStyle name="Accent1 2" xfId="33"/>
-    <cellStyle name="Accent2 2" xfId="34"/>
-    <cellStyle name="Accent3 2" xfId="35"/>
-    <cellStyle name="Accent4 2" xfId="36"/>
-    <cellStyle name="Accent5 2" xfId="37"/>
-    <cellStyle name="Accent6 2" xfId="38"/>
-    <cellStyle name="Bad 2" xfId="39"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Calculation 2" xfId="40"/>
-    <cellStyle name="Check Cell 2" xfId="41"/>
+    <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Calculation 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Check Cell 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Comma" xfId="141" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="42"/>
-    <cellStyle name="Comma 2 2" xfId="11"/>
-    <cellStyle name="Comma 2 2 2" xfId="43"/>
-    <cellStyle name="Comma 2 2 3" xfId="44"/>
-    <cellStyle name="Comma 2 3" xfId="45"/>
-    <cellStyle name="Comma 2 4" xfId="143"/>
-    <cellStyle name="Comma 3" xfId="46"/>
-    <cellStyle name="Comma 4" xfId="47"/>
-    <cellStyle name="Comma 5" xfId="48"/>
-    <cellStyle name="Comma 6" xfId="49"/>
-    <cellStyle name="Comma 7" xfId="50"/>
-    <cellStyle name="Currency 2" xfId="51"/>
-    <cellStyle name="Currency 3" xfId="52"/>
-    <cellStyle name="Currency 3 2" xfId="53"/>
-    <cellStyle name="Data" xfId="54"/>
-    <cellStyle name="Data no deci" xfId="55"/>
-    <cellStyle name="Data Superscript" xfId="56"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="57"/>
-    <cellStyle name="Explanatory Text 2" xfId="58"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Good 2" xfId="59"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Heading 1 2" xfId="60"/>
-    <cellStyle name="Heading 2 2" xfId="61"/>
-    <cellStyle name="Heading 3 2" xfId="62"/>
-    <cellStyle name="Heading 4 2" xfId="63"/>
-    <cellStyle name="Hed Side" xfId="13"/>
-    <cellStyle name="Hed Side bold" xfId="64"/>
-    <cellStyle name="Hed Side Indent" xfId="65"/>
-    <cellStyle name="Hed Side Regular" xfId="66"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="67"/>
-    <cellStyle name="Hed Top" xfId="68"/>
+    <cellStyle name="Comma 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 2 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 2 4" xfId="143" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Comma 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Comma 7" xfId="50" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Currency 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data" xfId="54" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="55" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="56" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="57" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Good 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Heading 1 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Heading 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Heading 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Hed Side" xfId="13" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Hed Side bold" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Top" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8"/>
-    <cellStyle name="Input 2" xfId="69"/>
-    <cellStyle name="Linked Cell 2" xfId="70"/>
-    <cellStyle name="Neutral 2" xfId="71"/>
+    <cellStyle name="Input 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Neutral 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="72"/>
-    <cellStyle name="Normal 11" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="73"/>
-    <cellStyle name="Normal 2 2 2" xfId="74"/>
-    <cellStyle name="Normal 2 2 3" xfId="75"/>
-    <cellStyle name="Normal 2 3" xfId="76"/>
-    <cellStyle name="Normal 2 4" xfId="77"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 3 2" xfId="78"/>
-    <cellStyle name="Normal 3 2 2" xfId="79"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="80"/>
-    <cellStyle name="Normal 3 2 3" xfId="81"/>
-    <cellStyle name="Normal 3 3" xfId="82"/>
-    <cellStyle name="Normal 3 3 2" xfId="83"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="84"/>
-    <cellStyle name="Normal 3 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 4" xfId="86"/>
-    <cellStyle name="Normal 3 4 2" xfId="87"/>
-    <cellStyle name="Normal 3 5" xfId="88"/>
-    <cellStyle name="Normal 3 6" xfId="89"/>
-    <cellStyle name="Normal 3 7" xfId="90"/>
-    <cellStyle name="Normal 3 8" xfId="91"/>
-    <cellStyle name="Normal 3 9" xfId="12"/>
-    <cellStyle name="Normal 4" xfId="92"/>
-    <cellStyle name="Normal 4 2" xfId="93"/>
-    <cellStyle name="Normal 4 2 2" xfId="94"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 3" xfId="96"/>
-    <cellStyle name="Normal 4 3" xfId="97"/>
-    <cellStyle name="Normal 4 3 2" xfId="98"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="99"/>
-    <cellStyle name="Normal 4 3 3" xfId="100"/>
-    <cellStyle name="Normal 4 4" xfId="101"/>
-    <cellStyle name="Normal 4 4 2" xfId="102"/>
-    <cellStyle name="Normal 4 5" xfId="103"/>
-    <cellStyle name="Normal 4 6" xfId="104"/>
-    <cellStyle name="Normal 4 7" xfId="105"/>
-    <cellStyle name="Normal 4 8" xfId="106"/>
-    <cellStyle name="Normal 5" xfId="107"/>
-    <cellStyle name="Normal 5 2" xfId="108"/>
-    <cellStyle name="Normal 5 3" xfId="109"/>
-    <cellStyle name="Normal 6" xfId="110"/>
-    <cellStyle name="Normal 6 2" xfId="111"/>
-    <cellStyle name="Normal 7" xfId="112"/>
-    <cellStyle name="Normal 8" xfId="113"/>
-    <cellStyle name="Normal 9" xfId="114"/>
-    <cellStyle name="Note 2" xfId="115"/>
-    <cellStyle name="Note 2 2" xfId="116"/>
-    <cellStyle name="Output 2" xfId="117"/>
-    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="72" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 11" xfId="10" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal 2 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 4" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 7" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 8" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 9" xfId="12" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 5" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 6" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 8" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 5" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 7" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 8" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 9" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Note 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
     <cellStyle name="Percent" xfId="142" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="118"/>
-    <cellStyle name="Percent 2 2" xfId="119"/>
-    <cellStyle name="Percent 3" xfId="120"/>
-    <cellStyle name="Percent 3 2" xfId="121"/>
-    <cellStyle name="Source Hed" xfId="122"/>
-    <cellStyle name="Source Superscript" xfId="123"/>
-    <cellStyle name="Source Text" xfId="9"/>
-    <cellStyle name="State" xfId="124"/>
-    <cellStyle name="Superscript" xfId="125"/>
-    <cellStyle name="Table Data" xfId="126"/>
-    <cellStyle name="Table Head Top" xfId="127"/>
-    <cellStyle name="Table Hed Side" xfId="128"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Title 2" xfId="129"/>
-    <cellStyle name="Title Text" xfId="130"/>
-    <cellStyle name="Title Text 1" xfId="131"/>
-    <cellStyle name="Title Text 2" xfId="132"/>
-    <cellStyle name="Title-1" xfId="14"/>
-    <cellStyle name="Title-2" xfId="133"/>
-    <cellStyle name="Title-3" xfId="134"/>
-    <cellStyle name="Total 2" xfId="135"/>
-    <cellStyle name="Warning Text 2" xfId="136"/>
-    <cellStyle name="Wrap" xfId="137"/>
-    <cellStyle name="Wrap Bold" xfId="138"/>
-    <cellStyle name="Wrap Title" xfId="139"/>
+    <cellStyle name="Percent 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Percent 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Source Hed" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Source Superscript" xfId="123" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Source Text" xfId="9" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="State" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Superscript" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Table Data" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Table Head Top" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Table Hed Side" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Title 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Title Text" xfId="130" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Title Text 1" xfId="131" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Title Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Title-1" xfId="14" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Title-2" xfId="133" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Title-3" xfId="134" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Total 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Warning Text 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Wrap" xfId="137" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Wrap Bold" xfId="138" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Wrap Title" xfId="139" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1517,7 +2322,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1625,6 +2436,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1660,6 +2488,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1835,10 +2680,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1855,12 +2702,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1874,26 +2721,26 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="12" customFormat="1">
-      <c r="B9" s="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="10" customFormat="1">
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1903,119 +2750,169 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="10" t="s">
-        <v>5</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="30">
+      <c r="B21" s="38" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="15" t="s">
-        <v>35</v>
+      <c r="B32" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="B34" s="11" t="s">
-        <v>7</v>
+      <c r="B34" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>92</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B21" r:id="rId2" display="http://www.indianrailways.gov.in/railwayboard/uploads/directorate/stat_econ/IRSP_2016-17/IR_Statistical_Statements_BI/27A.pdf _x000a_http://www.indianrailways.gov.in/railwayboard/uploads/directorate/stat_econ/IRSP_2016-17/Facts_Figure/Fact_Figures%20English%202016-17.pdf"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{F0FA4D2D-B917-419F-94C7-DA2F8A6839D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2023,188 +2920,745 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2">
-        <f>37+64+1</f>
-        <v>102</v>
+        <v>46</v>
+      </c>
+      <c r="B2" s="91">
+        <f>F18+O18</f>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3">
-        <f>1371-B2</f>
-        <v>1269</v>
+        <v>47</v>
+      </c>
+      <c r="B3" s="91">
+        <f>R18-B2</f>
+        <v>1200</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
-      </c>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:18" ht="15.75">
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="54"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="58"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
+      <c r="A8" s="55"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="63"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="58"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="55"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="66"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="71"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="99"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="108"/>
+    </row>
+    <row r="14" spans="1:18" ht="25.5">
+      <c r="A14" s="99"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="N14" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="R14" s="108"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="99"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="108"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="100"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="109"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="80">
+        <v>1</v>
+      </c>
+      <c r="B17" s="81">
+        <v>2</v>
+      </c>
+      <c r="C17" s="82">
+        <v>3</v>
+      </c>
+      <c r="D17" s="83">
+        <v>4</v>
+      </c>
+      <c r="E17" s="83">
+        <v>5</v>
+      </c>
+      <c r="F17" s="83">
+        <v>6</v>
+      </c>
+      <c r="G17" s="82">
+        <v>7</v>
+      </c>
+      <c r="H17" s="82">
+        <v>8</v>
+      </c>
+      <c r="I17" s="82">
+        <v>9</v>
+      </c>
+      <c r="J17" s="84">
+        <v>10</v>
+      </c>
+      <c r="K17" s="82">
+        <v>11</v>
+      </c>
+      <c r="L17" s="83">
+        <v>12</v>
+      </c>
+      <c r="M17" s="83">
+        <v>13</v>
+      </c>
+      <c r="N17" s="82">
+        <v>14</v>
+      </c>
+      <c r="O17" s="83">
+        <v>15</v>
+      </c>
+      <c r="P17" s="82">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="84">
+        <v>17</v>
+      </c>
+      <c r="R17" s="85">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="86">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="88">
+        <v>586</v>
+      </c>
+      <c r="D18" s="88">
+        <v>37</v>
+      </c>
+      <c r="E18" s="88">
+        <v>22</v>
+      </c>
+      <c r="F18" s="88">
+        <v>96</v>
+      </c>
+      <c r="G18" s="88">
+        <v>100</v>
+      </c>
+      <c r="H18" s="88">
+        <v>57</v>
+      </c>
+      <c r="I18" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="89">
+        <f>SUM(C18:I18)</f>
+        <v>898</v>
+      </c>
+      <c r="K18" s="88">
+        <v>155</v>
+      </c>
+      <c r="L18" s="88">
+        <v>85</v>
+      </c>
+      <c r="M18" s="88">
+        <v>128</v>
+      </c>
+      <c r="N18" s="88">
+        <v>30</v>
+      </c>
+      <c r="O18" s="88">
+        <v>5</v>
+      </c>
+      <c r="P18" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="88">
+        <f>SUM(K18:P18)</f>
+        <v>403</v>
+      </c>
+      <c r="R18" s="90">
+        <f>(J18+Q18)</f>
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="C20" s="91"/>
+      <c r="J20" s="91"/>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="R12:R16"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2">
+        <v>110</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>6023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B4">
-        <v>5399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>11764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>65326</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>279308</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="E10" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="41">
+        <v>0.6872269809588859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="E11" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="41">
+        <v>0.7181451682412896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="41">
+        <v>0.11317598788024429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="32">
+        <v>10</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="41">
+        <v>0.22909010449952699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="E15" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="6">
+        <f>B23*(H10/SUM(H10:H11))</f>
+        <v>3100.9285297835759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="E16" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="6">
+        <f>B23*(H11/SUM(H10:H11))</f>
+        <v>3240.4386067881528</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="6">
+        <f>B8/B13</f>
+        <v>6532.6</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="6">
+        <f>B24*(H12/SUM(H12:H13))</f>
+        <v>1793.0839335069468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="6">
+        <f>B9/B14</f>
+        <v>5586.16</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="6">
+        <f>B24*(H13/SUM(H12:H13))</f>
+        <v>3629.5489299213236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B8">
-        <v>64223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B23" s="6">
+        <f>SUM(B2:B4)*B18/SUM(B18:B19)</f>
+        <v>6341.3671365717291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B9">
-        <v>277987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="35"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="7">
-        <f>B8/B13</f>
-        <v>6422.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="7">
-        <f>B9/B14</f>
-        <v>5559.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="7">
-        <f>SUM(B2:B4)*B18/SUM(B18:B19)</f>
-        <v>6143.0257535444707</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <f>SUM(B2:B4)*B19/SUM(B18:B19)</f>
-        <v>5317.9742464555284</v>
+        <v>5422.6328634282709</v>
       </c>
     </row>
   </sheetData>
@@ -2214,10 +3668,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2227,88 +3683,100 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <f>158.43*10^6</f>
-        <v>158430000</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <f>183.9*10^6</f>
+        <v>183900000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f>(6.97+15.13)*10^5</f>
+        <v>2210000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <f>'India AVLo'!B4</f>
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <f>'India AVLo'!C4</f>
+        <v>17.34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <f>B5/B12</f>
+        <v>1021666.6666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6">
+        <f>B8/B13</f>
+        <v>127450.98039215687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6">
+        <f>B2*(B16/SUM(B16:B17))</f>
+        <v>551.23453630236327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
-        <f>(6.38+15.13)*10^5</f>
-        <v>2151000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>111.39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <f>B4/B10</f>
-        <v>1422300.0269323997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="7">
-        <f>B6/B11</f>
-        <v>51214.285714285717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="7">
-        <f>B1*(B14/SUM(B14:B15))</f>
-        <v>432.42906200294141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="7">
-        <f>B1*(B15/SUM(B14:B15))</f>
-        <v>15.570937997058628</v>
-      </c>
-      <c r="D19" s="14"/>
+      <c r="B21" s="6">
+        <f>B2*(B17/SUM(B16:B17))</f>
+        <v>68.765463697636719</v>
+      </c>
+      <c r="D21" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2316,11 +3784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2330,109 +3798,112 @@
     <col min="6" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:16">
       <c r="K1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="8:16">
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="8:16">
+      <c r="K3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="20">
+        <v>2007</v>
+      </c>
+      <c r="O3" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="8:16">
+      <c r="K4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24">
+        <v>125.78926798703105</v>
+      </c>
+    </row>
+    <row r="5" spans="8:16">
+      <c r="K5" s="22"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="8:16">
-      <c r="K3" s="21" t="s">
+      <c r="N5" s="23"/>
+      <c r="O5" s="24">
+        <v>1.7403814920202365</v>
+      </c>
+    </row>
+    <row r="6" spans="8:16">
+      <c r="K6" s="22"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="N6" s="23"/>
+      <c r="O6" s="24">
+        <v>0.60155495037288353</v>
+      </c>
+    </row>
+    <row r="7" spans="8:16">
+      <c r="K7" s="22"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N7" s="23"/>
+      <c r="O7" s="28">
+        <v>0.20051831679096116</v>
+      </c>
+      <c r="P7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="8:16">
+      <c r="H8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="22">
-        <v>2007</v>
-      </c>
-      <c r="O3" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="4" spans="8:16">
-      <c r="K4" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26">
-        <v>125.78926798703105</v>
-      </c>
-    </row>
-    <row r="5" spans="8:16">
-      <c r="K5" s="24"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26">
-        <v>1.7403814920202365</v>
-      </c>
-    </row>
-    <row r="6" spans="8:16">
-      <c r="K6" s="24"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26">
-        <v>0.60155495037288353</v>
-      </c>
-    </row>
-    <row r="7" spans="8:16">
-      <c r="K7" s="24"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26">
-        <v>0.20051831679096116</v>
-      </c>
-    </row>
-    <row r="8" spans="8:16">
-      <c r="H8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26">
+      <c r="M8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24">
         <v>12.225284097997806</v>
       </c>
     </row>
@@ -2440,19 +3911,19 @@
       <c r="H9">
         <v>1597938</v>
       </c>
-      <c r="I9" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26">
+      <c r="I9" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24">
         <v>0.16807356623326436</v>
       </c>
     </row>
@@ -2460,21 +3931,21 @@
       <c r="H10">
         <v>3900933</v>
       </c>
-      <c r="I10" s="37" t="s">
-        <v>94</v>
+      <c r="I10" s="35" t="s">
+        <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26">
+        <v>91</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="24">
         <v>139.2118858409529</v>
       </c>
     </row>
@@ -2482,19 +3953,19 @@
       <c r="H11">
         <v>2757639</v>
       </c>
-      <c r="I11" s="37" t="s">
-        <v>95</v>
+      <c r="I11" s="35" t="s">
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26">
+        <v>90</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24">
         <v>43.779584242835888</v>
       </c>
     </row>
@@ -2502,19 +3973,19 @@
       <c r="H12">
         <v>1817717</v>
       </c>
-      <c r="I12" s="37" t="s">
-        <v>96</v>
+      <c r="I12" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="26">
+        <v>89</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24">
         <v>5.1552046662759663</v>
       </c>
     </row>
@@ -2522,36 +3993,33 @@
       <c r="H13">
         <v>5017285</v>
       </c>
-      <c r="I13" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="30">
+      <c r="I13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24">
         <v>5.1552046662759663</v>
-      </c>
-      <c r="P13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="8:16">
       <c r="H14">
         <v>341841</v>
       </c>
-      <c r="I14" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26">
+      <c r="I14" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="23"/>
+      <c r="O14" s="24">
         <v>3.7359912418031045</v>
       </c>
     </row>
@@ -2559,16 +4027,16 @@
       <c r="H15">
         <v>312301</v>
       </c>
-      <c r="I15" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="26">
+      <c r="I15" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="23"/>
+      <c r="O15" s="24">
         <v>1.2392318909317224</v>
       </c>
     </row>
@@ -2576,18 +4044,18 @@
       <c r="H16">
         <v>163210</v>
       </c>
-      <c r="I16" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="26">
+      <c r="I16" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24">
         <v>71.939372545440037</v>
       </c>
     </row>
@@ -2595,16 +4063,16 @@
       <c r="H17">
         <v>285118</v>
       </c>
-      <c r="I17" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="26">
+      <c r="I17" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="23"/>
+      <c r="O17" s="24">
         <v>569.33037033849519</v>
       </c>
     </row>
@@ -2612,19 +4080,19 @@
       <c r="H18">
         <v>1384740</v>
       </c>
-      <c r="I18" s="37" t="s">
-        <v>97</v>
+      <c r="I18" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="26">
+        <v>87</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="23"/>
+      <c r="O18" s="24">
         <v>3.0284554979831024</v>
       </c>
     </row>
@@ -2632,16 +4100,16 @@
       <c r="H19">
         <v>1034957</v>
       </c>
-      <c r="I19" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="26">
+      <c r="I19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24">
         <v>26.524057947540875</v>
       </c>
     </row>
@@ -2649,18 +4117,18 @@
       <c r="H20">
         <v>640831</v>
       </c>
-      <c r="I20" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="26">
+      <c r="I20" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24">
         <v>20.447969551648026</v>
       </c>
     </row>
@@ -2668,16 +4136,16 @@
       <c r="H21">
         <v>182531</v>
       </c>
-      <c r="I21" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="26">
+      <c r="I21" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24">
         <v>15.669914537777572</v>
       </c>
     </row>
@@ -2685,19 +4153,19 @@
       <c r="H22">
         <v>2341375</v>
       </c>
-      <c r="I22" s="37" t="s">
-        <v>98</v>
+      <c r="I22" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="26">
+        <v>86</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24">
         <v>72.337912086611439</v>
       </c>
     </row>
@@ -2705,16 +4173,16 @@
       <c r="H23">
         <v>2429135</v>
       </c>
-      <c r="I23" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K23" s="24"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="26">
+      <c r="I23" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="22"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="23"/>
+      <c r="O23" s="24">
         <v>66.285472708183747</v>
       </c>
     </row>
@@ -2722,16 +4190,16 @@
       <c r="H24">
         <v>1354689</v>
       </c>
-      <c r="I24" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K24" s="24"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26">
+      <c r="I24" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="22"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="23"/>
+      <c r="O24" s="24">
         <v>6.1035113323078409</v>
       </c>
     </row>
@@ -2739,21 +4207,21 @@
       <c r="H25">
         <v>6392010</v>
       </c>
-      <c r="I25" s="37" t="s">
-        <v>96</v>
+      <c r="I25" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="26">
+        <v>88</v>
+      </c>
+      <c r="K25" s="22"/>
+      <c r="L25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="23"/>
+      <c r="O25" s="24">
         <v>2.0389345161320129</v>
       </c>
     </row>
@@ -2761,19 +4229,19 @@
       <c r="H26">
         <v>26744</v>
       </c>
-      <c r="I26" s="37" t="s">
-        <v>102</v>
+      <c r="I26" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26">
+        <v>93</v>
+      </c>
+      <c r="K26" s="22"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="23"/>
+      <c r="O26" s="24">
         <v>1.2073742722641769</v>
       </c>
     </row>
@@ -2781,16 +4249,16 @@
       <c r="H27">
         <v>21090119</v>
       </c>
-      <c r="I27" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="26">
+      <c r="I27" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="23"/>
+      <c r="O27" s="24">
         <v>67.756572043636965</v>
       </c>
     </row>
@@ -2798,16 +4266,16 @@
       <c r="H28">
         <v>50482957</v>
       </c>
-      <c r="I28" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="25"/>
-      <c r="O28" s="26">
+      <c r="I28" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" s="23"/>
+      <c r="O28" s="24">
         <v>2.2904155107107469</v>
       </c>
     </row>
@@ -2815,59 +4283,59 @@
       <c r="H29">
         <v>11394919</v>
       </c>
-      <c r="I29" s="37" t="s">
-        <v>101</v>
+      <c r="I29" s="35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="8:15">
       <c r="H30">
         <v>79512467</v>
       </c>
-      <c r="I30" s="37" t="s">
-        <v>101</v>
+      <c r="I30" s="35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="8:15">
       <c r="H31">
         <v>168975300</v>
       </c>
-      <c r="I31" s="37" t="s">
-        <v>102</v>
+      <c r="I31" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
     </row>
     <row r="32" spans="8:15">
       <c r="H32">
         <v>25612559</v>
       </c>
-      <c r="I32" s="37" t="s">
-        <v>98</v>
+      <c r="I32" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="J32" t="s">
-        <v>112</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N32" s="22">
+        <v>95</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="20">
         <v>2007</v>
       </c>
-      <c r="O32" s="23">
+      <c r="O32" s="21">
         <v>2017</v>
       </c>
     </row>
@@ -2875,22 +4343,22 @@
       <c r="H33">
         <v>2287753</v>
       </c>
-      <c r="I33" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M33" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N33" s="31">
+      <c r="I33" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="29">
         <v>0.91127970346733433</v>
       </c>
-      <c r="O33" s="32">
+      <c r="O33" s="30">
         <v>0.90269186616874042</v>
       </c>
     </row>
@@ -2898,23 +4366,23 @@
       <c r="H34">
         <v>371927</v>
       </c>
-      <c r="I34" s="37" t="s">
-        <v>97</v>
+      <c r="I34" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>113</v>
-      </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="31">
+        <v>96</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="29">
         <v>8.8720296532665791E-2</v>
       </c>
-      <c r="O34" s="33">
+      <c r="O34" s="31">
         <v>9.7308133831259525E-2</v>
       </c>
     </row>
@@ -2922,83 +4390,94 @@
       <c r="H35">
         <v>7086239</v>
       </c>
-      <c r="I35" s="37" t="s">
-        <v>101</v>
+      <c r="I35" s="35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="H36">
         <v>1821775</v>
       </c>
-      <c r="I36" s="37" t="s">
-        <v>101</v>
+      <c r="I36" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="H37">
         <v>2768121</v>
       </c>
-      <c r="I37" s="37" t="s">
-        <v>101</v>
+      <c r="I37" s="35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="H38">
         <v>208923674</v>
       </c>
-      <c r="I38" s="37" t="s">
-        <v>101</v>
+      <c r="I38" s="35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="H39">
         <v>230030598</v>
       </c>
-      <c r="I39" s="37" t="s">
-        <v>101</v>
+      <c r="I39" s="35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
       <c r="E42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:15">
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="28" t="s">
-        <v>14</v>
+      <c r="K43" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="26" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr LDV")</f>
@@ -3009,31 +4488,40 @@
         <v>2757639</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="29">
-        <f>O14/SUM(O10:O12,O14)</f>
-        <v>1.9470186233296542E-2</v>
-      </c>
-      <c r="G44" s="29">
-        <f>O12/SUM(O10:O12,O14)</f>
-        <v>2.6866442779643514E-2</v>
-      </c>
-      <c r="H44" s="29">
-        <f>O10/SUM(O10:O12,O14)</f>
-        <v>0.72550527230454886</v>
-      </c>
-      <c r="I44" s="29">
-        <f>O11/SUM(O10:O12,O14)</f>
-        <v>0.228158098682511</v>
-      </c>
-      <c r="J44" s="29">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F44" s="27">
+        <f>O14/SUM(O10:O14)</f>
+        <v>1.8960777587192681E-2</v>
+      </c>
+      <c r="G44" s="27">
+        <f>O12/SUM(O10:O14)</f>
+        <v>2.6163522012578624E-2</v>
+      </c>
+      <c r="H44" s="27">
+        <f>O10/SUM(O10:O14)</f>
+        <v>0.7065234991423669</v>
+      </c>
+      <c r="I44" s="27">
+        <f>O11/SUM(O10:O14)</f>
+        <v>0.22218867924528304</v>
+      </c>
+      <c r="J44" s="27">
+        <v>0</v>
+      </c>
+      <c r="K44" s="27">
+        <f>O13/SUM(O10:O14)</f>
+        <v>2.6163522012578624E-2</v>
+      </c>
+      <c r="L44" s="43">
+        <f>J44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="43"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr HDV")</f>
@@ -3044,30 +4532,39 @@
         <v>5498871</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="29">
-        <f>O6/SUM(O4:O6)</f>
-        <v>4.6948356807511747E-3</v>
-      </c>
-      <c r="G45" s="29">
-        <f>O5/SUM(O4:O6)</f>
-        <v>1.3582807558629126E-2</v>
-      </c>
-      <c r="H45" s="29">
-        <v>0</v>
-      </c>
-      <c r="I45" s="29">
-        <f>O4/SUM(O4:O6)</f>
-        <v>0.9817223567606197</v>
-      </c>
-      <c r="J45" s="29">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F45" s="27">
+        <f>O6/SUM(O4:O6,O8:O9)</f>
+        <v>4.2807815332095885E-3</v>
+      </c>
+      <c r="G45" s="27">
+        <f>(O5+O9)/SUM(O4:O6,O8:O9)</f>
+        <v>1.358093581520343E-2</v>
+      </c>
+      <c r="H45" s="27">
+        <v>0</v>
+      </c>
+      <c r="I45" s="27">
+        <f>(O4+O8)/SUM(O4:O6,O8:O9)</f>
+        <v>0.98213828265158698</v>
+      </c>
+      <c r="J45" s="27">
+        <v>0</v>
+      </c>
+      <c r="K45" s="43">
+        <f>J45</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="43">
+        <f>K45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="43"/>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B46">
         <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr Mtrbk")</f>
@@ -3078,118 +4575,167 @@
         <v>8209727</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="29">
+        <v>15</v>
+      </c>
+      <c r="F46" s="27">
         <f>O19/SUM(O16:O19)</f>
         <v>3.9539621259247815E-2</v>
       </c>
-      <c r="G46" s="29">
-        <v>0</v>
-      </c>
-      <c r="H46" s="29">
+      <c r="G46" s="27">
+        <v>0</v>
+      </c>
+      <c r="H46" s="27">
         <f>SUM(O16:O18)/SUM(O16:O19)</f>
         <v>0.96046037874075219</v>
       </c>
-      <c r="I46" s="29">
-        <v>0</v>
-      </c>
-      <c r="J46" s="29">
-        <v>0</v>
-      </c>
+      <c r="I46" s="27">
+        <v>0</v>
+      </c>
+      <c r="J46" s="27">
+        <v>0</v>
+      </c>
+      <c r="K46" s="43">
+        <f>J46</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="43">
+        <f>K46</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="43"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="M47" s="43"/>
     </row>
     <row r="48" spans="1:15">
       <c r="E48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="5:10">
-      <c r="F49" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="43"/>
+    </row>
+    <row r="49" spans="5:13">
+      <c r="F49" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="K49" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="L49" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="M49" s="43"/>
+    </row>
+    <row r="50" spans="5:13">
+      <c r="E50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="5:10">
-      <c r="E50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="29">
-        <v>0</v>
-      </c>
-      <c r="G50" s="29">
-        <v>0</v>
-      </c>
-      <c r="H50" s="29">
-        <v>0</v>
-      </c>
-      <c r="I50" s="29">
+      <c r="F50" s="27">
+        <v>0</v>
+      </c>
+      <c r="G50" s="27">
+        <v>0</v>
+      </c>
+      <c r="H50" s="27">
+        <v>0</v>
+      </c>
+      <c r="I50" s="27">
         <f>SUM(O33:O34)</f>
         <v>1</v>
       </c>
-      <c r="J50" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="5:10">
+      <c r="J50" s="27">
+        <v>0</v>
+      </c>
+      <c r="K50" s="43">
+        <f>J50</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="43">
+        <f>K50</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="43"/>
+    </row>
+    <row r="51" spans="5:13">
       <c r="E51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="29">
-        <v>0</v>
-      </c>
-      <c r="G51" s="29">
-        <v>0</v>
-      </c>
-      <c r="H51" s="29">
-        <v>0</v>
-      </c>
-      <c r="I51" s="29">
+        <v>12</v>
+      </c>
+      <c r="F51" s="27">
+        <v>0</v>
+      </c>
+      <c r="G51" s="27">
+        <v>0</v>
+      </c>
+      <c r="H51" s="27">
+        <v>0</v>
+      </c>
+      <c r="I51" s="27">
         <f>SUM(O33:O34)</f>
         <v>1</v>
       </c>
-      <c r="J51" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="5:10">
+      <c r="J51" s="27">
+        <v>0</v>
+      </c>
+      <c r="K51" s="43">
+        <f>J51</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="43">
+        <f>K51</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="43"/>
+    </row>
+    <row r="52" spans="5:13">
       <c r="E52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="29">
+        <v>15</v>
+      </c>
+      <c r="F52" s="27">
         <f>O24/SUM(O20:O24)</f>
         <v>3.3749999999999995E-2</v>
       </c>
-      <c r="G52" s="29">
-        <f>SUM(O20:O21)/SUM(O20:O24)</f>
-        <v>0.19971759232520298</v>
-      </c>
-      <c r="H52" s="29">
+      <c r="G52" s="27">
+        <f>O20/SUM(O20:O24)</f>
+        <v>0.11306917195600177</v>
+      </c>
+      <c r="H52" s="27">
         <f>O22/SUM(O20:O24)</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="I52" s="29">
+      <c r="I52" s="27">
         <f>O23/SUM(O20:O24)</f>
         <v>0.36653240767479706</v>
       </c>
-      <c r="J52" s="29">
-        <v>0</v>
-      </c>
+      <c r="J52" s="27">
+        <v>0</v>
+      </c>
+      <c r="K52" s="27">
+        <f>O21/SUM(O20:O24)</f>
+        <v>8.6648420369201187E-2</v>
+      </c>
+      <c r="L52" s="43">
+        <f>J52</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3199,14 +4745,110 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53414C9-8DE0-4072-98C4-C859BE86BF3D}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>3.5</v>
+      </c>
+      <c r="C2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>6.0999999999999979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="42">
+        <v>756.78378378378375</v>
+      </c>
+      <c r="C6" s="42">
+        <v>1974.4736422180429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3218,198 +4860,248 @@
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B2" s="6">
+        <f>'India Road'!$B44*'India Road'!F44</f>
+        <v>530028.32526106341</v>
+      </c>
+      <c r="C2" s="6">
+        <f>'India Road'!$B44*'India Road'!G44</f>
+        <v>731373.36754717003</v>
+      </c>
+      <c r="D2" s="6">
+        <f>'India Road'!$B44*'India Road'!H44</f>
+        <v>19750111.264474779</v>
+      </c>
+      <c r="E2" s="6">
+        <f>'India Road'!$B44*'India Road'!I44</f>
+        <v>6211047.6751698116</v>
+      </c>
+      <c r="F2" s="6">
+        <f>'India Road'!$B44*'India Road'!J44</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <f>'India Road'!$B44*'India Road'!K44</f>
+        <v>731373.36754717003</v>
+      </c>
+      <c r="H2" s="6">
+        <f>'India Road'!$B44*'India Road'!L44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="B3" s="6">
+        <f>'India Road'!$B45*'India Road'!F45</f>
+        <v>7519.9076535986878</v>
+      </c>
+      <c r="C3" s="6">
+        <f>'India Road'!$B45*'India Road'!G45</f>
+        <v>23857.181775685964</v>
+      </c>
+      <c r="D3" s="6">
+        <f>'India Road'!$B45*'India Road'!H45</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f>'India Road'!$B45*'India Road'!I45</f>
+        <v>1725289.9105707153</v>
+      </c>
+      <c r="F3" s="6">
+        <f>'India Road'!$B45*'India Road'!J45</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f>'India Road'!$B45*'India Road'!K45</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f>'India Road'!$B45*'India Road'!L45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <f>'India Aircraft'!B20</f>
+        <v>551.23453630236327</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="B5" s="7">
+        <f>'India Rail'!G16</f>
+        <v>3240.4386067881528</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f>'India Rail'!G15</f>
+        <v>3100.9285297835759</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f>'India Ships'!B2</f>
+        <v>101</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="7">
-        <f>'India Road'!$B44*'India Road'!F44</f>
-        <v>544268.30093328014</v>
-      </c>
-      <c r="C2" s="7">
-        <f>'India Road'!$B44*'India Road'!G44</f>
-        <v>751022.76827693137</v>
-      </c>
-      <c r="D2" s="7">
-        <f>'India Road'!$B44*'India Road'!H44</f>
-        <v>20280726.498653386</v>
-      </c>
-      <c r="E2" s="7">
-        <f>'India Road'!$B44*'India Road'!I44</f>
-        <v>6377916.4321363997</v>
-      </c>
-      <c r="F2" s="7">
-        <f>'India Road'!$B44*'India Road'!J44</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7">
-        <f>'India Road'!$B45*'India Road'!F45</f>
-        <v>8247.2629107981229</v>
-      </c>
-      <c r="C3" s="7">
-        <f>'India Road'!$B45*'India Road'!G45</f>
-        <v>23860.469805594352</v>
-      </c>
-      <c r="D3" s="7">
-        <f>'India Road'!$B45*'India Road'!H45</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <f>'India Road'!$B45*'India Road'!I45</f>
-        <v>1724559.2672836075</v>
-      </c>
-      <c r="F3" s="7">
-        <f>'India Road'!$B45*'India Road'!J45</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <f>'India Aircraft'!B18</f>
-        <v>432.42906200294141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <f>'India Rail'!B23</f>
-        <v>6143.0257535444707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <f>'India Ships'!B2</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <f>'India Road'!$B46*'India Road'!F46</f>
         <v>6682276.8117987346</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>'India Road'!$B46*'India Road'!G46</f>
         <v>0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f>'India Road'!$B46*'India Road'!H46</f>
         <v>162319767.18820128</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f>'India Road'!$B46*'India Road'!I46</f>
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f>'India Road'!$B46*'India Road'!J46</f>
         <v>0</v>
       </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
+      <c r="G7" s="7">
+        <f>'India Road'!$B46*'India Road'!K46</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <f>'India Road'!$B46*'India Road'!L46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3420,182 +5112,214 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <f>'India Road'!$C44*'India Road'!F50</f>
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <f>'India Road'!$C44*'India Road'!G50</f>
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <f>'India Road'!$C44*'India Road'!H50</f>
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="10">
         <f>'India Road'!$C44*'India Road'!I50</f>
         <v>2757639</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="10">
         <f>'India Road'!$C44*'India Road'!J50</f>
         <v>0</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="10">
+        <f>'India Road'!$C44*'India Road'!K50</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <f>'India Road'!$C44*'India Road'!L50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10">
         <f>'India Road'!$C45*'India Road'!F51</f>
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <f>'India Road'!$C45*'India Road'!G51</f>
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <f>'India Road'!$C45*'India Road'!H51</f>
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <f>'India Road'!$C45*'India Road'!I51</f>
         <v>5498871</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="10">
         <f>'India Road'!$C45*'India Road'!J51</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="10">
+        <f>'India Road'!$C45*'India Road'!K51</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <f>'India Road'!$C45*'India Road'!L51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <f>'India Aircraft'!B19</f>
-        <v>15.570937997058628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <f>'India Aircraft'!B21</f>
+        <v>68.765463697636719</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="92">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7">
+        <f>'India Rail'!G19</f>
+        <v>3629.5489299213236</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f>'India Rail'!G18</f>
+        <v>1793.0839335069468</v>
+      </c>
+      <c r="F5" s="10">
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f>'India Rail'!B24</f>
-        <v>5317.9742464555284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f>'India Ships'!B3</f>
+        <v>1200</v>
+      </c>
+      <c r="F6" s="10">
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <f>'India Ships'!B3</f>
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="8">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7">
         <f>'India Road'!$C46*'India Road'!F52</f>
         <v>277078.28624999995</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>'India Road'!$C46*'India Road'!G52</f>
-        <v>1639626.9100872118</v>
-      </c>
-      <c r="D7" s="8">
+        <v>928267.03387483058</v>
+      </c>
+      <c r="D7" s="7">
         <f>'India Road'!$C46*'India Road'!H52</f>
         <v>3283890.7999999993</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f>'India Road'!$C46*'India Road'!I52</f>
         <v>3009131.0036627888</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f>'India Road'!$C46*'India Road'!J52</f>
         <v>0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
+        <f>'India Road'!$C46*'India Road'!K52</f>
+        <v>711359.87621238094</v>
+      </c>
+      <c r="H7" s="7">
+        <f>'India Road'!$C46*'India Road'!L52</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897B51F1-E0D1-44BE-BF8D-1318B2F047EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,11 +17,27 @@
     <sheet name="India Rail" sheetId="7" r:id="rId3"/>
     <sheet name="India Aircraft" sheetId="6" r:id="rId4"/>
     <sheet name="India Road" sheetId="5" r:id="rId5"/>
-    <sheet name="India AVLo" sheetId="9" r:id="rId6"/>
-    <sheet name="SYVbT-passenger" sheetId="2" r:id="rId7"/>
-    <sheet name="SYVbT-freight" sheetId="4" r:id="rId8"/>
+    <sheet name="2017 Calcs" sheetId="10" r:id="rId6"/>
+    <sheet name="India AVLo" sheetId="9" r:id="rId7"/>
+    <sheet name="SYVbT-passenger" sheetId="2" r:id="rId8"/>
+    <sheet name="SYVbT-freight" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="BTU_to_PJ">[1]Notes!$A$11</definedName>
+    <definedName name="Eno_TM">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_Tons">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="MWh_to_PJ">[1]Notes!$A$12</definedName>
+    <definedName name="Sum_T2">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_TTM">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="ti_tbl_50">#REF!</definedName>
+    <definedName name="ti_tbl_69">#REF!</definedName>
+    <definedName name="TWh_to_PJ">[1]Notes!$A$15</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="224">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -116,9 +131,6 @@
   </si>
   <si>
     <t>aircraft (count, and psgr traffic vs. freight traffic)</t>
-  </si>
-  <si>
-    <t>aircraft (loading)</t>
   </si>
   <si>
     <t>See AVLo</t>
@@ -657,22 +669,269 @@
   <si>
     <t xml:space="preserve">the ratios for various technologies like diesel, electric, CNG etc. The ratios are for year 2017, </t>
   </si>
+  <si>
+    <t>mile</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Passenger ships- Canada model; Freight shipes - US model, Freight aircraft - IESS v2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ICCT model does not include passenger &amp; freight ships, and freight aircraft for which following sources are used:</t>
+    </r>
+  </si>
+  <si>
+    <t>BAADTbVT-
+freight</t>
+  </si>
+  <si>
+    <t>BAADTbVT-
+passengers</t>
+  </si>
+  <si>
+    <t>BAADTbVT-freight</t>
+  </si>
+  <si>
+    <t>BAADTbVT-passengers</t>
+  </si>
+  <si>
+    <t>2017 Values</t>
+  </si>
+  <si>
+    <t>vehicle - miles</t>
+  </si>
+  <si>
+    <t>vehicle - kms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017 - BAADTbVT </t>
+  </si>
+  <si>
+    <t>ICCT reports two types of freight HDVs - they are combined together in the same EPS category.</t>
+  </si>
+  <si>
+    <t>passenger: aricraft, HDVs, rail; freight: rail, LDVs, HDVs.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ICCT vehicle types are mapped to EPS vehice types. AVLo is used for estimating vehicle distance traveled for the following vehicle types:</t>
+    </r>
+  </si>
+  <si>
+    <t>hence we use the corresponding values from variable trans/SYVbT for these vehicle types.</t>
+  </si>
+  <si>
+    <t>In case of passenger aircraft, freight and passenger rail, ICCT does not report stock &amp; sales numbers,</t>
+  </si>
+  <si>
+    <t>Vehicle fleet for most types is assumed to be the sum of stock (at beginning of year) + sales (during the year).</t>
+  </si>
+  <si>
+    <t>Stock+sales_million</t>
+  </si>
+  <si>
+    <t>Combined freight HDVs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ICCT model results are interpolated between 2015-2020 to estimate 2017 values</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>passenger rail</t>
+  </si>
+  <si>
+    <t>Passenger Rail</t>
+  </si>
+  <si>
+    <t>nos.</t>
+  </si>
+  <si>
+    <t>Million</t>
+  </si>
+  <si>
+    <t>freight HDVs</t>
+  </si>
+  <si>
+    <t>MHDT_HHDT</t>
+  </si>
+  <si>
+    <t>freight LDVs</t>
+  </si>
+  <si>
+    <t>LHDT</t>
+  </si>
+  <si>
+    <t>passenger LDVs</t>
+  </si>
+  <si>
+    <t>LDV</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Interpolated Stock+Sales</t>
+  </si>
+  <si>
+    <t>freight rail</t>
+  </si>
+  <si>
+    <t>Freight Rail</t>
+  </si>
+  <si>
+    <t>passenger HDVs</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>passenger aircraft</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>freight motorbikes</t>
+  </si>
+  <si>
+    <t>2W_3W</t>
+  </si>
+  <si>
+    <t>passenger motorbikes</t>
+  </si>
+  <si>
+    <t>Interpolated VKT/TKM/PKM</t>
+  </si>
+  <si>
+    <t>Stock + 
+Sales_million</t>
+  </si>
+  <si>
+    <t>AVLo</t>
+  </si>
+  <si>
+    <t>EPS Vehicle Type</t>
+  </si>
+  <si>
+    <t>PKM_billion</t>
+  </si>
+  <si>
+    <t>TKM_billion</t>
+  </si>
+  <si>
+    <t>VKT_billion</t>
+  </si>
+  <si>
+    <t>Interpolations (2015-20) for estimating 2017 values</t>
+  </si>
+  <si>
+    <t>ICCT model results - 2015 to 2020</t>
+  </si>
+  <si>
+    <t>Vehicle loading</t>
+  </si>
+  <si>
+    <t>Correction factor for 2017</t>
+  </si>
+  <si>
+    <t>The International Council on Clean Transportation</t>
+  </si>
+  <si>
+    <t>Roadmap Model baseline results (August 2017)</t>
+  </si>
+  <si>
+    <t>https://theicct.org/transportation-roadmap</t>
+  </si>
+  <si>
+    <t>Filter by column "Roadmap_Region" = India</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="9">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="###0.00_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -988,8 +1247,48 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1171,8 +1470,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1676,6 +1981,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1701,7 +2057,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
       <alignment horizontal="left"/>
@@ -1736,28 +2092,28 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1846,7 +2202,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1883,11 +2239,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1908,7 +2264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1937,7 +2293,7 @@
     </xf>
     <xf numFmtId="2" fontId="40" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="43" fillId="29" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="43" fillId="29" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1948,10 +2304,10 @@
     <xf numFmtId="9" fontId="40" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
@@ -1969,7 +2325,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2085,6 +2441,123 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="51" fillId="35" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="51" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="51" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="31" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2094,15 +2567,6 @@
     <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,170 +2591,158 @@
     <xf numFmtId="0" fontId="47" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="144">
-    <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Calculation 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Check Cell 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="15"/>
+    <cellStyle name="20% - Accent2 2" xfId="16"/>
+    <cellStyle name="20% - Accent3 2" xfId="17"/>
+    <cellStyle name="20% - Accent4 2" xfId="18"/>
+    <cellStyle name="20% - Accent5 2" xfId="19"/>
+    <cellStyle name="20% - Accent6 2" xfId="20"/>
+    <cellStyle name="40% - Accent1 2" xfId="21"/>
+    <cellStyle name="40% - Accent2 2" xfId="22"/>
+    <cellStyle name="40% - Accent3 2" xfId="23"/>
+    <cellStyle name="40% - Accent4 2" xfId="24"/>
+    <cellStyle name="40% - Accent5 2" xfId="25"/>
+    <cellStyle name="40% - Accent6 2" xfId="26"/>
+    <cellStyle name="60% - Accent1 2" xfId="27"/>
+    <cellStyle name="60% - Accent2 2" xfId="28"/>
+    <cellStyle name="60% - Accent3 2" xfId="29"/>
+    <cellStyle name="60% - Accent4 2" xfId="30"/>
+    <cellStyle name="60% - Accent5 2" xfId="31"/>
+    <cellStyle name="60% - Accent6 2" xfId="32"/>
+    <cellStyle name="Accent1 2" xfId="33"/>
+    <cellStyle name="Accent2 2" xfId="34"/>
+    <cellStyle name="Accent3 2" xfId="35"/>
+    <cellStyle name="Accent4 2" xfId="36"/>
+    <cellStyle name="Accent5 2" xfId="37"/>
+    <cellStyle name="Accent6 2" xfId="38"/>
+    <cellStyle name="Bad 2" xfId="39"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Calculation 2" xfId="40"/>
+    <cellStyle name="Check Cell 2" xfId="41"/>
     <cellStyle name="Comma" xfId="141" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 2 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 2 4" xfId="143" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Comma 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Comma 7" xfId="50" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Currency 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data" xfId="54" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data no deci" xfId="55" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data Superscript" xfId="56" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="57" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Good 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Heading 1 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Heading 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Heading 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Heading 4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Hed Side" xfId="13" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Hed Side bold" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Top" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Comma 2" xfId="42"/>
+    <cellStyle name="Comma 2 2" xfId="11"/>
+    <cellStyle name="Comma 2 2 2" xfId="43"/>
+    <cellStyle name="Comma 2 2 3" xfId="44"/>
+    <cellStyle name="Comma 2 3" xfId="45"/>
+    <cellStyle name="Comma 2 4" xfId="143"/>
+    <cellStyle name="Comma 3" xfId="46"/>
+    <cellStyle name="Comma 4" xfId="47"/>
+    <cellStyle name="Comma 5" xfId="48"/>
+    <cellStyle name="Comma 6" xfId="49"/>
+    <cellStyle name="Comma 7" xfId="50"/>
+    <cellStyle name="Currency 2" xfId="51"/>
+    <cellStyle name="Currency 3" xfId="52"/>
+    <cellStyle name="Currency 3 2" xfId="53"/>
+    <cellStyle name="Data" xfId="54"/>
+    <cellStyle name="Data no deci" xfId="55"/>
+    <cellStyle name="Data Superscript" xfId="56"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="57"/>
+    <cellStyle name="Explanatory Text 2" xfId="58"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Good 2" xfId="59"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Heading 1 2" xfId="60"/>
+    <cellStyle name="Heading 2 2" xfId="61"/>
+    <cellStyle name="Heading 3 2" xfId="62"/>
+    <cellStyle name="Heading 4 2" xfId="63"/>
+    <cellStyle name="Hed Side" xfId="13"/>
+    <cellStyle name="Hed Side bold" xfId="64"/>
+    <cellStyle name="Hed Side Indent" xfId="65"/>
+    <cellStyle name="Hed Side Regular" xfId="66"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="67"/>
+    <cellStyle name="Hed Top" xfId="68"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8"/>
-    <cellStyle name="Input 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Neutral 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Input 2" xfId="69"/>
+    <cellStyle name="Linked Cell 2" xfId="70"/>
+    <cellStyle name="Neutral 2" xfId="71"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="72" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Normal 11" xfId="10" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Normal 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Normal 2 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Normal 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 4" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 7" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 8" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 9" xfId="12" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 5" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 6" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 8" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 5" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 6 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 7" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 8" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 9" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Note 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 10" xfId="72"/>
+    <cellStyle name="Normal 11" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="73"/>
+    <cellStyle name="Normal 2 2 2" xfId="74"/>
+    <cellStyle name="Normal 2 2 3" xfId="75"/>
+    <cellStyle name="Normal 2 3" xfId="76"/>
+    <cellStyle name="Normal 2 4" xfId="77"/>
+    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 3 2" xfId="78"/>
+    <cellStyle name="Normal 3 2 2" xfId="79"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="80"/>
+    <cellStyle name="Normal 3 2 3" xfId="81"/>
+    <cellStyle name="Normal 3 3" xfId="82"/>
+    <cellStyle name="Normal 3 3 2" xfId="83"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="84"/>
+    <cellStyle name="Normal 3 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 4" xfId="86"/>
+    <cellStyle name="Normal 3 4 2" xfId="87"/>
+    <cellStyle name="Normal 3 5" xfId="88"/>
+    <cellStyle name="Normal 3 6" xfId="89"/>
+    <cellStyle name="Normal 3 7" xfId="90"/>
+    <cellStyle name="Normal 3 8" xfId="91"/>
+    <cellStyle name="Normal 3 9" xfId="12"/>
+    <cellStyle name="Normal 4" xfId="92"/>
+    <cellStyle name="Normal 4 2" xfId="93"/>
+    <cellStyle name="Normal 4 2 2" xfId="94"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 3" xfId="96"/>
+    <cellStyle name="Normal 4 3" xfId="97"/>
+    <cellStyle name="Normal 4 3 2" xfId="98"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="99"/>
+    <cellStyle name="Normal 4 3 3" xfId="100"/>
+    <cellStyle name="Normal 4 4" xfId="101"/>
+    <cellStyle name="Normal 4 4 2" xfId="102"/>
+    <cellStyle name="Normal 4 5" xfId="103"/>
+    <cellStyle name="Normal 4 6" xfId="104"/>
+    <cellStyle name="Normal 4 7" xfId="105"/>
+    <cellStyle name="Normal 4 8" xfId="106"/>
+    <cellStyle name="Normal 5" xfId="107"/>
+    <cellStyle name="Normal 5 2" xfId="108"/>
+    <cellStyle name="Normal 5 3" xfId="109"/>
+    <cellStyle name="Normal 6" xfId="110"/>
+    <cellStyle name="Normal 6 2" xfId="111"/>
+    <cellStyle name="Normal 7" xfId="112"/>
+    <cellStyle name="Normal 8" xfId="113"/>
+    <cellStyle name="Normal 9" xfId="114"/>
+    <cellStyle name="Note 2" xfId="115"/>
+    <cellStyle name="Note 2 2" xfId="116"/>
+    <cellStyle name="Output 2" xfId="117"/>
+    <cellStyle name="Parent row" xfId="3"/>
     <cellStyle name="Percent" xfId="142" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Percent 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Percent 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Percent 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Source Hed" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Source Superscript" xfId="123" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Source Text" xfId="9" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="State" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Superscript" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Table Data" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Table Head Top" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Table Hed Side" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Title 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Title Text" xfId="130" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Title Text 1" xfId="131" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Title Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Title-1" xfId="14" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Title-2" xfId="133" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Title-3" xfId="134" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Total 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Warning Text 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Wrap" xfId="137" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Wrap Bold" xfId="138" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Wrap Title" xfId="139" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Percent 2" xfId="118"/>
+    <cellStyle name="Percent 2 2" xfId="119"/>
+    <cellStyle name="Percent 3" xfId="120"/>
+    <cellStyle name="Percent 3 2" xfId="121"/>
+    <cellStyle name="Source Hed" xfId="122"/>
+    <cellStyle name="Source Superscript" xfId="123"/>
+    <cellStyle name="Source Text" xfId="9"/>
+    <cellStyle name="State" xfId="124"/>
+    <cellStyle name="Superscript" xfId="125"/>
+    <cellStyle name="Table Data" xfId="126"/>
+    <cellStyle name="Table Head Top" xfId="127"/>
+    <cellStyle name="Table Hed Side" xfId="128"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Title 2" xfId="129"/>
+    <cellStyle name="Title Text" xfId="130"/>
+    <cellStyle name="Title Text 1" xfId="131"/>
+    <cellStyle name="Title Text 2" xfId="132"/>
+    <cellStyle name="Title-1" xfId="14"/>
+    <cellStyle name="Title-2" xfId="133"/>
+    <cellStyle name="Title-3" xfId="134"/>
+    <cellStyle name="Total 2" xfId="135"/>
+    <cellStyle name="Warning Text 2" xfId="136"/>
+    <cellStyle name="Wrap" xfId="137"/>
+    <cellStyle name="Wrap Bold" xfId="138"/>
+    <cellStyle name="Wrap Title" xfId="139"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2358,6 +2810,128 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Notes"/>
+      <sheetName val="Comparisons"/>
+      <sheetName val="EPS Update"/>
+      <sheetName val="EPS"/>
+      <sheetName val="EIA"/>
+      <sheetName val="IESS"/>
+      <sheetName val="ICCT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="11">
+          <cell r="A11">
+            <v>947817120000</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>277777.77799999999</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>3.6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Rail shipments 93-97"/>
+      <sheetName val="Waterborne Flows 93-97"/>
+      <sheetName val="Air and vessel 93-97"/>
+      <sheetName val="Figure 2 compare"/>
+      <sheetName val="Factors Comparisons"/>
+      <sheetName val="1997  Table 1a Modified"/>
+      <sheetName val="Figure 1"/>
+      <sheetName val="1993-97 Table 1  US Highlights"/>
+      <sheetName val="93-97 US Freight Table 1"/>
+      <sheetName val="93-97 US Freight Table 1 (b)"/>
+      <sheetName val="93-97 Percents Tab 2&amp;3"/>
+      <sheetName val="Integrated View 93-97"/>
+      <sheetName val="Figure 3 modal shares"/>
+      <sheetName val="1993-97 Percents"/>
+      <sheetName val="BTS &amp; ORNL estimates"/>
+      <sheetName val="Oil Pipeline (2)"/>
+      <sheetName val="1997 Table 2"/>
+      <sheetName val="Table 4 Distance"/>
+      <sheetName val="Distance percent change"/>
+      <sheetName val="Distance 93-97"/>
+      <sheetName val="Distance Fig value per ton"/>
+      <sheetName val="Distance Bar"/>
+      <sheetName val="Table 5 Size 93-97"/>
+      <sheetName val="Size percent change"/>
+      <sheetName val="Size Fig value per ton"/>
+      <sheetName val="Size Bar "/>
+      <sheetName val="BTS Mode"/>
+      <sheetName val="Ton-miles data"/>
+      <sheetName val="Ton-miles figure"/>
+      <sheetName val="table 3 commodities"/>
+      <sheetName val="Commodities ranked by value"/>
+      <sheetName val="Commod ranked by tons"/>
+      <sheetName val="Commod ranked by ton-miles"/>
+      <sheetName val="Commod ranked by miles per ton "/>
+      <sheetName val="Commod ranked by val per ton"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2436,23 +3010,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2488,23 +3045,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2680,97 +3220,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="73.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" s="3">
         <v>2016</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="10" customFormat="1">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1">
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:7">
       <c r="B10" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -2780,17 +3341,17 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="28.5">
+      <c r="B21" s="38" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="30">
-      <c r="B21" s="38" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -2810,12 +3371,12 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:2">
@@ -2825,12 +3386,12 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2840,7 +3401,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2851,68 +3412,68 @@
     <row r="37" spans="1:2">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B21" r:id="rId2" xr:uid="{F0FA4D2D-B917-419F-94C7-DA2F8A6839D2}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B21" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2920,56 +3481,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="8" max="8" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="91">
         <f>F18+O18</f>
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="91">
         <f>R18-B2</f>
         <v>1200</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:18" ht="15.75">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="14.65" thickBot="1"/>
+    <row r="6" spans="1:18" ht="15.4">
       <c r="A6" s="50"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -2989,11 +3550,11 @@
       <c r="Q6" s="52"/>
       <c r="R6" s="54"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75">
+    <row r="7" spans="1:18" ht="15.4">
       <c r="A7" s="55"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
@@ -3003,7 +3564,7 @@
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
       <c r="K7" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L7" s="56"/>
       <c r="M7" s="56"/>
@@ -3013,7 +3574,7 @@
       <c r="Q7" s="56"/>
       <c r="R7" s="58"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75">
+    <row r="8" spans="1:18" ht="15.4">
       <c r="A8" s="55"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3033,11 +3594,11 @@
       <c r="Q8" s="60"/>
       <c r="R8" s="63"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75">
+    <row r="9" spans="1:18" ht="15.4">
       <c r="A9" s="55"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
@@ -3047,7 +3608,7 @@
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
       <c r="K9" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L9" s="56"/>
       <c r="M9" s="56"/>
@@ -3061,7 +3622,7 @@
       <c r="A10" s="55"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
@@ -3071,7 +3632,7 @@
       <c r="I10" s="64"/>
       <c r="J10" s="64"/>
       <c r="K10" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="64"/>
@@ -3085,7 +3646,7 @@
       <c r="A11" s="67"/>
       <c r="B11" s="68"/>
       <c r="C11" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="69"/>
       <c r="E11" s="69"/>
@@ -3095,7 +3656,7 @@
       <c r="I11" s="69"/>
       <c r="J11" s="69"/>
       <c r="K11" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L11" s="69"/>
       <c r="M11" s="69"/>
@@ -3106,148 +3667,148 @@
       <c r="R11" s="71"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="173" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="175" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="C12" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="178" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="104" t="s">
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="179"/>
+      <c r="O12" s="179"/>
+      <c r="P12" s="179"/>
+      <c r="Q12" s="180"/>
+      <c r="R12" s="161" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="107" t="s">
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="173"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="164" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="99"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="110" t="s">
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="164" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="165"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="162"/>
+    </row>
+    <row r="14" spans="1:18" ht="25.5">
+      <c r="A14" s="173"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="110" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="108"/>
-    </row>
-    <row r="14" spans="1:18" ht="25.5">
-      <c r="A14" s="99"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="96" t="s">
+      <c r="D14" s="170" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="E14" s="170" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="F14" s="170" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="G14" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="H14" s="167" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="96" t="s">
+      <c r="I14" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="96" t="s">
+      <c r="J14" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="J14" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" s="96" t="s">
+      <c r="L14" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="93" t="s">
+      <c r="M14" s="170" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="93" t="s">
+      <c r="N14" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="96" t="s">
+      <c r="O14" s="170" t="s">
         <v>146</v>
       </c>
-      <c r="O14" s="93" t="s">
-        <v>147</v>
-      </c>
       <c r="P14" s="73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="R14" s="108"/>
+        <v>133</v>
+      </c>
+      <c r="R14" s="162"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="99"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
+      <c r="A15" s="173"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="94"/>
+      <c r="K15" s="168"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="171"/>
       <c r="P15" s="75"/>
       <c r="Q15" s="76"/>
-      <c r="R15" s="108"/>
+      <c r="R15" s="162"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="100"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
+      <c r="A16" s="174"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
       <c r="J16" s="77"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="95"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="169"/>
+      <c r="O16" s="172"/>
       <c r="P16" s="78"/>
       <c r="Q16" s="79"/>
-      <c r="R16" s="109"/>
+      <c r="R16" s="163"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="80">
@@ -3310,7 +3871,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="88">
         <v>586</v>
@@ -3331,7 +3892,7 @@
         <v>57</v>
       </c>
       <c r="I18" s="88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J18" s="89">
         <f>SUM(C18:I18)</f>
@@ -3396,31 +3957,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.73046875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>39</v>
@@ -3428,7 +3989,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>6086</v>
@@ -3436,7 +3997,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>5639</v>
@@ -3444,7 +4005,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <f>SUM(B2:B4)</f>
@@ -3453,11 +4014,11 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -3465,13 +4026,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>65326</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
@@ -3479,19 +4040,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>279308</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="H9" s="21">
         <v>2017</v>
@@ -3499,13 +4060,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="E10" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>119</v>
-      </c>
       <c r="G10" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="41">
         <v>0.6872269809588859</v>
@@ -3513,17 +4074,17 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="4"/>
       <c r="E11" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>119</v>
-      </c>
       <c r="G11" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="41">
         <v>0.7181451682412896</v>
@@ -3531,16 +4092,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="41">
         <v>0.11317598788024429</v>
@@ -3548,19 +4109,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="32">
         <v>10</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="41">
         <v>0.22909010449952699</v>
@@ -3568,7 +4129,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="32">
         <v>50</v>
@@ -3576,7 +4137,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="E15" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G15" s="6">
         <f>B23*(H10/SUM(H10:H11))</f>
@@ -3585,11 +4146,11 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="33"/>
       <c r="E16" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="6">
         <f>B23*(H11/SUM(H10:H11))</f>
@@ -3599,20 +4160,20 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="6">
         <f>B8/B13</f>
         <v>6532.6</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="6">
         <f>B24*(H12/SUM(H12:H13))</f>
@@ -3621,14 +4182,14 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6">
         <f>B9/B14</f>
         <v>5586.16</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="6">
         <f>B24*(H13/SUM(H12:H13))</f>
@@ -3640,12 +4201,12 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="6">
         <f>SUM(B2:B4)*B18/SUM(B18:B19)</f>
@@ -3654,7 +4215,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="6">
         <f>SUM(B2:B4)*B19/SUM(B18:B19)</f>
@@ -3668,27 +4229,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.265625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>620</v>
@@ -3696,7 +4257,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <f>183.9*10^6</f>
@@ -3705,7 +4266,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3784,27 +4345,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.73046875" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="6" max="9" width="16.73046875" customWidth="1"/>
+    <col min="10" max="10" width="20.1328125" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" customWidth="1"/>
+    <col min="12" max="12" width="17.1328125" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:16">
       <c r="K1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -3813,7 +4374,7 @@
     </row>
     <row r="2" spans="8:16">
       <c r="K2" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="16"/>
@@ -3822,13 +4383,13 @@
     </row>
     <row r="3" spans="8:16">
       <c r="K3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="M3" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="N3" s="20">
         <v>2007</v>
@@ -3839,13 +4400,13 @@
     </row>
     <row r="4" spans="8:16">
       <c r="K4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="N4" s="23"/>
       <c r="O4" s="24">
@@ -3856,7 +4417,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="15"/>
       <c r="M5" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="24">
@@ -3867,7 +4428,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="15"/>
       <c r="M6" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="24">
@@ -3878,29 +4439,29 @@
       <c r="K7" s="22"/>
       <c r="L7" s="15"/>
       <c r="M7" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="28">
         <v>0.20051831679096116</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="8:16">
       <c r="H8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="24">
@@ -3912,15 +4473,15 @@
         <v>1597938</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="24">
@@ -3932,17 +4493,17 @@
         <v>3900933</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="24">
@@ -3954,15 +4515,15 @@
         <v>2757639</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="15"/>
       <c r="M11" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="23"/>
       <c r="O11" s="24">
@@ -3974,15 +4535,15 @@
         <v>1817717</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="15"/>
       <c r="M12" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N12" s="23"/>
       <c r="O12" s="24">
@@ -3994,12 +4555,12 @@
         <v>5017285</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="15"/>
       <c r="M13" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N13" s="23"/>
       <c r="O13" s="24">
@@ -4011,12 +4572,12 @@
         <v>341841</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N14" s="23"/>
       <c r="O14" s="24">
@@ -4028,12 +4589,12 @@
         <v>312301</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="15"/>
       <c r="M15" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="24">
@@ -4045,14 +4606,14 @@
         <v>163210</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="22"/>
       <c r="L16" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N16" s="23"/>
       <c r="O16" s="24">
@@ -4064,12 +4625,12 @@
         <v>285118</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" s="22"/>
       <c r="L17" s="15"/>
       <c r="M17" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" s="23"/>
       <c r="O17" s="24">
@@ -4081,15 +4642,15 @@
         <v>1384740</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="15"/>
       <c r="M18" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18" s="23"/>
       <c r="O18" s="24">
@@ -4101,12 +4662,12 @@
         <v>1034957</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="15"/>
       <c r="M19" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="24">
@@ -4118,14 +4679,14 @@
         <v>640831</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="22"/>
       <c r="L20" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" s="23"/>
       <c r="O20" s="24">
@@ -4137,12 +4698,12 @@
         <v>182531</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="15"/>
       <c r="M21" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N21" s="23"/>
       <c r="O21" s="24">
@@ -4154,15 +4715,15 @@
         <v>2341375</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="15"/>
       <c r="M22" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N22" s="23"/>
       <c r="O22" s="24">
@@ -4174,12 +4735,12 @@
         <v>2429135</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" s="22"/>
       <c r="L23" s="15"/>
       <c r="M23" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="24">
@@ -4191,12 +4752,12 @@
         <v>1354689</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="15"/>
       <c r="M24" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N24" s="23"/>
       <c r="O24" s="24">
@@ -4208,17 +4769,17 @@
         <v>6392010</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K25" s="22"/>
       <c r="L25" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N25" s="23"/>
       <c r="O25" s="24">
@@ -4230,15 +4791,15 @@
         <v>26744</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K26" s="22"/>
       <c r="L26" s="15"/>
       <c r="M26" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N26" s="23"/>
       <c r="O26" s="24">
@@ -4250,12 +4811,12 @@
         <v>21090119</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27" s="22"/>
       <c r="L27" s="15"/>
       <c r="M27" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N27" s="23"/>
       <c r="O27" s="24">
@@ -4267,12 +4828,12 @@
         <v>50482957</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K28" s="22"/>
       <c r="L28" s="15"/>
       <c r="M28" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N28" s="23"/>
       <c r="O28" s="24">
@@ -4284,7 +4845,7 @@
         <v>11394919</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="8:15">
@@ -4292,7 +4853,7 @@
         <v>79512467</v>
       </c>
       <c r="I30" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="8:15">
@@ -4300,13 +4861,13 @@
         <v>168975300</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -4318,19 +4879,19 @@
         <v>25612559</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N32" s="20">
         <v>2007</v>
@@ -4344,16 +4905,16 @@
         <v>2287753</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N33" s="29">
         <v>0.91127970346733433</v>
@@ -4367,17 +4928,17 @@
         <v>371927</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K34" s="22"/>
       <c r="L34" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N34" s="29">
         <v>8.8720296532665791E-2</v>
@@ -4391,7 +4952,7 @@
         <v>7086239</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -4399,10 +4960,10 @@
         <v>1821775</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -4410,7 +4971,7 @@
         <v>2768121</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -4418,7 +4979,7 @@
         <v>208923674</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -4426,17 +4987,17 @@
         <v>230030598</v>
       </c>
       <c r="I39" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -4448,10 +5009,10 @@
     </row>
     <row r="43" spans="1:15">
       <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>6</v>
@@ -4469,10 +5030,10 @@
         <v>10</v>
       </c>
       <c r="K43" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L43" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="L43" s="26" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -4480,12 +5041,12 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr LDV")</f>
-        <v>27953934</v>
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr LDV")*('2017 Calcs'!M9/'2017 Calcs'!L9)</f>
+        <v>30217023.576706871</v>
       </c>
       <c r="C44">
-        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt LDV")</f>
-        <v>2757639</v>
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt LDV")*('2017 Calcs'!M10/'2017 Calcs'!L10)</f>
+        <v>2924758.7540349611</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
@@ -4524,12 +5085,12 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr HDV")</f>
-        <v>1756667</v>
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr HDV")*('2017 Calcs'!M6/'2017 Calcs'!L6)</f>
+        <v>1860258.3782431888</v>
       </c>
       <c r="C45">
-        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt HDV")</f>
-        <v>5498871</v>
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt HDV")*('2017 Calcs'!M8/'2017 Calcs'!L8)</f>
+        <v>5838202.9413282741</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
@@ -4567,12 +5128,12 @@
         <v>15</v>
       </c>
       <c r="B46">
-        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr Mtrbk")</f>
-        <v>169002044</v>
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr Mtrbk")*('2017 Calcs'!M3/'2017 Calcs'!L3)</f>
+        <v>179180515.91979063</v>
       </c>
       <c r="C46">
-        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt Mtrbk")</f>
-        <v>8209727</v>
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt Mtrbk")*('2017 Calcs'!M4/'2017 Calcs'!L4)</f>
+        <v>8458698.6709579471</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>15</v>
@@ -4609,7 +5170,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -4637,10 +5198,10 @@
         <v>10</v>
       </c>
       <c r="K49" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L49" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="L49" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="M49" s="43"/>
     </row>
@@ -4745,28 +5306,1554 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53414C9-8DE0-4072-98C4-C859BE86BF3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q43"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" customWidth="1"/>
+    <col min="10" max="10" width="25.1328125" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" customWidth="1"/>
+    <col min="17" max="17" width="11.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" ht="28.15">
+      <c r="A2" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="108" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="160"/>
+      <c r="J2" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" s="153">
+        <v>2015</v>
+      </c>
+      <c r="L2" s="109">
+        <v>2016</v>
+      </c>
+      <c r="M2" s="152">
+        <v>2017</v>
+      </c>
+      <c r="N2" s="109">
+        <v>2018</v>
+      </c>
+      <c r="O2" s="109">
+        <v>2019</v>
+      </c>
+      <c r="P2" s="151">
+        <v>2020</v>
+      </c>
+      <c r="Q2" s="150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="119">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="159">
+        <v>628.28258019999998</v>
+      </c>
+      <c r="D3" s="159">
+        <v>0</v>
+      </c>
+      <c r="E3" s="159">
+        <v>753.93909629999996</v>
+      </c>
+      <c r="F3" s="119" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="158" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="157">
+        <v>67.053822167000007</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="156" t="str">
+        <f>F3</f>
+        <v>passenger motorbikes</v>
+      </c>
+      <c r="K3" s="149">
+        <f>C3</f>
+        <v>628.28258019999998</v>
+      </c>
+      <c r="L3" s="147">
+        <f>FORECAST(L2,$C$3:$C$4,$A$3:$A$4)</f>
+        <v>668.54711093999504</v>
+      </c>
+      <c r="M3" s="148">
+        <f>FORECAST(M2,$C$3:$C$4,$A$3:$A$4)</f>
+        <v>708.81164167998941</v>
+      </c>
+      <c r="N3" s="147">
+        <f>FORECAST(N2,$C$3:$C$4,$A$3:$A$4)</f>
+        <v>749.07617241999833</v>
+      </c>
+      <c r="O3" s="147">
+        <f>FORECAST(O2,$C$3:$C$4,$A$3:$A$4)</f>
+        <v>789.3407031599927</v>
+      </c>
+      <c r="P3" s="146">
+        <f>C4</f>
+        <v>829.60523389999901</v>
+      </c>
+      <c r="Q3" s="130" t="str">
+        <f>C2</f>
+        <v>VKT_billion</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="136">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="137">
+        <v>829.60523389999901</v>
+      </c>
+      <c r="D4" s="137">
+        <v>0</v>
+      </c>
+      <c r="E4" s="137">
+        <v>995.52628070000003</v>
+      </c>
+      <c r="F4" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="135" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="134">
+        <v>87.995845989999992</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="156" t="str">
+        <f>F5</f>
+        <v>freight motorbikes</v>
+      </c>
+      <c r="K4" s="145">
+        <f>C5</f>
+        <v>165.18811169999901</v>
+      </c>
+      <c r="L4" s="102">
+        <f>FORECAST(L2,$C$5:$C$6,$A$5:$A$6)</f>
+        <v>170.35435013999813</v>
+      </c>
+      <c r="M4" s="141">
+        <f>FORECAST(M2,$C$5:$C$6,$A$5:$A$6)</f>
+        <v>175.52058857999873</v>
+      </c>
+      <c r="N4" s="102">
+        <f>FORECAST(N2,$C$5:$C$6,$A$5:$A$6)</f>
+        <v>180.68682701999933</v>
+      </c>
+      <c r="O4" s="102">
+        <f>FORECAST(O2,$C$5:$C$6,$A$5:$A$6)</f>
+        <v>185.85306545999811</v>
+      </c>
+      <c r="P4" s="144">
+        <f>C6</f>
+        <v>191.01930390000001</v>
+      </c>
+      <c r="Q4" s="130" t="str">
+        <f>C2</f>
+        <v>VKT_billion</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="136">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="137">
+        <v>165.18811169999901</v>
+      </c>
+      <c r="D5" s="137">
+        <v>0</v>
+      </c>
+      <c r="E5" s="137">
+        <v>330.37622339999899</v>
+      </c>
+      <c r="F5" s="136" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="135" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="134">
+        <v>5.7529710309999897</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="156" t="str">
+        <f>F7</f>
+        <v>passenger aircraft</v>
+      </c>
+      <c r="K5" s="145">
+        <f>E7</f>
+        <v>252.6677497</v>
+      </c>
+      <c r="L5" s="102">
+        <f>FORECAST(L2,$E$7:$E$8,$A$7:$A$8)</f>
+        <v>268.89283111999612</v>
+      </c>
+      <c r="M5" s="141">
+        <f>FORECAST(M2,$E$7:$E$8,$A$7:$A$8)</f>
+        <v>285.11791253999763</v>
+      </c>
+      <c r="N5" s="102">
+        <f>FORECAST(N2,$E$7:$E$8,$A$7:$A$8)</f>
+        <v>301.34299395999551</v>
+      </c>
+      <c r="O5" s="102">
+        <f>FORECAST(O2,$E$7:$E$8,$A$7:$A$8)</f>
+        <v>317.56807537999703</v>
+      </c>
+      <c r="P5" s="144">
+        <f>E8</f>
+        <v>333.79315680000002</v>
+      </c>
+      <c r="Q5" s="130" t="str">
+        <f>E2</f>
+        <v>PKM_billion</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="136">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="137">
+        <v>191.01930390000001</v>
+      </c>
+      <c r="D6" s="137">
+        <v>0</v>
+      </c>
+      <c r="E6" s="137">
+        <v>382.03860780000002</v>
+      </c>
+      <c r="F6" s="136" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="135" t="str">
+        <f>G5</f>
+        <v>n/a</v>
+      </c>
+      <c r="H6" s="134">
+        <v>6.6430319409999985</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="156" t="str">
+        <f>F9</f>
+        <v>passenger HDVs</v>
+      </c>
+      <c r="K6" s="145">
+        <f>E9</f>
+        <v>3092.0060579999999</v>
+      </c>
+      <c r="L6" s="102">
+        <f>FORECAST(L2,$E$9:$E$10,$A$9:$A$10)</f>
+        <v>3285.7692258000025</v>
+      </c>
+      <c r="M6" s="141">
+        <f>FORECAST(M2,$E$9:$E$10,$A$9:$A$10)</f>
+        <v>3479.5323935999768</v>
+      </c>
+      <c r="N6" s="102">
+        <f>FORECAST(N2,$E$9:$E$10,$A$9:$A$10)</f>
+        <v>3673.2955614000093</v>
+      </c>
+      <c r="O6" s="102">
+        <f>FORECAST(O2,$E$9:$E$10,$A$9:$A$10)</f>
+        <v>3867.0587291999836</v>
+      </c>
+      <c r="P6" s="144">
+        <f>E10</f>
+        <v>4060.8218969999998</v>
+      </c>
+      <c r="Q6" s="130" t="str">
+        <f>E2</f>
+        <v>PKM_billion</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="136">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="137">
+        <v>0</v>
+      </c>
+      <c r="D7" s="137">
+        <v>0</v>
+      </c>
+      <c r="E7" s="137">
+        <v>252.6677497</v>
+      </c>
+      <c r="F7" s="136" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="135">
+        <v>180</v>
+      </c>
+      <c r="H7" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="156" t="str">
+        <f>F11</f>
+        <v>freight rail</v>
+      </c>
+      <c r="K7" s="143">
+        <f>D11</f>
+        <v>761</v>
+      </c>
+      <c r="L7" s="102">
+        <f>FORECAST(L2,$D$11:$D$12,$A$11:$A$12)</f>
+        <v>808.20000000001164</v>
+      </c>
+      <c r="M7" s="141">
+        <f>FORECAST(M2,$D$11:$D$12,$A$11:$A$12)</f>
+        <v>855.40000000000873</v>
+      </c>
+      <c r="N7" s="102">
+        <f>FORECAST(N2,$D$11:$D$12,$A$11:$A$12)</f>
+        <v>902.60000000000582</v>
+      </c>
+      <c r="O7" s="102">
+        <f>FORECAST(O2,$D$11:$D$12,$A$11:$A$12)</f>
+        <v>949.80000000000291</v>
+      </c>
+      <c r="P7" s="142">
+        <f>D12</f>
+        <v>997</v>
+      </c>
+      <c r="Q7" s="130" t="str">
+        <f>D2</f>
+        <v>TKM_billion</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="136">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="136" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="137">
+        <v>0</v>
+      </c>
+      <c r="D8" s="137">
+        <v>0</v>
+      </c>
+      <c r="E8" s="137">
+        <v>333.79315680000002</v>
+      </c>
+      <c r="F8" s="136" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="135">
+        <f>G7</f>
+        <v>180</v>
+      </c>
+      <c r="H8" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="156" t="str">
+        <f>F13</f>
+        <v>freight HDVs</v>
+      </c>
+      <c r="K8" s="145">
+        <f>D13+D19</f>
+        <v>1084.7488480999989</v>
+      </c>
+      <c r="L8" s="102">
+        <f>FORECAST(L2,$D$24:$D$25,$A$24:$A$25)</f>
+        <v>1156.0904792599904</v>
+      </c>
+      <c r="M8" s="141">
+        <f>FORECAST(M2,$D$24:$D$25,$A$24:$A$25)</f>
+        <v>1227.4321104199917</v>
+      </c>
+      <c r="N8" s="102">
+        <f>FORECAST(N2,$D$24:$D$25,$A$24:$A$25)</f>
+        <v>1298.7737415799929</v>
+      </c>
+      <c r="O8" s="102">
+        <f>FORECAST(O2,$D$24:$D$25,$A$24:$A$25)</f>
+        <v>1370.1153727399942</v>
+      </c>
+      <c r="P8" s="144">
+        <f>D14+D20</f>
+        <v>1441.4570039</v>
+      </c>
+      <c r="Q8" s="130" t="str">
+        <f>D23</f>
+        <v>TKM_billion</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="136">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="137">
+        <v>91.614994299999907</v>
+      </c>
+      <c r="D9" s="137">
+        <v>0</v>
+      </c>
+      <c r="E9" s="137">
+        <v>3092.0060579999999</v>
+      </c>
+      <c r="F9" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="135">
+        <v>45</v>
+      </c>
+      <c r="H9" s="134">
+        <v>1.1112206179999999</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="156" t="str">
+        <f>F15</f>
+        <v>passenger LDVs</v>
+      </c>
+      <c r="K9" s="145">
+        <f>C15</f>
+        <v>284.130248399999</v>
+      </c>
+      <c r="L9" s="102">
+        <f>FORECAST(L2,$C$15:$C$16,$A$15:$A$16)</f>
+        <v>309.15909497999382</v>
+      </c>
+      <c r="M9" s="141">
+        <f>FORECAST(M2,$C$15:$C$16,$A$15:$A$16)</f>
+        <v>334.18794155999058</v>
+      </c>
+      <c r="N9" s="102">
+        <f>FORECAST(N2,$C$15:$C$16,$A$15:$A$16)</f>
+        <v>359.21678813999461</v>
+      </c>
+      <c r="O9" s="102">
+        <f>FORECAST(O2,$C$15:$C$16,$A$15:$A$16)</f>
+        <v>384.24563471999136</v>
+      </c>
+      <c r="P9" s="144">
+        <f>C16</f>
+        <v>409.27448129999999</v>
+      </c>
+      <c r="Q9" s="130" t="str">
+        <f>C2</f>
+        <v>VKT_billion</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="136">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="137">
+        <v>120.32064879999901</v>
+      </c>
+      <c r="D10" s="137">
+        <v>0</v>
+      </c>
+      <c r="E10" s="137">
+        <v>4060.8218969999998</v>
+      </c>
+      <c r="F10" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="135">
+        <f>G9</f>
+        <v>45</v>
+      </c>
+      <c r="H10" s="134">
+        <v>1.454767151999989</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="156" t="str">
+        <f>F17</f>
+        <v>freight LDVs</v>
+      </c>
+      <c r="K10" s="145">
+        <f>D17</f>
+        <v>127.53005229999999</v>
+      </c>
+      <c r="L10" s="102">
+        <f>FORECAST(L2,$D$17:$D$18,$A$17:$A$18)</f>
+        <v>135.75727972000459</v>
+      </c>
+      <c r="M10" s="141">
+        <f>FORECAST(M2,$D$17:$D$18,$A$17:$A$18)</f>
+        <v>143.98450714000501</v>
+      </c>
+      <c r="N10" s="102">
+        <f>FORECAST(N2,$D$17:$D$18,$A$17:$A$18)</f>
+        <v>152.21173456000179</v>
+      </c>
+      <c r="O10" s="102">
+        <f>FORECAST(O2,$D$17:$D$18,$A$17:$A$18)</f>
+        <v>160.4389619800022</v>
+      </c>
+      <c r="P10" s="144">
+        <f>D18</f>
+        <v>168.66618940000001</v>
+      </c>
+      <c r="Q10" s="130" t="str">
+        <f>D2</f>
+        <v>TKM_billion</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="136">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="136" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="137">
+        <v>0</v>
+      </c>
+      <c r="D11" s="137">
+        <v>761</v>
+      </c>
+      <c r="E11" s="137">
+        <v>0</v>
+      </c>
+      <c r="F11" s="136" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="135">
+        <v>2830</v>
+      </c>
+      <c r="H11" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="155" t="str">
+        <f>F21</f>
+        <v>passenger rail</v>
+      </c>
+      <c r="K11" s="133">
+        <f>E21</f>
+        <v>1128</v>
+      </c>
+      <c r="L11" s="115">
+        <f>FORECAST(L2,$E$21:$E$22,$A$21:$A$22)</f>
+        <v>1188</v>
+      </c>
+      <c r="M11" s="154">
+        <f>FORECAST(M2,$E$21:$E$22,$A$21:$A$22)</f>
+        <v>1248</v>
+      </c>
+      <c r="N11" s="115">
+        <f>FORECAST(N2,$E$21:$E$22,$A$21:$A$22)</f>
+        <v>1308</v>
+      </c>
+      <c r="O11" s="115">
+        <f>FORECAST(O2,$E$21:$E$22,$A$21:$A$22)</f>
+        <v>1368</v>
+      </c>
+      <c r="P11" s="131">
+        <f>E22</f>
+        <v>1428</v>
+      </c>
+      <c r="Q11" s="93" t="str">
+        <f>E2</f>
+        <v>PKM_billion</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="136">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="136" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="137">
+        <v>0</v>
+      </c>
+      <c r="D12" s="137">
+        <v>997</v>
+      </c>
+      <c r="E12" s="137">
+        <v>0</v>
+      </c>
+      <c r="F12" s="136" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="135">
+        <f>G11</f>
+        <v>2830</v>
+      </c>
+      <c r="H12" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="K12" s="153">
+        <f t="shared" ref="K12:P12" si="0">K2</f>
+        <v>2015</v>
+      </c>
+      <c r="L12" s="109">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="M12" s="152">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="N12" s="109">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="O12" s="109">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="P12" s="151">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="Q12" s="150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="136">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="136" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="137">
+        <v>92.543236980000003</v>
+      </c>
+      <c r="D13" s="137">
+        <v>842.14345649999996</v>
+      </c>
+      <c r="E13" s="137">
+        <v>0</v>
+      </c>
+      <c r="F13" s="136" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="135">
+        <v>6.0999999999999979</v>
+      </c>
+      <c r="H13" s="134">
+        <v>2.7916088079999999</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="136" t="str">
+        <f t="shared" ref="J13:J21" si="1">J3</f>
+        <v>passenger motorbikes</v>
+      </c>
+      <c r="K13" s="149">
+        <f>H3</f>
+        <v>67.053822167000007</v>
+      </c>
+      <c r="L13" s="147">
+        <f>FORECAST(L2,$H$3:$H$4,$A$3:$A$4)</f>
+        <v>71.242226931599362</v>
+      </c>
+      <c r="M13" s="148">
+        <f>FORECAST(M2,$H$3:$H$4,$A$3:$A$4)</f>
+        <v>75.43063169620109</v>
+      </c>
+      <c r="N13" s="147">
+        <f>FORECAST(N2,$H$3:$H$4,$A$3:$A$4)</f>
+        <v>79.619036460800999</v>
+      </c>
+      <c r="O13" s="147">
+        <f>FORECAST(O2,$H$3:$H$4,$A$3:$A$4)</f>
+        <v>83.807441225400908</v>
+      </c>
+      <c r="P13" s="146">
+        <f>H4</f>
+        <v>87.995845989999992</v>
+      </c>
+      <c r="Q13" s="130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="136">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="136" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="137">
+        <v>116.89049199999999</v>
+      </c>
+      <c r="D14" s="137">
+        <v>1145.526822</v>
+      </c>
+      <c r="E14" s="137">
+        <v>0</v>
+      </c>
+      <c r="F14" s="136" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="135">
+        <f>G13</f>
+        <v>6.0999999999999979</v>
+      </c>
+      <c r="H14" s="134">
+        <v>3.5207716059999887</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>freight motorbikes</v>
+      </c>
+      <c r="K14" s="140">
+        <f>H5</f>
+        <v>5.7529710309999897</v>
+      </c>
+      <c r="L14" s="138">
+        <f>FORECAST(L12,$H$5:$H$6,$A$5:$A$6)</f>
+        <v>5.9309832129999904</v>
+      </c>
+      <c r="M14" s="139">
+        <f>FORECAST(M12,$H$5:$H$6,$A$5:$A$6)</f>
+        <v>6.1089953949999654</v>
+      </c>
+      <c r="N14" s="138">
+        <f>FORECAST(N12,$H$5:$H$6,$A$5:$A$6)</f>
+        <v>6.2870075769999971</v>
+      </c>
+      <c r="O14" s="138">
+        <f>FORECAST(O12,$H$5:$H$6,$A$5:$A$6)</f>
+        <v>6.4650197589999721</v>
+      </c>
+      <c r="P14" s="117">
+        <f>H6</f>
+        <v>6.6430319409999985</v>
+      </c>
+      <c r="Q14" s="130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="136">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="136" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="137">
+        <v>284.130248399999</v>
+      </c>
+      <c r="D15" s="137">
+        <v>0</v>
+      </c>
+      <c r="E15" s="137">
+        <v>631.82213149999995</v>
+      </c>
+      <c r="F15" s="136" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="135" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" s="134">
+        <v>28.031563311999989</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>passenger aircraft</v>
+      </c>
+      <c r="K15" s="145"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="141">
+        <v>551.23453630236327</v>
+      </c>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="130" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="136">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="136" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="137">
+        <v>409.27448129999999</v>
+      </c>
+      <c r="D16" s="137">
+        <v>0</v>
+      </c>
+      <c r="E16" s="137">
+        <v>868.96368129999996</v>
+      </c>
+      <c r="F16" s="136" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="135" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="134">
+        <v>40.143727241000001</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>passenger HDVs</v>
+      </c>
+      <c r="K16" s="140">
+        <f>H9</f>
+        <v>1.1112206179999999</v>
+      </c>
+      <c r="L16" s="138">
+        <f>FORECAST(L12,$H$9:$H$10,$A$9:$A$10)</f>
+        <v>1.1799299248000068</v>
+      </c>
+      <c r="M16" s="139">
+        <f>FORECAST(M12,$H$9:$H$10,$A$9:$A$10)</f>
+        <v>1.2486392316000092</v>
+      </c>
+      <c r="N16" s="138">
+        <f>FORECAST(N12,$H$9:$H$10,$A$9:$A$10)</f>
+        <v>1.3173485384000116</v>
+      </c>
+      <c r="O16" s="138">
+        <f>FORECAST(O12,$H$9:$H$10,$A$9:$A$10)</f>
+        <v>1.3860578452000141</v>
+      </c>
+      <c r="P16" s="117">
+        <f>H10</f>
+        <v>1.454767151999989</v>
+      </c>
+      <c r="Q16" s="130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="136">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="137">
+        <v>66.769660920000007</v>
+      </c>
+      <c r="D17" s="137">
+        <v>127.53005229999999</v>
+      </c>
+      <c r="E17" s="137">
+        <v>0</v>
+      </c>
+      <c r="F17" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="135">
+        <v>1.7</v>
+      </c>
+      <c r="H17" s="134">
+        <v>3.3305768930000004</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>freight rail</v>
+      </c>
+      <c r="K17" s="143"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="141">
+        <v>5422.6328634282709</v>
+      </c>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="130" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="136">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="137">
+        <v>88.30690543</v>
+      </c>
+      <c r="D18" s="137">
+        <v>168.66618940000001</v>
+      </c>
+      <c r="E18" s="137">
+        <v>0</v>
+      </c>
+      <c r="F18" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="135">
+        <f>G17</f>
+        <v>1.7</v>
+      </c>
+      <c r="H18" s="134">
+        <v>4.3545614009999998</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>freight HDVs</v>
+      </c>
+      <c r="K18" s="140">
+        <f>H24</f>
+        <v>3.559276273</v>
+      </c>
+      <c r="L18" s="138">
+        <f>FORECAST(L12,$H$24:$H$25,$A$24:$A$25)</f>
+        <v>3.7224350172000413</v>
+      </c>
+      <c r="M18" s="139">
+        <f>FORECAST(M12,$H$24:$H$25,$A$24:$A$25)</f>
+        <v>3.8855937614000027</v>
+      </c>
+      <c r="N18" s="138">
+        <f>FORECAST(N12,$H$24:$H$25,$A$24:$A$25)</f>
+        <v>4.0487525056000209</v>
+      </c>
+      <c r="O18" s="138">
+        <f>FORECAST(O12,$H$24:$H$25,$A$24:$A$25)</f>
+        <v>4.2119112497999822</v>
+      </c>
+      <c r="P18" s="117">
+        <f>H25</f>
+        <v>4.3750699939999889</v>
+      </c>
+      <c r="Q18" s="130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="136">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="136" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="137">
+        <v>26.65993314</v>
+      </c>
+      <c r="D19" s="137">
+        <v>242.605391599999</v>
+      </c>
+      <c r="E19" s="137">
+        <v>0</v>
+      </c>
+      <c r="F19" s="136" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="135">
+        <v>6.0999999999999979</v>
+      </c>
+      <c r="H19" s="134">
+        <v>0.76766746500000005</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>passenger LDVs</v>
+      </c>
+      <c r="K19" s="140">
+        <f>H15</f>
+        <v>28.031563311999989</v>
+      </c>
+      <c r="L19" s="102">
+        <f>FORECAST(L12,$H$15:$H$16,$A$15:$A$16)</f>
+        <v>30.453996097799973</v>
+      </c>
+      <c r="M19" s="141">
+        <f>FORECAST(M12,$H$15:$H$16,$A$15:$A$16)</f>
+        <v>32.876428883600056</v>
+      </c>
+      <c r="N19" s="102">
+        <f>FORECAST(N12,$H$15:$H$16,$A$15:$A$16)</f>
+        <v>35.298861669400139</v>
+      </c>
+      <c r="O19" s="102">
+        <f>FORECAST(O12,$H$15:$H$16,$A$15:$A$16)</f>
+        <v>37.721294455200223</v>
+      </c>
+      <c r="P19" s="117">
+        <f>H16</f>
+        <v>40.143727241000001</v>
+      </c>
+      <c r="Q19" s="130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="136">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="136" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="137">
+        <v>30.196957340000001</v>
+      </c>
+      <c r="D20" s="137">
+        <v>295.93018189999998</v>
+      </c>
+      <c r="E20" s="137">
+        <v>0</v>
+      </c>
+      <c r="F20" s="136" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="135">
+        <f>G19</f>
+        <v>6.0999999999999979</v>
+      </c>
+      <c r="H20" s="134">
+        <v>0.85429838800000002</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>freight LDVs</v>
+      </c>
+      <c r="K20" s="140">
+        <f>H17</f>
+        <v>3.3305768930000004</v>
+      </c>
+      <c r="L20" s="138">
+        <f>FORECAST(L12,$H$17:$H$18,$A$17:$A$18)</f>
+        <v>3.535373794599991</v>
+      </c>
+      <c r="M20" s="139">
+        <f>FORECAST(M12,$H$17:$H$18,$A$17:$A$18)</f>
+        <v>3.7401706961999821</v>
+      </c>
+      <c r="N20" s="138">
+        <f>FORECAST(N12,$H$17:$H$18,$A$17:$A$18)</f>
+        <v>3.9449675977999732</v>
+      </c>
+      <c r="O20" s="138">
+        <f>FORECAST(O12,$H$17:$H$18,$A$17:$A$18)</f>
+        <v>4.1497644994000211</v>
+      </c>
+      <c r="P20" s="117">
+        <f>H18</f>
+        <v>4.3545614009999998</v>
+      </c>
+      <c r="Q20" s="130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="136">
+        <v>2015</v>
+      </c>
+      <c r="B21" s="136" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="137">
+        <v>0</v>
+      </c>
+      <c r="D21" s="137">
+        <v>0</v>
+      </c>
+      <c r="E21" s="137">
+        <v>1128</v>
+      </c>
+      <c r="F21" s="136" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="135">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="114" t="str">
+        <f t="shared" si="1"/>
+        <v>passenger rail</v>
+      </c>
+      <c r="K21" s="133"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="132">
+        <v>6341.3671365717291</v>
+      </c>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="130" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="114">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="129">
+        <v>0</v>
+      </c>
+      <c r="D22" s="129">
+        <v>0</v>
+      </c>
+      <c r="E22" s="129">
+        <v>1428</v>
+      </c>
+      <c r="F22" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="128">
+        <f>G21</f>
+        <v>1000</v>
+      </c>
+      <c r="H22" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="126" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="125" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="123" t="str">
+        <f>D2</f>
+        <v>TKM_billion</v>
+      </c>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="123" t="str">
+        <f>G2</f>
+        <v>AVLo</v>
+      </c>
+      <c r="H23" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="122">
+        <v>2015</v>
+      </c>
+      <c r="B24" s="119" t="str">
+        <f>B19</f>
+        <v>MHDT_HHDT</v>
+      </c>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121">
+        <f>D13+D19</f>
+        <v>1084.7488480999989</v>
+      </c>
+      <c r="E24" s="120"/>
+      <c r="F24" s="119" t="str">
+        <f>F19</f>
+        <v>freight HDVs</v>
+      </c>
+      <c r="G24" s="118">
+        <f>G19</f>
+        <v>6.0999999999999979</v>
+      </c>
+      <c r="H24" s="117">
+        <f>H13+H19</f>
+        <v>3.559276273</v>
+      </c>
+      <c r="J24" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="116">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="114" t="str">
+        <f>B19</f>
+        <v>MHDT_HHDT</v>
+      </c>
+      <c r="C25" s="115"/>
+      <c r="D25" s="97">
+        <f>D14+D20</f>
+        <v>1441.4570039</v>
+      </c>
+      <c r="E25" s="115"/>
+      <c r="F25" s="114" t="str">
+        <f>F24</f>
+        <v>freight HDVs</v>
+      </c>
+      <c r="G25" s="113">
+        <f>G19</f>
+        <v>6.0999999999999979</v>
+      </c>
+      <c r="H25" s="112">
+        <f>H14+H20</f>
+        <v>4.3750699939999889</v>
+      </c>
+      <c r="J25" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="110"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="110"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="95" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="110"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="95"/>
+      <c r="D29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="110"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="110"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" s="93"/>
+      <c r="C31" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="182"/>
+      <c r="E31" s="181" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="182"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:17" ht="27.75">
+      <c r="B32" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="108" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="J32" s="104"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="102">
+        <f>((M9*10^9)/(M19*10^6))</f>
+        <v>10164.970859310561</v>
+      </c>
+      <c r="D33" s="101">
+        <f>((M10*10^9)/G17)/(M20*10^6)</f>
+        <v>22645.161353715037</v>
+      </c>
+      <c r="E33" s="105">
+        <f t="shared" ref="E33:F38" si="2">C33*$A$43</f>
+        <v>6316.2181078206622</v>
+      </c>
+      <c r="F33" s="105">
+        <f t="shared" si="2"/>
+        <v>14071.046555519266</v>
+      </c>
+      <c r="J33" s="104"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="102">
+        <f>((M6*10^9)/G10)/(M16*10^6)</f>
+        <v>61925.766965465031</v>
+      </c>
+      <c r="D34" s="101">
+        <f>((M8*10^9)/G13)/(M18*10^6)</f>
+        <v>51785.747845362916</v>
+      </c>
+      <c r="E34" s="100">
+        <f t="shared" si="2"/>
+        <v>38478.875745097976</v>
+      </c>
+      <c r="F34" s="100">
+        <f t="shared" si="2"/>
+        <v>32178.161924421001</v>
+      </c>
+      <c r="J34" s="104"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="102">
+        <f>((M5*10^9)/G7)/M15</f>
+        <v>2873528.9585178266</v>
+      </c>
+      <c r="D35" s="101">
+        <v>15377464.7887324</v>
+      </c>
+      <c r="E35" s="100">
+        <f t="shared" si="2"/>
+        <v>1785527.5624831805</v>
+      </c>
+      <c r="F35" s="100">
+        <f t="shared" si="2"/>
+        <v>9555110.6732394397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="102">
+        <f>((M11*10^9)/G21)/M21</f>
+        <v>196802.98792394064</v>
+      </c>
+      <c r="D36" s="101">
+        <f>((M7*10^9)/G11)/M17</f>
+        <v>55740.724425117864</v>
+      </c>
+      <c r="E36" s="100">
+        <f t="shared" si="2"/>
+        <v>122287.66940928693</v>
+      </c>
+      <c r="F36" s="100">
+        <f t="shared" si="2"/>
+        <v>34635.669676759913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="102">
+        <v>68275</v>
+      </c>
+      <c r="D37" s="101">
+        <v>249210.460885123</v>
+      </c>
+      <c r="E37" s="100">
+        <f t="shared" si="2"/>
+        <v>42424.105024999997</v>
+      </c>
+      <c r="F37" s="100">
+        <f t="shared" si="2"/>
+        <v>154852.15329064976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="98">
+        <f>(M3*10^9)/(M13*10^6)</f>
+        <v>9396.8673699399405</v>
+      </c>
+      <c r="D38" s="97">
+        <f>(M4*10^9)/(M14*10^6)</f>
+        <v>28731.497935594649</v>
+      </c>
+      <c r="E38" s="96">
+        <f t="shared" si="2"/>
+        <v>5838.9408745269511</v>
+      </c>
+      <c r="F38" s="96">
+        <f t="shared" si="2"/>
+        <v>17852.919603738384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="B39" s="95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40" s="95" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="93">
+        <v>1</v>
+      </c>
+      <c r="B42" s="93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="94">
+        <v>0.62137100000000001</v>
+      </c>
+      <c r="B43" s="93" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30">
+    <row r="1" spans="1:3" ht="28.5">
       <c r="A1" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4774,7 +6861,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>3.5</v>
+        <v>3.7892846421104625</v>
       </c>
       <c r="C2">
         <v>1.7</v>
@@ -4829,10 +6916,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="C7">
-        <v>0.42499999999999999</v>
+        <v>1.76</v>
       </c>
     </row>
   </sheetData>
@@ -4840,32 +6927,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:10">
       <c r="A1" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
@@ -4883,31 +6970,31 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6">
         <f>'India Road'!$B44*'India Road'!F44</f>
-        <v>530028.32526106341</v>
+        <v>572938.26338489645</v>
       </c>
       <c r="C2" s="6">
         <f>'India Road'!$B44*'India Road'!G44</f>
-        <v>731373.36754717003</v>
+        <v>790583.76150377747</v>
       </c>
       <c r="D2" s="6">
         <f>'India Road'!$B44*'India Road'!H44</f>
-        <v>19750111.264474779</v>
+        <v>21349037.231082339</v>
       </c>
       <c r="E2" s="6">
         <f>'India Road'!$B44*'India Road'!I44</f>
-        <v>6211047.6751698116</v>
+        <v>6713880.5592320785</v>
       </c>
       <c r="F2" s="6">
         <f>'India Road'!$B44*'India Road'!J44</f>
@@ -4915,24 +7002,25 @@
       </c>
       <c r="G2" s="6">
         <f>'India Road'!$B44*'India Road'!K44</f>
-        <v>731373.36754717003</v>
+        <v>790583.76150377747</v>
       </c>
       <c r="H2" s="6">
         <f>'India Road'!$B44*'India Road'!L44</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="6">
         <f>'India Road'!$B45*'India Road'!F45</f>
-        <v>7519.9076535986878</v>
+        <v>7963.3597125818605</v>
       </c>
       <c r="C3" s="6">
         <f>'India Road'!$B45*'India Road'!G45</f>
-        <v>23857.181775685964</v>
+        <v>25264.04963461517</v>
       </c>
       <c r="D3" s="6">
         <f>'India Road'!$B45*'India Road'!H45</f>
@@ -4940,7 +7028,7 @@
       </c>
       <c r="E3" s="6">
         <f>'India Road'!$B45*'India Road'!I45</f>
-        <v>1725289.9105707153</v>
+        <v>1827030.9688959918</v>
       </c>
       <c r="F3" s="6">
         <f>'India Road'!$B45*'India Road'!J45</f>
@@ -4954,8 +7042,9 @@
         <f>'India Road'!$B45*'India Road'!L45</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4981,8 +7070,9 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -5009,8 +7099,9 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -5036,14 +7127,15 @@
       <c r="H6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="7">
         <f>'India Road'!$B46*'India Road'!F46</f>
-        <v>6682276.8117987346</v>
+        <v>7084729.7365051452</v>
       </c>
       <c r="C7" s="7">
         <f>'India Road'!$B46*'India Road'!G46</f>
@@ -5051,7 +7143,7 @@
       </c>
       <c r="D7" s="7">
         <f>'India Road'!$B46*'India Road'!H46</f>
-        <v>162319767.18820128</v>
+        <v>172095786.18328547</v>
       </c>
       <c r="E7" s="7">
         <f>'India Road'!$B46*'India Road'!I46</f>
@@ -5069,8 +7161,9 @@
         <f>'India Road'!$B46*'India Road'!L46</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -5079,7 +7172,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -5093,8 +7186,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5104,21 +7197,21 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8">
       <c r="A1" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
@@ -5136,10 +7229,10 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5160,7 +7253,7 @@
       </c>
       <c r="E2" s="10">
         <f>'India Road'!$C44*'India Road'!I50</f>
-        <v>2757639</v>
+        <v>2924758.7540349611</v>
       </c>
       <c r="F2" s="10">
         <f>'India Road'!$C44*'India Road'!J50</f>
@@ -5193,7 +7286,7 @@
       </c>
       <c r="E3" s="10">
         <f>'India Road'!$C45*'India Road'!I51</f>
-        <v>5498871</v>
+        <v>5838202.9413282741</v>
       </c>
       <c r="F3" s="10">
         <f>'India Road'!$C45*'India Road'!J51</f>
@@ -5296,19 +7389,19 @@
       </c>
       <c r="B7" s="7">
         <f>'India Road'!$C46*'India Road'!F52</f>
-        <v>277078.28624999995</v>
+        <v>285481.08014483069</v>
       </c>
       <c r="C7" s="7">
         <f>'India Road'!$C46*'India Road'!G52</f>
-        <v>928267.03387483058</v>
+        <v>956418.05455054785</v>
       </c>
       <c r="D7" s="7">
         <f>'India Road'!$C46*'India Road'!H52</f>
-        <v>3283890.7999999993</v>
+        <v>3383479.4683831781</v>
       </c>
       <c r="E7" s="7">
         <f>'India Road'!$C46*'India Road'!I52</f>
-        <v>3009131.0036627888</v>
+        <v>3100387.1896618223</v>
       </c>
       <c r="F7" s="7">
         <f>'India Road'!$C46*'India Road'!J52</f>
@@ -5316,7 +7409,7 @@
       </c>
       <c r="G7" s="7">
         <f>'India Road'!$C46*'India Road'!K52</f>
-        <v>711359.87621238094</v>
+        <v>732932.87821756757</v>
       </c>
       <c r="H7" s="7">
         <f>'India Road'!$C46*'India Road'!L52</f>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2531,6 +2531,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2566,30 +2590,6 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3223,7 +3223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3667,99 +3667,99 @@
       <c r="R11" s="71"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="161" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="175" t="s">
+      <c r="B12" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="178" t="s">
+      <c r="C12" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="178" t="s">
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="166" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="179"/>
-      <c r="Q12" s="180"/>
-      <c r="R12" s="161" t="s">
+      <c r="L12" s="167"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="167"/>
+      <c r="O12" s="167"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="169" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="173"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="164" t="s">
+      <c r="A13" s="161"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="172" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="164" t="s">
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="172" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="162"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="170"/>
     </row>
     <row r="14" spans="1:18" ht="25.5">
-      <c r="A14" s="173"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="167" t="s">
+      <c r="A14" s="161"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="175" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="170" t="s">
+      <c r="D14" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="170" t="s">
+      <c r="E14" s="178" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="170" t="s">
+      <c r="F14" s="178" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="167" t="s">
+      <c r="G14" s="175" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="167" t="s">
+      <c r="H14" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="167" t="s">
+      <c r="I14" s="175" t="s">
         <v>141</v>
       </c>
       <c r="J14" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="K14" s="167" t="s">
+      <c r="K14" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="170" t="s">
+      <c r="L14" s="178" t="s">
         <v>143</v>
       </c>
-      <c r="M14" s="170" t="s">
+      <c r="M14" s="178" t="s">
         <v>144</v>
       </c>
-      <c r="N14" s="167" t="s">
+      <c r="N14" s="175" t="s">
         <v>145</v>
       </c>
-      <c r="O14" s="170" t="s">
+      <c r="O14" s="178" t="s">
         <v>146</v>
       </c>
       <c r="P14" s="73" t="s">
@@ -3768,47 +3768,47 @@
       <c r="Q14" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="R14" s="162"/>
+      <c r="R14" s="170"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="173"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="168"/>
-      <c r="O15" s="171"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="179"/>
+      <c r="N15" s="176"/>
+      <c r="O15" s="179"/>
       <c r="P15" s="75"/>
       <c r="Q15" s="76"/>
-      <c r="R15" s="162"/>
+      <c r="R15" s="170"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="174"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
+      <c r="A16" s="162"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
       <c r="J16" s="77"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="169"/>
-      <c r="O16" s="172"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="180"/>
       <c r="P16" s="78"/>
       <c r="Q16" s="79"/>
-      <c r="R16" s="163"/>
+      <c r="R16" s="171"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="80">
@@ -3931,6 +3931,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:J12"/>
@@ -3947,9 +3950,6 @@
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3960,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6932,10 +6932,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7180,6 +7180,9 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="India Rail" sheetId="7" r:id="rId3"/>
     <sheet name="India Aircraft" sheetId="6" r:id="rId4"/>
     <sheet name="India Road" sheetId="5" r:id="rId5"/>
-    <sheet name="2017 Calcs" sheetId="10" r:id="rId6"/>
+    <sheet name="2018 Calcs" sheetId="10" r:id="rId6"/>
     <sheet name="India AVLo" sheetId="9" r:id="rId7"/>
     <sheet name="SYVbT-passenger" sheetId="2" r:id="rId8"/>
     <sheet name="SYVbT-freight" sheetId="4" r:id="rId9"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="224">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -718,16 +718,10 @@
     <t>BAADTbVT-passengers</t>
   </si>
   <si>
-    <t>2017 Values</t>
-  </si>
-  <si>
     <t>vehicle - miles</t>
   </si>
   <si>
     <t>vehicle - kms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017 - BAADTbVT </t>
   </si>
   <si>
     <t>ICCT reports two types of freight HDVs - they are combined together in the same EPS category.</t>
@@ -892,18 +886,12 @@
     <t>VKT_billion</t>
   </si>
   <si>
-    <t>Interpolations (2015-20) for estimating 2017 values</t>
-  </si>
-  <si>
     <t>ICCT model results - 2015 to 2020</t>
   </si>
   <si>
     <t>Vehicle loading</t>
   </si>
   <si>
-    <t>Correction factor for 2017</t>
-  </si>
-  <si>
     <t>The International Council on Clean Transportation</t>
   </si>
   <si>
@@ -914,6 +902,18 @@
   </si>
   <si>
     <t>Filter by column "Roadmap_Region" = India</t>
+  </si>
+  <si>
+    <t>Interpolations (2015-20) for estimating 2018 values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 - BAADTbVT </t>
+  </si>
+  <si>
+    <t>2018 Values</t>
+  </si>
+  <si>
+    <t>Correction factor for 2018</t>
   </si>
 </sst>
 </file>
@@ -2243,7 +2243,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2490,7 +2490,6 @@
     </xf>
     <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="51" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="51" fillId="31" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="51" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2531,6 +2530,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="31" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2597,6 +2602,8 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="51" fillId="31" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140"/>
   </cellXfs>
   <cellStyles count="144">
     <cellStyle name="20% - Accent1 2" xfId="15"/>
@@ -3223,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3245,7 +3252,7 @@
         <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3256,7 +3263,7 @@
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3272,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3280,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3288,7 +3295,7 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1">
@@ -3375,7 +3382,7 @@
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" t="s">
+      <c r="B28" s="189" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3386,7 +3393,7 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -3474,9 +3481,10 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
     <hyperlink ref="B21" r:id="rId2"/>
+    <hyperlink ref="B28" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3485,7 +3493,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3667,99 +3675,99 @@
       <c r="R11" s="71"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="171" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="166" t="s">
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="167"/>
-      <c r="P12" s="167"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="169" t="s">
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="172"/>
+      <c r="P12" s="172"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="174" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="161"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="172" t="s">
+      <c r="A13" s="166"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="177" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="172" t="s">
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="177" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="174"/>
-      <c r="R13" s="170"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="178"/>
+      <c r="N13" s="178"/>
+      <c r="O13" s="178"/>
+      <c r="P13" s="178"/>
+      <c r="Q13" s="179"/>
+      <c r="R13" s="175"/>
     </row>
     <row r="14" spans="1:18" ht="25.5">
-      <c r="A14" s="161"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="175" t="s">
+      <c r="A14" s="166"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="180" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="178" t="s">
+      <c r="D14" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="178" t="s">
+      <c r="E14" s="183" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="178" t="s">
+      <c r="F14" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="175" t="s">
+      <c r="G14" s="180" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="175" t="s">
+      <c r="H14" s="180" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="175" t="s">
+      <c r="I14" s="180" t="s">
         <v>141</v>
       </c>
       <c r="J14" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="K14" s="175" t="s">
+      <c r="K14" s="180" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="178" t="s">
+      <c r="L14" s="183" t="s">
         <v>143</v>
       </c>
-      <c r="M14" s="178" t="s">
+      <c r="M14" s="183" t="s">
         <v>144</v>
       </c>
-      <c r="N14" s="175" t="s">
+      <c r="N14" s="180" t="s">
         <v>145</v>
       </c>
-      <c r="O14" s="178" t="s">
+      <c r="O14" s="183" t="s">
         <v>146</v>
       </c>
       <c r="P14" s="73" t="s">
@@ -3768,47 +3776,47 @@
       <c r="Q14" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="R14" s="170"/>
+      <c r="R14" s="175"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="161"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
+      <c r="A15" s="166"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="179"/>
-      <c r="N15" s="176"/>
-      <c r="O15" s="179"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="184"/>
       <c r="P15" s="75"/>
       <c r="Q15" s="76"/>
-      <c r="R15" s="170"/>
+      <c r="R15" s="175"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="162"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
       <c r="J16" s="77"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="180"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="185"/>
+      <c r="M16" s="185"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="185"/>
       <c r="P16" s="78"/>
       <c r="Q16" s="79"/>
-      <c r="R16" s="171"/>
+      <c r="R16" s="176"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="80">
@@ -3960,8 +3968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4232,8 +4240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4348,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5041,12 +5049,12 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr LDV")*('2017 Calcs'!M9/'2017 Calcs'!L9)</f>
-        <v>30217023.576706871</v>
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr LDV")*('2018 Calcs'!N9/'2018 Calcs'!L9)</f>
+        <v>32480113.15341441</v>
       </c>
       <c r="C44">
-        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt LDV")*('2017 Calcs'!M10/'2017 Calcs'!L10)</f>
-        <v>2924758.7540349611</v>
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt LDV")*('2018 Calcs'!N10/'2018 Calcs'!L10)</f>
+        <v>3091878.5080698477</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
@@ -5085,12 +5093,12 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr HDV")*('2017 Calcs'!M6/'2017 Calcs'!L6)</f>
-        <v>1860258.3782431888</v>
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr HDV")*('2018 Calcs'!N6/'2018 Calcs'!L6)</f>
+        <v>1963849.7564864086</v>
       </c>
       <c r="C45">
-        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt HDV")*('2017 Calcs'!M8/'2017 Calcs'!L8)</f>
-        <v>5838202.9413282741</v>
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt HDV")*('2018 Calcs'!N8/'2018 Calcs'!L8)</f>
+        <v>6177534.8826565482</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
@@ -5128,12 +5136,12 @@
         <v>15</v>
       </c>
       <c r="B46">
-        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr Mtrbk")*('2017 Calcs'!M3/'2017 Calcs'!L3)</f>
-        <v>179180515.91979063</v>
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr Mtrbk")*('2018 Calcs'!N3/'2018 Calcs'!L3)</f>
+        <v>189358987.83958492</v>
       </c>
       <c r="C46">
-        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt Mtrbk")*('2017 Calcs'!M4/'2017 Calcs'!L4)</f>
-        <v>8458698.6709579471</v>
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt Mtrbk")*('2018 Calcs'!N4/'2018 Calcs'!L4)</f>
+        <v>8707670.341915898</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>15</v>
@@ -5307,10 +5315,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5330,7 +5338,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5340,7 +5348,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -5357,47 +5365,47 @@
         <v>29</v>
       </c>
       <c r="C2" s="108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D2" s="108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E2" s="108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G2" s="108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H2" s="106" t="s">
-        <v>210</v>
-      </c>
-      <c r="I2" s="160"/>
+        <v>208</v>
+      </c>
+      <c r="I2" s="159"/>
       <c r="J2" s="108" t="s">
-        <v>209</v>
-      </c>
-      <c r="K2" s="153">
+        <v>207</v>
+      </c>
+      <c r="K2" s="152">
         <v>2015</v>
       </c>
       <c r="L2" s="109">
         <v>2016</v>
       </c>
-      <c r="M2" s="152">
+      <c r="M2" s="160">
         <v>2017</v>
       </c>
-      <c r="N2" s="109">
+      <c r="N2" s="151">
         <v>2018</v>
       </c>
       <c r="O2" s="109">
         <v>2019</v>
       </c>
-      <c r="P2" s="151">
+      <c r="P2" s="150">
         <v>2020</v>
       </c>
-      <c r="Q2" s="150" t="s">
-        <v>198</v>
+      <c r="Q2" s="149" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5405,40 +5413,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="159">
+        <v>205</v>
+      </c>
+      <c r="C3" s="158">
         <v>628.28258019999998</v>
       </c>
-      <c r="D3" s="159">
-        <v>0</v>
-      </c>
-      <c r="E3" s="159">
+      <c r="D3" s="158">
+        <v>0</v>
+      </c>
+      <c r="E3" s="158">
         <v>753.93909629999996</v>
       </c>
       <c r="F3" s="119" t="s">
-        <v>208</v>
-      </c>
-      <c r="G3" s="158" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" s="157">
+        <v>206</v>
+      </c>
+      <c r="G3" s="157" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="156">
         <v>67.053822167000007</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="156" t="str">
+      <c r="J3" s="155" t="str">
         <f>F3</f>
         <v>passenger motorbikes</v>
       </c>
-      <c r="K3" s="149">
+      <c r="K3" s="148">
         <f>C3</f>
         <v>628.28258019999998</v>
       </c>
-      <c r="L3" s="147">
+      <c r="L3" s="146">
         <f>FORECAST(L2,$C$3:$C$4,$A$3:$A$4)</f>
         <v>668.54711093999504</v>
       </c>
-      <c r="M3" s="148">
+      <c r="M3" s="161">
         <f>FORECAST(M2,$C$3:$C$4,$A$3:$A$4)</f>
         <v>708.81164167998941</v>
       </c>
@@ -5446,11 +5454,11 @@
         <f>FORECAST(N2,$C$3:$C$4,$A$3:$A$4)</f>
         <v>749.07617241999833</v>
       </c>
-      <c r="O3" s="147">
+      <c r="O3" s="146">
         <f>FORECAST(O2,$C$3:$C$4,$A$3:$A$4)</f>
         <v>789.3407031599927</v>
       </c>
-      <c r="P3" s="146">
+      <c r="P3" s="145">
         <f>C4</f>
         <v>829.60523389999901</v>
       </c>
@@ -5460,36 +5468,36 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="136">
+      <c r="A4" s="135">
         <v>2020</v>
       </c>
-      <c r="B4" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="137">
+      <c r="B4" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="136">
         <v>829.60523389999901</v>
       </c>
-      <c r="D4" s="137">
-        <v>0</v>
-      </c>
-      <c r="E4" s="137">
+      <c r="D4" s="136">
+        <v>0</v>
+      </c>
+      <c r="E4" s="136">
         <v>995.52628070000003</v>
       </c>
-      <c r="F4" s="136" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="135" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="134">
+      <c r="F4" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="133">
         <v>87.995845989999992</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="156" t="str">
+      <c r="J4" s="155" t="str">
         <f>F5</f>
         <v>freight motorbikes</v>
       </c>
-      <c r="K4" s="145">
+      <c r="K4" s="144">
         <f>C5</f>
         <v>165.18811169999901</v>
       </c>
@@ -5497,11 +5505,11 @@
         <f>FORECAST(L2,$C$5:$C$6,$A$5:$A$6)</f>
         <v>170.35435013999813</v>
       </c>
-      <c r="M4" s="141">
+      <c r="M4" s="162">
         <f>FORECAST(M2,$C$5:$C$6,$A$5:$A$6)</f>
         <v>175.52058857999873</v>
       </c>
-      <c r="N4" s="102">
+      <c r="N4" s="140">
         <f>FORECAST(N2,$C$5:$C$6,$A$5:$A$6)</f>
         <v>180.68682701999933</v>
       </c>
@@ -5509,7 +5517,7 @@
         <f>FORECAST(O2,$C$5:$C$6,$A$5:$A$6)</f>
         <v>185.85306545999811</v>
       </c>
-      <c r="P4" s="144">
+      <c r="P4" s="143">
         <f>C6</f>
         <v>191.01930390000001</v>
       </c>
@@ -5519,36 +5527,36 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="136">
+      <c r="A5" s="135">
         <v>2015</v>
       </c>
-      <c r="B5" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="137">
+      <c r="B5" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="136">
         <v>165.18811169999901</v>
       </c>
-      <c r="D5" s="137">
-        <v>0</v>
-      </c>
-      <c r="E5" s="137">
+      <c r="D5" s="136">
+        <v>0</v>
+      </c>
+      <c r="E5" s="136">
         <v>330.37622339999899</v>
       </c>
-      <c r="F5" s="136" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="135" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" s="134">
+      <c r="F5" s="135" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="133">
         <v>5.7529710309999897</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="156" t="str">
+      <c r="J5" s="155" t="str">
         <f>F7</f>
         <v>passenger aircraft</v>
       </c>
-      <c r="K5" s="145">
+      <c r="K5" s="144">
         <f>E7</f>
         <v>252.6677497</v>
       </c>
@@ -5556,11 +5564,11 @@
         <f>FORECAST(L2,$E$7:$E$8,$A$7:$A$8)</f>
         <v>268.89283111999612</v>
       </c>
-      <c r="M5" s="141">
+      <c r="M5" s="162">
         <f>FORECAST(M2,$E$7:$E$8,$A$7:$A$8)</f>
         <v>285.11791253999763</v>
       </c>
-      <c r="N5" s="102">
+      <c r="N5" s="140">
         <f>FORECAST(N2,$E$7:$E$8,$A$7:$A$8)</f>
         <v>301.34299395999551</v>
       </c>
@@ -5568,7 +5576,7 @@
         <f>FORECAST(O2,$E$7:$E$8,$A$7:$A$8)</f>
         <v>317.56807537999703</v>
       </c>
-      <c r="P5" s="144">
+      <c r="P5" s="143">
         <f>E8</f>
         <v>333.79315680000002</v>
       </c>
@@ -5578,37 +5586,37 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="136">
+      <c r="A6" s="135">
         <v>2020</v>
       </c>
-      <c r="B6" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="137">
+      <c r="B6" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="136">
         <v>191.01930390000001</v>
       </c>
-      <c r="D6" s="137">
-        <v>0</v>
-      </c>
-      <c r="E6" s="137">
+      <c r="D6" s="136">
+        <v>0</v>
+      </c>
+      <c r="E6" s="136">
         <v>382.03860780000002</v>
       </c>
-      <c r="F6" s="136" t="s">
-        <v>206</v>
-      </c>
-      <c r="G6" s="135" t="str">
+      <c r="F6" s="135" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="134" t="str">
         <f>G5</f>
         <v>n/a</v>
       </c>
-      <c r="H6" s="134">
+      <c r="H6" s="133">
         <v>6.6430319409999985</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="156" t="str">
+      <c r="J6" s="155" t="str">
         <f>F9</f>
         <v>passenger HDVs</v>
       </c>
-      <c r="K6" s="145">
+      <c r="K6" s="144">
         <f>E9</f>
         <v>3092.0060579999999</v>
       </c>
@@ -5616,11 +5624,11 @@
         <f>FORECAST(L2,$E$9:$E$10,$A$9:$A$10)</f>
         <v>3285.7692258000025</v>
       </c>
-      <c r="M6" s="141">
+      <c r="M6" s="162">
         <f>FORECAST(M2,$E$9:$E$10,$A$9:$A$10)</f>
         <v>3479.5323935999768</v>
       </c>
-      <c r="N6" s="102">
+      <c r="N6" s="140">
         <f>FORECAST(N2,$E$9:$E$10,$A$9:$A$10)</f>
         <v>3673.2955614000093</v>
       </c>
@@ -5628,7 +5636,7 @@
         <f>FORECAST(O2,$E$9:$E$10,$A$9:$A$10)</f>
         <v>3867.0587291999836</v>
       </c>
-      <c r="P6" s="144">
+      <c r="P6" s="143">
         <f>E10</f>
         <v>4060.8218969999998</v>
       </c>
@@ -5638,36 +5646,36 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="136">
+      <c r="A7" s="135">
         <v>2015</v>
       </c>
-      <c r="B7" s="136" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="137">
-        <v>0</v>
-      </c>
-      <c r="D7" s="137">
-        <v>0</v>
-      </c>
-      <c r="E7" s="137">
+      <c r="B7" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="136">
+        <v>0</v>
+      </c>
+      <c r="D7" s="136">
+        <v>0</v>
+      </c>
+      <c r="E7" s="136">
         <v>252.6677497</v>
       </c>
-      <c r="F7" s="136" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="135">
+      <c r="F7" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="134">
         <v>180</v>
       </c>
-      <c r="H7" s="134" t="s">
-        <v>187</v>
+      <c r="H7" s="133" t="s">
+        <v>185</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="156" t="str">
+      <c r="J7" s="155" t="str">
         <f>F11</f>
         <v>freight rail</v>
       </c>
-      <c r="K7" s="143">
+      <c r="K7" s="142">
         <f>D11</f>
         <v>761</v>
       </c>
@@ -5675,11 +5683,11 @@
         <f>FORECAST(L2,$D$11:$D$12,$A$11:$A$12)</f>
         <v>808.20000000001164</v>
       </c>
-      <c r="M7" s="141">
+      <c r="M7" s="162">
         <f>FORECAST(M2,$D$11:$D$12,$A$11:$A$12)</f>
         <v>855.40000000000873</v>
       </c>
-      <c r="N7" s="102">
+      <c r="N7" s="140">
         <f>FORECAST(N2,$D$11:$D$12,$A$11:$A$12)</f>
         <v>902.60000000000582</v>
       </c>
@@ -5687,7 +5695,7 @@
         <f>FORECAST(O2,$D$11:$D$12,$A$11:$A$12)</f>
         <v>949.80000000000291</v>
       </c>
-      <c r="P7" s="142">
+      <c r="P7" s="141">
         <f>D12</f>
         <v>997</v>
       </c>
@@ -5697,37 +5705,37 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="136">
+      <c r="A8" s="135">
         <v>2020</v>
       </c>
-      <c r="B8" s="136" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="137">
-        <v>0</v>
-      </c>
-      <c r="D8" s="137">
-        <v>0</v>
-      </c>
-      <c r="E8" s="137">
+      <c r="B8" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="136">
+        <v>0</v>
+      </c>
+      <c r="D8" s="136">
+        <v>0</v>
+      </c>
+      <c r="E8" s="136">
         <v>333.79315680000002</v>
       </c>
-      <c r="F8" s="136" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" s="135">
+      <c r="F8" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="134">
         <f>G7</f>
         <v>180</v>
       </c>
-      <c r="H8" s="134" t="s">
-        <v>187</v>
+      <c r="H8" s="133" t="s">
+        <v>185</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="156" t="str">
+      <c r="J8" s="155" t="str">
         <f>F13</f>
         <v>freight HDVs</v>
       </c>
-      <c r="K8" s="145">
+      <c r="K8" s="144">
         <f>D13+D19</f>
         <v>1084.7488480999989</v>
       </c>
@@ -5735,11 +5743,11 @@
         <f>FORECAST(L2,$D$24:$D$25,$A$24:$A$25)</f>
         <v>1156.0904792599904</v>
       </c>
-      <c r="M8" s="141">
+      <c r="M8" s="162">
         <f>FORECAST(M2,$D$24:$D$25,$A$24:$A$25)</f>
         <v>1227.4321104199917</v>
       </c>
-      <c r="N8" s="102">
+      <c r="N8" s="140">
         <f>FORECAST(N2,$D$24:$D$25,$A$24:$A$25)</f>
         <v>1298.7737415799929</v>
       </c>
@@ -5747,7 +5755,7 @@
         <f>FORECAST(O2,$D$24:$D$25,$A$24:$A$25)</f>
         <v>1370.1153727399942</v>
       </c>
-      <c r="P8" s="144">
+      <c r="P8" s="143">
         <f>D14+D20</f>
         <v>1441.4570039</v>
       </c>
@@ -5757,36 +5765,36 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="136">
+      <c r="A9" s="135">
         <v>2015</v>
       </c>
-      <c r="B9" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="137">
+      <c r="B9" s="135" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="136">
         <v>91.614994299999907</v>
       </c>
-      <c r="D9" s="137">
-        <v>0</v>
-      </c>
-      <c r="E9" s="137">
+      <c r="D9" s="136">
+        <v>0</v>
+      </c>
+      <c r="E9" s="136">
         <v>3092.0060579999999</v>
       </c>
-      <c r="F9" s="136" t="s">
-        <v>202</v>
-      </c>
-      <c r="G9" s="135">
+      <c r="F9" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="134">
         <v>45</v>
       </c>
-      <c r="H9" s="134">
+      <c r="H9" s="133">
         <v>1.1112206179999999</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="156" t="str">
+      <c r="J9" s="155" t="str">
         <f>F15</f>
         <v>passenger LDVs</v>
       </c>
-      <c r="K9" s="145">
+      <c r="K9" s="144">
         <f>C15</f>
         <v>284.130248399999</v>
       </c>
@@ -5794,11 +5802,11 @@
         <f>FORECAST(L2,$C$15:$C$16,$A$15:$A$16)</f>
         <v>309.15909497999382</v>
       </c>
-      <c r="M9" s="141">
+      <c r="M9" s="162">
         <f>FORECAST(M2,$C$15:$C$16,$A$15:$A$16)</f>
         <v>334.18794155999058</v>
       </c>
-      <c r="N9" s="102">
+      <c r="N9" s="140">
         <f>FORECAST(N2,$C$15:$C$16,$A$15:$A$16)</f>
         <v>359.21678813999461</v>
       </c>
@@ -5806,7 +5814,7 @@
         <f>FORECAST(O2,$C$15:$C$16,$A$15:$A$16)</f>
         <v>384.24563471999136</v>
       </c>
-      <c r="P9" s="144">
+      <c r="P9" s="143">
         <f>C16</f>
         <v>409.27448129999999</v>
       </c>
@@ -5816,37 +5824,37 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="136">
+      <c r="A10" s="135">
         <v>2020</v>
       </c>
-      <c r="B10" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="137">
+      <c r="B10" s="135" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="136">
         <v>120.32064879999901</v>
       </c>
-      <c r="D10" s="137">
-        <v>0</v>
-      </c>
-      <c r="E10" s="137">
+      <c r="D10" s="136">
+        <v>0</v>
+      </c>
+      <c r="E10" s="136">
         <v>4060.8218969999998</v>
       </c>
-      <c r="F10" s="136" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="135">
+      <c r="F10" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="134">
         <f>G9</f>
         <v>45</v>
       </c>
-      <c r="H10" s="134">
+      <c r="H10" s="133">
         <v>1.454767151999989</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="156" t="str">
+      <c r="J10" s="155" t="str">
         <f>F17</f>
         <v>freight LDVs</v>
       </c>
-      <c r="K10" s="145">
+      <c r="K10" s="144">
         <f>D17</f>
         <v>127.53005229999999</v>
       </c>
@@ -5854,11 +5862,11 @@
         <f>FORECAST(L2,$D$17:$D$18,$A$17:$A$18)</f>
         <v>135.75727972000459</v>
       </c>
-      <c r="M10" s="141">
+      <c r="M10" s="162">
         <f>FORECAST(M2,$D$17:$D$18,$A$17:$A$18)</f>
         <v>143.98450714000501</v>
       </c>
-      <c r="N10" s="102">
+      <c r="N10" s="140">
         <f>FORECAST(N2,$D$17:$D$18,$A$17:$A$18)</f>
         <v>152.21173456000179</v>
       </c>
@@ -5866,7 +5874,7 @@
         <f>FORECAST(O2,$D$17:$D$18,$A$17:$A$18)</f>
         <v>160.4389619800022</v>
       </c>
-      <c r="P10" s="144">
+      <c r="P10" s="143">
         <f>D18</f>
         <v>168.66618940000001</v>
       </c>
@@ -5876,36 +5884,36 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="136">
+      <c r="A11" s="135">
         <v>2015</v>
       </c>
-      <c r="B11" s="136" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="137">
-        <v>0</v>
-      </c>
-      <c r="D11" s="137">
+      <c r="B11" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="136">
+        <v>0</v>
+      </c>
+      <c r="D11" s="136">
         <v>761</v>
       </c>
-      <c r="E11" s="137">
-        <v>0</v>
-      </c>
-      <c r="F11" s="136" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="135">
+      <c r="E11" s="136">
+        <v>0</v>
+      </c>
+      <c r="F11" s="135" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="134">
         <v>2830</v>
       </c>
-      <c r="H11" s="134" t="s">
-        <v>187</v>
+      <c r="H11" s="133" t="s">
+        <v>185</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="155" t="str">
+      <c r="J11" s="154" t="str">
         <f>F21</f>
         <v>passenger rail</v>
       </c>
-      <c r="K11" s="133">
+      <c r="K11" s="132">
         <f>E21</f>
         <v>1128</v>
       </c>
@@ -5913,11 +5921,11 @@
         <f>FORECAST(L2,$E$21:$E$22,$A$21:$A$22)</f>
         <v>1188</v>
       </c>
-      <c r="M11" s="154">
+      <c r="M11" s="163">
         <f>FORECAST(M2,$E$21:$E$22,$A$21:$A$22)</f>
         <v>1248</v>
       </c>
-      <c r="N11" s="115">
+      <c r="N11" s="153">
         <f>FORECAST(N2,$E$21:$E$22,$A$21:$A$22)</f>
         <v>1308</v>
       </c>
@@ -5935,36 +5943,36 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="136">
+      <c r="A12" s="135">
         <v>2020</v>
       </c>
-      <c r="B12" s="136" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="137">
-        <v>0</v>
-      </c>
-      <c r="D12" s="137">
+      <c r="B12" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="136">
+        <v>0</v>
+      </c>
+      <c r="D12" s="136">
         <v>997</v>
       </c>
-      <c r="E12" s="137">
-        <v>0</v>
-      </c>
-      <c r="F12" s="136" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="135">
+      <c r="E12" s="136">
+        <v>0</v>
+      </c>
+      <c r="F12" s="135" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="134">
         <f>G11</f>
         <v>2830</v>
       </c>
-      <c r="H12" s="134" t="s">
-        <v>187</v>
+      <c r="H12" s="133" t="s">
+        <v>185</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="K12" s="153">
+        <v>197</v>
+      </c>
+      <c r="K12" s="152">
         <f t="shared" ref="K12:P12" si="0">K2</f>
         <v>2015</v>
       </c>
@@ -5972,11 +5980,11 @@
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="M12" s="152">
+      <c r="M12" s="160">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="N12" s="109">
+      <c r="N12" s="151">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
@@ -5984,53 +5992,53 @@
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="P12" s="151">
+      <c r="P12" s="150">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="Q12" s="150" t="s">
-        <v>198</v>
+      <c r="Q12" s="149" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="136">
+      <c r="A13" s="135">
         <v>2015</v>
       </c>
-      <c r="B13" s="136" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="137">
+      <c r="B13" s="135" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="136">
         <v>92.543236980000003</v>
       </c>
-      <c r="D13" s="137">
+      <c r="D13" s="136">
         <v>842.14345649999996</v>
       </c>
-      <c r="E13" s="137">
-        <v>0</v>
-      </c>
-      <c r="F13" s="136" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="135">
+      <c r="E13" s="136">
+        <v>0</v>
+      </c>
+      <c r="F13" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="134">
         <v>6.0999999999999979</v>
       </c>
-      <c r="H13" s="134">
+      <c r="H13" s="133">
         <v>2.7916088079999999</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="136" t="str">
+      <c r="J13" s="135" t="str">
         <f t="shared" ref="J13:J21" si="1">J3</f>
         <v>passenger motorbikes</v>
       </c>
-      <c r="K13" s="149">
+      <c r="K13" s="148">
         <f>H3</f>
         <v>67.053822167000007</v>
       </c>
-      <c r="L13" s="147">
+      <c r="L13" s="146">
         <f>FORECAST(L2,$H$3:$H$4,$A$3:$A$4)</f>
         <v>71.242226931599362</v>
       </c>
-      <c r="M13" s="148">
+      <c r="M13" s="161">
         <f>FORECAST(M2,$H$3:$H$4,$A$3:$A$4)</f>
         <v>75.43063169620109</v>
       </c>
@@ -6038,58 +6046,58 @@
         <f>FORECAST(N2,$H$3:$H$4,$A$3:$A$4)</f>
         <v>79.619036460800999</v>
       </c>
-      <c r="O13" s="147">
+      <c r="O13" s="146">
         <f>FORECAST(O2,$H$3:$H$4,$A$3:$A$4)</f>
         <v>83.807441225400908</v>
       </c>
-      <c r="P13" s="146">
+      <c r="P13" s="145">
         <f>H4</f>
         <v>87.995845989999992</v>
       </c>
       <c r="Q13" s="130" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="135">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="135" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="136">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="136" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="137">
+      <c r="C14" s="136">
         <v>116.89049199999999</v>
       </c>
-      <c r="D14" s="137">
+      <c r="D14" s="136">
         <v>1145.526822</v>
       </c>
-      <c r="E14" s="137">
-        <v>0</v>
-      </c>
-      <c r="F14" s="136" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="135">
+      <c r="E14" s="136">
+        <v>0</v>
+      </c>
+      <c r="F14" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="134">
         <f>G13</f>
         <v>6.0999999999999979</v>
       </c>
-      <c r="H14" s="134">
+      <c r="H14" s="133">
         <v>3.5207716059999887</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="136" t="str">
+      <c r="J14" s="135" t="str">
         <f t="shared" si="1"/>
         <v>freight motorbikes</v>
       </c>
-      <c r="K14" s="140">
+      <c r="K14" s="139">
         <f>H5</f>
         <v>5.7529710309999897</v>
       </c>
-      <c r="L14" s="138">
+      <c r="L14" s="137">
         <f>FORECAST(L12,$H$5:$H$6,$A$5:$A$6)</f>
         <v>5.9309832129999904</v>
       </c>
-      <c r="M14" s="139">
+      <c r="M14" s="164">
         <f>FORECAST(M12,$H$5:$H$6,$A$5:$A$6)</f>
         <v>6.1089953949999654</v>
       </c>
@@ -6097,7 +6105,7 @@
         <f>FORECAST(N12,$H$5:$H$6,$A$5:$A$6)</f>
         <v>6.2870075769999971</v>
       </c>
-      <c r="O14" s="138">
+      <c r="O14" s="137">
         <f>FORECAST(O12,$H$5:$H$6,$A$5:$A$6)</f>
         <v>6.4650197589999721</v>
       </c>
@@ -6106,90 +6114,90 @@
         <v>6.6430319409999985</v>
       </c>
       <c r="Q14" s="130" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="136">
+      <c r="A15" s="135">
         <v>2015</v>
       </c>
-      <c r="B15" s="136" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="137">
+      <c r="B15" s="135" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="136">
         <v>284.130248399999</v>
       </c>
-      <c r="D15" s="137">
-        <v>0</v>
-      </c>
-      <c r="E15" s="137">
+      <c r="D15" s="136">
+        <v>0</v>
+      </c>
+      <c r="E15" s="136">
         <v>631.82213149999995</v>
       </c>
-      <c r="F15" s="136" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" s="135" t="s">
-        <v>187</v>
-      </c>
-      <c r="H15" s="134">
+      <c r="F15" s="135" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="133">
         <v>28.031563311999989</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="136" t="str">
+      <c r="J15" s="135" t="str">
         <f t="shared" si="1"/>
         <v>passenger aircraft</v>
       </c>
-      <c r="K15" s="145"/>
+      <c r="K15" s="144"/>
       <c r="L15" s="102"/>
-      <c r="M15" s="141">
+      <c r="N15" s="140">
+        <f>'India Aircraft'!B20</f>
         <v>551.23453630236327</v>
       </c>
-      <c r="N15" s="102"/>
       <c r="O15" s="102"/>
-      <c r="P15" s="144"/>
+      <c r="P15" s="143"/>
       <c r="Q15" s="130" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="136">
+      <c r="A16" s="135">
         <v>2020</v>
       </c>
-      <c r="B16" s="136" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="137">
+      <c r="B16" s="135" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="136">
         <v>409.27448129999999</v>
       </c>
-      <c r="D16" s="137">
-        <v>0</v>
-      </c>
-      <c r="E16" s="137">
+      <c r="D16" s="136">
+        <v>0</v>
+      </c>
+      <c r="E16" s="136">
         <v>868.96368129999996</v>
       </c>
-      <c r="F16" s="136" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="135" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="134">
+      <c r="F16" s="135" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="133">
         <v>40.143727241000001</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="136" t="str">
+      <c r="J16" s="135" t="str">
         <f t="shared" si="1"/>
         <v>passenger HDVs</v>
       </c>
-      <c r="K16" s="140">
+      <c r="K16" s="139">
         <f>H9</f>
         <v>1.1112206179999999</v>
       </c>
-      <c r="L16" s="138">
+      <c r="L16" s="137">
         <f>FORECAST(L12,$H$9:$H$10,$A$9:$A$10)</f>
         <v>1.1799299248000068</v>
       </c>
-      <c r="M16" s="139">
+      <c r="M16" s="164">
         <f>FORECAST(M12,$H$9:$H$10,$A$9:$A$10)</f>
         <v>1.2486392316000092</v>
       </c>
@@ -6197,7 +6205,7 @@
         <f>FORECAST(N12,$H$9:$H$10,$A$9:$A$10)</f>
         <v>1.3173485384000116</v>
       </c>
-      <c r="O16" s="138">
+      <c r="O16" s="137">
         <f>FORECAST(O12,$H$9:$H$10,$A$9:$A$10)</f>
         <v>1.3860578452000141</v>
       </c>
@@ -6206,91 +6214,90 @@
         <v>1.454767151999989</v>
       </c>
       <c r="Q16" s="130" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="136">
+      <c r="A17" s="135">
         <v>2015</v>
       </c>
-      <c r="B17" s="136" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="137">
+      <c r="B17" s="135" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="136">
         <v>66.769660920000007</v>
       </c>
-      <c r="D17" s="137">
+      <c r="D17" s="136">
         <v>127.53005229999999</v>
       </c>
-      <c r="E17" s="137">
-        <v>0</v>
-      </c>
-      <c r="F17" s="136" t="s">
-        <v>194</v>
-      </c>
-      <c r="G17" s="135">
+      <c r="E17" s="136">
+        <v>0</v>
+      </c>
+      <c r="F17" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="134">
         <v>1.7</v>
       </c>
-      <c r="H17" s="134">
+      <c r="H17" s="133">
         <v>3.3305768930000004</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="136" t="str">
+      <c r="J17" s="135" t="str">
         <f t="shared" si="1"/>
         <v>freight rail</v>
       </c>
-      <c r="K17" s="143"/>
+      <c r="K17" s="142"/>
       <c r="L17" s="102"/>
-      <c r="M17" s="141">
+      <c r="N17" s="140">
         <v>5422.6328634282709</v>
       </c>
-      <c r="N17" s="102"/>
       <c r="O17" s="102"/>
-      <c r="P17" s="142"/>
+      <c r="P17" s="141"/>
       <c r="Q17" s="130" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="136">
+      <c r="A18" s="135">
         <v>2020</v>
       </c>
-      <c r="B18" s="136" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="137">
+      <c r="B18" s="135" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="136">
         <v>88.30690543</v>
       </c>
-      <c r="D18" s="137">
+      <c r="D18" s="136">
         <v>168.66618940000001</v>
       </c>
-      <c r="E18" s="137">
-        <v>0</v>
-      </c>
-      <c r="F18" s="136" t="s">
-        <v>194</v>
-      </c>
-      <c r="G18" s="135">
+      <c r="E18" s="136">
+        <v>0</v>
+      </c>
+      <c r="F18" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="134">
         <f>G17</f>
         <v>1.7</v>
       </c>
-      <c r="H18" s="134">
+      <c r="H18" s="133">
         <v>4.3545614009999998</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="136" t="str">
+      <c r="J18" s="135" t="str">
         <f t="shared" si="1"/>
         <v>freight HDVs</v>
       </c>
-      <c r="K18" s="140">
+      <c r="K18" s="139">
         <f>H24</f>
         <v>3.559276273</v>
       </c>
-      <c r="L18" s="138">
+      <c r="L18" s="137">
         <f>FORECAST(L12,$H$24:$H$25,$A$24:$A$25)</f>
         <v>3.7224350172000413</v>
       </c>
-      <c r="M18" s="139">
+      <c r="M18" s="164">
         <f>FORECAST(M12,$H$24:$H$25,$A$24:$A$25)</f>
         <v>3.8855937614000027</v>
       </c>
@@ -6298,7 +6305,7 @@
         <f>FORECAST(N12,$H$24:$H$25,$A$24:$A$25)</f>
         <v>4.0487525056000209</v>
       </c>
-      <c r="O18" s="138">
+      <c r="O18" s="137">
         <f>FORECAST(O12,$H$24:$H$25,$A$24:$A$25)</f>
         <v>4.2119112497999822</v>
       </c>
@@ -6307,40 +6314,40 @@
         <v>4.3750699939999889</v>
       </c>
       <c r="Q18" s="130" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="135">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="135" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="136">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="136" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="137">
+      <c r="C19" s="136">
         <v>26.65993314</v>
       </c>
-      <c r="D19" s="137">
+      <c r="D19" s="136">
         <v>242.605391599999</v>
       </c>
-      <c r="E19" s="137">
-        <v>0</v>
-      </c>
-      <c r="F19" s="136" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="135">
+      <c r="E19" s="136">
+        <v>0</v>
+      </c>
+      <c r="F19" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="134">
         <v>6.0999999999999979</v>
       </c>
-      <c r="H19" s="134">
+      <c r="H19" s="133">
         <v>0.76766746500000005</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="136" t="str">
+      <c r="J19" s="135" t="str">
         <f t="shared" si="1"/>
         <v>passenger LDVs</v>
       </c>
-      <c r="K19" s="140">
+      <c r="K19" s="139">
         <f>H15</f>
         <v>28.031563311999989</v>
       </c>
@@ -6348,11 +6355,11 @@
         <f>FORECAST(L12,$H$15:$H$16,$A$15:$A$16)</f>
         <v>30.453996097799973</v>
       </c>
-      <c r="M19" s="141">
+      <c r="M19" s="162">
         <f>FORECAST(M12,$H$15:$H$16,$A$15:$A$16)</f>
         <v>32.876428883600056</v>
       </c>
-      <c r="N19" s="102">
+      <c r="N19" s="140">
         <f>FORECAST(N12,$H$15:$H$16,$A$15:$A$16)</f>
         <v>35.298861669400139</v>
       </c>
@@ -6365,49 +6372,49 @@
         <v>40.143727241000001</v>
       </c>
       <c r="Q19" s="130" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="135">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="135" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="136">
-        <v>2020</v>
-      </c>
-      <c r="B20" s="136" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" s="137">
+      <c r="C20" s="136">
         <v>30.196957340000001</v>
       </c>
-      <c r="D20" s="137">
+      <c r="D20" s="136">
         <v>295.93018189999998</v>
       </c>
-      <c r="E20" s="137">
-        <v>0</v>
-      </c>
-      <c r="F20" s="136" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="135">
+      <c r="E20" s="136">
+        <v>0</v>
+      </c>
+      <c r="F20" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="134">
         <f>G19</f>
         <v>6.0999999999999979</v>
       </c>
-      <c r="H20" s="134">
+      <c r="H20" s="133">
         <v>0.85429838800000002</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="136" t="str">
+      <c r="J20" s="135" t="str">
         <f t="shared" si="1"/>
         <v>freight LDVs</v>
       </c>
-      <c r="K20" s="140">
+      <c r="K20" s="139">
         <f>H17</f>
         <v>3.3305768930000004</v>
       </c>
-      <c r="L20" s="138">
+      <c r="L20" s="137">
         <f>FORECAST(L12,$H$17:$H$18,$A$17:$A$18)</f>
         <v>3.535373794599991</v>
       </c>
-      <c r="M20" s="139">
+      <c r="M20" s="164">
         <f>FORECAST(M12,$H$17:$H$18,$A$17:$A$18)</f>
         <v>3.7401706961999821</v>
       </c>
@@ -6415,7 +6422,7 @@
         <f>FORECAST(N12,$H$17:$H$18,$A$17:$A$18)</f>
         <v>3.9449675977999732</v>
       </c>
-      <c r="O20" s="138">
+      <c r="O20" s="137">
         <f>FORECAST(O12,$H$17:$H$18,$A$17:$A$18)</f>
         <v>4.1497644994000211</v>
       </c>
@@ -6424,49 +6431,48 @@
         <v>4.3545614009999998</v>
       </c>
       <c r="Q20" s="130" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="136">
+      <c r="A21" s="135">
         <v>2015</v>
       </c>
-      <c r="B21" s="136" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="137">
-        <v>0</v>
-      </c>
-      <c r="D21" s="137">
-        <v>0</v>
-      </c>
-      <c r="E21" s="137">
+      <c r="B21" s="135" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="136">
+        <v>0</v>
+      </c>
+      <c r="D21" s="136">
+        <v>0</v>
+      </c>
+      <c r="E21" s="136">
         <v>1128</v>
       </c>
-      <c r="F21" s="136" t="s">
-        <v>188</v>
-      </c>
-      <c r="G21" s="135">
+      <c r="F21" s="135" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="134">
         <v>1000</v>
       </c>
-      <c r="H21" s="134" t="s">
-        <v>187</v>
+      <c r="H21" s="133" t="s">
+        <v>185</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="114" t="str">
         <f t="shared" si="1"/>
         <v>passenger rail</v>
       </c>
-      <c r="K21" s="133"/>
+      <c r="K21" s="132"/>
       <c r="L21" s="115"/>
-      <c r="M21" s="132">
+      <c r="N21" s="188">
         <v>6341.3671365717291</v>
       </c>
-      <c r="N21" s="115"/>
       <c r="O21" s="115"/>
       <c r="P21" s="131"/>
       <c r="Q21" s="130" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -6474,7 +6480,7 @@
         <v>2020</v>
       </c>
       <c r="B22" s="114" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="129">
         <v>0</v>
@@ -6486,23 +6492,23 @@
         <v>1428</v>
       </c>
       <c r="F22" s="114" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G22" s="128">
         <f>G21</f>
         <v>1000</v>
       </c>
       <c r="H22" s="127" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="126" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="125" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B23" s="120"/>
       <c r="C23" s="120"/>
@@ -6517,10 +6523,10 @@
         <v>AVLo</v>
       </c>
       <c r="H23" s="108" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J23" s="95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -6551,7 +6557,7 @@
         <v>3.559276273</v>
       </c>
       <c r="J24" s="95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K24" s="6"/>
     </row>
@@ -6582,13 +6588,13 @@
         <v>4.3750699939999889</v>
       </c>
       <c r="J25" s="95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D26" s="6"/>
       <c r="G26" s="6"/>
@@ -6598,7 +6604,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="95" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D27" s="6"/>
       <c r="G27" s="6"/>
@@ -6608,7 +6614,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D28" s="6"/>
       <c r="G28" s="6"/>
@@ -6626,7 +6632,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="B30" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="111"/>
@@ -6639,20 +6645,20 @@
     </row>
     <row r="31" spans="1:17">
       <c r="B31" s="93"/>
-      <c r="C31" s="181" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="182"/>
-      <c r="E31" s="181" t="s">
+      <c r="C31" s="186" t="s">
         <v>175</v>
       </c>
-      <c r="F31" s="182"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="186" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="187"/>
       <c r="J31" s="104"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:17" ht="27.75">
       <c r="B32" s="106" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="C32" s="109" t="s">
         <v>173</v>
@@ -6674,20 +6680,20 @@
         <v>11</v>
       </c>
       <c r="C33" s="102">
-        <f>((M9*10^9)/(M19*10^6))</f>
-        <v>10164.970859310561</v>
+        <f>((N9*10^9)/(N19*10^6))</f>
+        <v>10176.441141482823</v>
       </c>
       <c r="D33" s="101">
-        <f>((M10*10^9)/G17)/(M20*10^6)</f>
-        <v>22645.161353715037</v>
+        <f>((N10*10^9)/G17)/(N20*10^6)</f>
+        <v>22696.337099699485</v>
       </c>
       <c r="E33" s="105">
-        <f t="shared" ref="E33:F38" si="2">C33*$A$43</f>
-        <v>6316.2181078206622</v>
+        <f>C33*$A$42</f>
+        <v>6323.3454085243229</v>
       </c>
       <c r="F33" s="105">
-        <f t="shared" si="2"/>
-        <v>14071.046555519266</v>
+        <f>D33*$A$42</f>
+        <v>14102.845679977368</v>
       </c>
       <c r="J33" s="104"/>
     </row>
@@ -6696,20 +6702,20 @@
         <v>12</v>
       </c>
       <c r="C34" s="102">
-        <f>((M6*10^9)/G10)/(M16*10^6)</f>
-        <v>61925.766965465031</v>
+        <f>((N6*10^9)/G10)/(N16*10^6)</f>
+        <v>61964.459574590604</v>
       </c>
       <c r="D34" s="101">
-        <f>((M8*10^9)/G13)/(M18*10^6)</f>
-        <v>51785.747845362916</v>
+        <f>((N8*10^9)/G13)/(N18*10^6)</f>
+        <v>52587.489068145493</v>
       </c>
       <c r="E34" s="100">
-        <f t="shared" si="2"/>
-        <v>38478.875745097976</v>
+        <f>C34*$A$42</f>
+        <v>38502.91821032294</v>
       </c>
       <c r="F34" s="100">
-        <f t="shared" si="2"/>
-        <v>32178.161924421001</v>
+        <f>D34*$A$42</f>
+        <v>32676.340669762634</v>
       </c>
       <c r="J34" s="104"/>
       <c r="K34" s="6"/>
@@ -6718,19 +6724,19 @@
       <c r="B35" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="102">
-        <f>((M5*10^9)/G7)/M15</f>
+      <c r="C35" s="140">
+        <f>((M5*10^9)/G7)/N15</f>
         <v>2873528.9585178266</v>
       </c>
-      <c r="D35" s="101">
+      <c r="D35" s="165">
         <v>15377464.7887324</v>
       </c>
       <c r="E35" s="100">
-        <f t="shared" si="2"/>
+        <f>C35*$A$42</f>
         <v>1785527.5624831805</v>
       </c>
       <c r="F35" s="100">
-        <f t="shared" si="2"/>
+        <f>D35*$A$42</f>
         <v>9555110.6732394397</v>
       </c>
     </row>
@@ -6738,86 +6744,67 @@
       <c r="B36" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="102">
-        <f>((M11*10^9)/G21)/M21</f>
+      <c r="C36" s="140">
+        <f>((M11*10^9)/G21)/N21</f>
         <v>196802.98792394064</v>
       </c>
-      <c r="D36" s="101">
-        <f>((M7*10^9)/G11)/M17</f>
-        <v>55740.724425117864</v>
+      <c r="D36" s="165">
+        <f>((N7*10^9)/G11)/N17</f>
+        <v>58816.434260125308</v>
       </c>
       <c r="E36" s="100">
-        <f t="shared" si="2"/>
+        <f>C36*$A$42</f>
         <v>122287.66940928693</v>
       </c>
       <c r="F36" s="100">
-        <f t="shared" si="2"/>
-        <v>34635.669676759913</v>
+        <f>D36*$A$42</f>
+        <v>36546.826572648322</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="B37" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="102">
-        <v>68275</v>
-      </c>
-      <c r="D37" s="101">
-        <v>249210.460885123</v>
-      </c>
-      <c r="E37" s="100">
-        <f t="shared" si="2"/>
-        <v>42424.105024999997</v>
-      </c>
-      <c r="F37" s="100">
-        <f t="shared" si="2"/>
-        <v>154852.15329064976</v>
+      <c r="B37" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="98">
+        <f>(N3*10^9)/(N13*10^6)</f>
+        <v>9408.2546802584384</v>
+      </c>
+      <c r="D37" s="97">
+        <f>(N4*10^9)/(N14*10^6)</f>
+        <v>28739.718348839429</v>
+      </c>
+      <c r="E37" s="96">
+        <f>C37*$A$42</f>
+        <v>5846.0166189268666</v>
+      </c>
+      <c r="F37" s="96">
+        <f>D37*$A$42</f>
+        <v>17858.027530136704</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="B38" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="98">
-        <f>(M3*10^9)/(M13*10^6)</f>
-        <v>9396.8673699399405</v>
-      </c>
-      <c r="D38" s="97">
-        <f>(M4*10^9)/(M14*10^6)</f>
-        <v>28731.497935594649</v>
-      </c>
-      <c r="E38" s="96">
-        <f t="shared" si="2"/>
-        <v>5838.9408745269511</v>
-      </c>
-      <c r="F38" s="96">
-        <f t="shared" si="2"/>
-        <v>17852.919603738384</v>
+      <c r="B38" s="95" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" s="95" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="B40" s="95" t="s">
         <v>168</v>
       </c>
     </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="93">
+        <v>1</v>
+      </c>
+      <c r="B41" s="93" t="s">
+        <v>167</v>
+      </c>
+    </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="93">
-        <v>1</v>
+      <c r="A42" s="94">
+        <v>0.62137100000000001</v>
       </c>
       <c r="B42" s="93" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="94">
-        <v>0.62137100000000001</v>
-      </c>
-      <c r="B43" s="93" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6836,7 +6823,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6861,7 +6848,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>3.7892846421104625</v>
+        <v>2.1633908129876787</v>
       </c>
       <c r="C2">
         <v>1.7</v>
@@ -6935,7 +6922,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6982,19 +6969,19 @@
       </c>
       <c r="B2" s="6">
         <f>'India Road'!$B44*'India Road'!F44</f>
-        <v>572938.26338489645</v>
+        <v>615848.20150874218</v>
       </c>
       <c r="C2" s="6">
         <f>'India Road'!$B44*'India Road'!G44</f>
-        <v>790583.76150377747</v>
+        <v>849794.15546040237</v>
       </c>
       <c r="D2" s="6">
         <f>'India Road'!$B44*'India Road'!H44</f>
-        <v>21349037.231082339</v>
+        <v>22947963.197690364</v>
       </c>
       <c r="E2" s="6">
         <f>'India Road'!$B44*'India Road'!I44</f>
-        <v>6713880.5592320785</v>
+        <v>7216713.4432944935</v>
       </c>
       <c r="F2" s="6">
         <f>'India Road'!$B44*'India Road'!J44</f>
@@ -7002,7 +6989,7 @@
       </c>
       <c r="G2" s="6">
         <f>'India Road'!$B44*'India Road'!K44</f>
-        <v>790583.76150377747</v>
+        <v>849794.15546040237</v>
       </c>
       <c r="H2" s="6">
         <f>'India Road'!$B44*'India Road'!L44</f>
@@ -7016,11 +7003,11 @@
       </c>
       <c r="B3" s="6">
         <f>'India Road'!$B45*'India Road'!F45</f>
-        <v>7963.3597125818605</v>
+        <v>8406.8117715651661</v>
       </c>
       <c r="C3" s="6">
         <f>'India Road'!$B45*'India Road'!G45</f>
-        <v>25264.04963461517</v>
+        <v>26670.917493544803</v>
       </c>
       <c r="D3" s="6">
         <f>'India Road'!$B45*'India Road'!H45</f>
@@ -7028,7 +7015,7 @@
       </c>
       <c r="E3" s="6">
         <f>'India Road'!$B45*'India Road'!I45</f>
-        <v>1827030.9688959918</v>
+        <v>1928772.0272212988</v>
       </c>
       <c r="F3" s="6">
         <f>'India Road'!$B45*'India Road'!J45</f>
@@ -7135,7 +7122,7 @@
       </c>
       <c r="B7" s="7">
         <f>'India Road'!$B46*'India Road'!F46</f>
-        <v>7084729.7365051452</v>
+        <v>7487182.6612117002</v>
       </c>
       <c r="C7" s="7">
         <f>'India Road'!$B46*'India Road'!G46</f>
@@ -7143,7 +7130,7 @@
       </c>
       <c r="D7" s="7">
         <f>'India Road'!$B46*'India Road'!H46</f>
-        <v>172095786.18328547</v>
+        <v>181871805.17837322</v>
       </c>
       <c r="E7" s="7">
         <f>'India Road'!$B46*'India Road'!I46</f>
@@ -7183,6 +7170,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7197,7 +7185,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7256,7 +7244,7 @@
       </c>
       <c r="E2" s="10">
         <f>'India Road'!$C44*'India Road'!I50</f>
-        <v>2924758.7540349611</v>
+        <v>3091878.5080698477</v>
       </c>
       <c r="F2" s="10">
         <f>'India Road'!$C44*'India Road'!J50</f>
@@ -7289,7 +7277,7 @@
       </c>
       <c r="E3" s="10">
         <f>'India Road'!$C45*'India Road'!I51</f>
-        <v>5838202.9413282741</v>
+        <v>6177534.8826565482</v>
       </c>
       <c r="F3" s="10">
         <f>'India Road'!$C45*'India Road'!J51</f>
@@ -7392,19 +7380,19 @@
       </c>
       <c r="B7" s="7">
         <f>'India Road'!$C46*'India Road'!F52</f>
-        <v>285481.08014483069</v>
+        <v>293883.87403966149</v>
       </c>
       <c r="C7" s="7">
         <f>'India Road'!$C46*'India Road'!G52</f>
-        <v>956418.05455054785</v>
+        <v>984569.07522626547</v>
       </c>
       <c r="D7" s="7">
         <f>'India Road'!$C46*'India Road'!H52</f>
-        <v>3383479.4683831781</v>
+        <v>3483068.1367663583</v>
       </c>
       <c r="E7" s="7">
         <f>'India Road'!$C46*'India Road'!I52</f>
-        <v>3100387.1896618223</v>
+        <v>3191643.3756608572</v>
       </c>
       <c r="F7" s="7">
         <f>'India Road'!$C46*'India Road'!J52</f>
@@ -7412,7 +7400,7 @@
       </c>
       <c r="G7" s="7">
         <f>'India Road'!$C46*'India Road'!K52</f>
-        <v>732932.87821756757</v>
+        <v>754505.88022275455</v>
       </c>
       <c r="H7" s="7">
         <f>'India Road'!$C46*'India Road'!L52</f>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DCC66E-E534-476E-A9AD-D173EECC5D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,12 +38,15 @@
     <definedName name="ti_tbl_69">#REF!</definedName>
     <definedName name="TWh_to_PJ">[1]Notes!$A$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -919,17 +923,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="###0.00_)"/>
-    <numFmt numFmtId="166" formatCode="#,##0_)"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="###0.00_)"/>
+    <numFmt numFmtId="168" formatCode="#,##0_)"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="56">
     <font>
@@ -2057,7 +2061,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
       <alignment horizontal="left"/>
@@ -2092,28 +2096,28 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2202,7 +2206,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -2239,9 +2243,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2264,7 +2268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2293,7 +2297,7 @@
     </xf>
     <xf numFmtId="2" fontId="40" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="43" fillId="29" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="43" fillId="29" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2304,10 +2308,10 @@
     <xf numFmtId="9" fontId="40" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
@@ -2325,7 +2329,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2462,15 +2466,15 @@
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="51" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="51" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="51" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="51" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2479,7 +2483,7 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2491,7 +2495,7 @@
     <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="51" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="51" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="51" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2501,9 +2505,9 @@
     <xf numFmtId="1" fontId="51" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="51" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="51" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="51" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="51" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2520,7 +2524,7 @@
     <xf numFmtId="0" fontId="51" fillId="31" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2534,8 +2538,28 @@
     <xf numFmtId="1" fontId="51" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="31" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="31" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140"/>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2578,178 +2602,158 @@
     <xf numFmtId="0" fontId="49" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="51" fillId="31" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140"/>
   </cellXfs>
   <cellStyles count="144">
-    <cellStyle name="20% - Accent1 2" xfId="15"/>
-    <cellStyle name="20% - Accent2 2" xfId="16"/>
-    <cellStyle name="20% - Accent3 2" xfId="17"/>
-    <cellStyle name="20% - Accent4 2" xfId="18"/>
-    <cellStyle name="20% - Accent5 2" xfId="19"/>
-    <cellStyle name="20% - Accent6 2" xfId="20"/>
-    <cellStyle name="40% - Accent1 2" xfId="21"/>
-    <cellStyle name="40% - Accent2 2" xfId="22"/>
-    <cellStyle name="40% - Accent3 2" xfId="23"/>
-    <cellStyle name="40% - Accent4 2" xfId="24"/>
-    <cellStyle name="40% - Accent5 2" xfId="25"/>
-    <cellStyle name="40% - Accent6 2" xfId="26"/>
-    <cellStyle name="60% - Accent1 2" xfId="27"/>
-    <cellStyle name="60% - Accent2 2" xfId="28"/>
-    <cellStyle name="60% - Accent3 2" xfId="29"/>
-    <cellStyle name="60% - Accent4 2" xfId="30"/>
-    <cellStyle name="60% - Accent5 2" xfId="31"/>
-    <cellStyle name="60% - Accent6 2" xfId="32"/>
-    <cellStyle name="Accent1 2" xfId="33"/>
-    <cellStyle name="Accent2 2" xfId="34"/>
-    <cellStyle name="Accent3 2" xfId="35"/>
-    <cellStyle name="Accent4 2" xfId="36"/>
-    <cellStyle name="Accent5 2" xfId="37"/>
-    <cellStyle name="Accent6 2" xfId="38"/>
-    <cellStyle name="Bad 2" xfId="39"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Calculation 2" xfId="40"/>
-    <cellStyle name="Check Cell 2" xfId="41"/>
+    <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Calculation 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Check Cell 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Comma" xfId="141" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="42"/>
-    <cellStyle name="Comma 2 2" xfId="11"/>
-    <cellStyle name="Comma 2 2 2" xfId="43"/>
-    <cellStyle name="Comma 2 2 3" xfId="44"/>
-    <cellStyle name="Comma 2 3" xfId="45"/>
-    <cellStyle name="Comma 2 4" xfId="143"/>
-    <cellStyle name="Comma 3" xfId="46"/>
-    <cellStyle name="Comma 4" xfId="47"/>
-    <cellStyle name="Comma 5" xfId="48"/>
-    <cellStyle name="Comma 6" xfId="49"/>
-    <cellStyle name="Comma 7" xfId="50"/>
-    <cellStyle name="Currency 2" xfId="51"/>
-    <cellStyle name="Currency 3" xfId="52"/>
-    <cellStyle name="Currency 3 2" xfId="53"/>
-    <cellStyle name="Data" xfId="54"/>
-    <cellStyle name="Data no deci" xfId="55"/>
-    <cellStyle name="Data Superscript" xfId="56"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="57"/>
-    <cellStyle name="Explanatory Text 2" xfId="58"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Good 2" xfId="59"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Heading 1 2" xfId="60"/>
-    <cellStyle name="Heading 2 2" xfId="61"/>
-    <cellStyle name="Heading 3 2" xfId="62"/>
-    <cellStyle name="Heading 4 2" xfId="63"/>
-    <cellStyle name="Hed Side" xfId="13"/>
-    <cellStyle name="Hed Side bold" xfId="64"/>
-    <cellStyle name="Hed Side Indent" xfId="65"/>
-    <cellStyle name="Hed Side Regular" xfId="66"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="67"/>
-    <cellStyle name="Hed Top" xfId="68"/>
+    <cellStyle name="Comma 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 2 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 2 4" xfId="143" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Comma 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Comma 7" xfId="50" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Currency 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data" xfId="54" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="55" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="56" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="57" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Good 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Heading 1 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Heading 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Heading 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Hed Side" xfId="13" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Hed Side bold" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Top" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8"/>
-    <cellStyle name="Input 2" xfId="69"/>
-    <cellStyle name="Linked Cell 2" xfId="70"/>
-    <cellStyle name="Neutral 2" xfId="71"/>
+    <cellStyle name="Input 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Neutral 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="72"/>
-    <cellStyle name="Normal 11" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="73"/>
-    <cellStyle name="Normal 2 2 2" xfId="74"/>
-    <cellStyle name="Normal 2 2 3" xfId="75"/>
-    <cellStyle name="Normal 2 3" xfId="76"/>
-    <cellStyle name="Normal 2 4" xfId="77"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 3 2" xfId="78"/>
-    <cellStyle name="Normal 3 2 2" xfId="79"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="80"/>
-    <cellStyle name="Normal 3 2 3" xfId="81"/>
-    <cellStyle name="Normal 3 3" xfId="82"/>
-    <cellStyle name="Normal 3 3 2" xfId="83"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="84"/>
-    <cellStyle name="Normal 3 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 4" xfId="86"/>
-    <cellStyle name="Normal 3 4 2" xfId="87"/>
-    <cellStyle name="Normal 3 5" xfId="88"/>
-    <cellStyle name="Normal 3 6" xfId="89"/>
-    <cellStyle name="Normal 3 7" xfId="90"/>
-    <cellStyle name="Normal 3 8" xfId="91"/>
-    <cellStyle name="Normal 3 9" xfId="12"/>
-    <cellStyle name="Normal 4" xfId="92"/>
-    <cellStyle name="Normal 4 2" xfId="93"/>
-    <cellStyle name="Normal 4 2 2" xfId="94"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 3" xfId="96"/>
-    <cellStyle name="Normal 4 3" xfId="97"/>
-    <cellStyle name="Normal 4 3 2" xfId="98"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="99"/>
-    <cellStyle name="Normal 4 3 3" xfId="100"/>
-    <cellStyle name="Normal 4 4" xfId="101"/>
-    <cellStyle name="Normal 4 4 2" xfId="102"/>
-    <cellStyle name="Normal 4 5" xfId="103"/>
-    <cellStyle name="Normal 4 6" xfId="104"/>
-    <cellStyle name="Normal 4 7" xfId="105"/>
-    <cellStyle name="Normal 4 8" xfId="106"/>
-    <cellStyle name="Normal 5" xfId="107"/>
-    <cellStyle name="Normal 5 2" xfId="108"/>
-    <cellStyle name="Normal 5 3" xfId="109"/>
-    <cellStyle name="Normal 6" xfId="110"/>
-    <cellStyle name="Normal 6 2" xfId="111"/>
-    <cellStyle name="Normal 7" xfId="112"/>
-    <cellStyle name="Normal 8" xfId="113"/>
-    <cellStyle name="Normal 9" xfId="114"/>
-    <cellStyle name="Note 2" xfId="115"/>
-    <cellStyle name="Note 2 2" xfId="116"/>
-    <cellStyle name="Output 2" xfId="117"/>
-    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="72" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 11" xfId="10" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal 2 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 4" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 7" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 8" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 9" xfId="12" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 5" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 6" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 8" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 5" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 7" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 8" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 9" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Note 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
     <cellStyle name="Percent" xfId="142" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="118"/>
-    <cellStyle name="Percent 2 2" xfId="119"/>
-    <cellStyle name="Percent 3" xfId="120"/>
-    <cellStyle name="Percent 3 2" xfId="121"/>
-    <cellStyle name="Source Hed" xfId="122"/>
-    <cellStyle name="Source Superscript" xfId="123"/>
-    <cellStyle name="Source Text" xfId="9"/>
-    <cellStyle name="State" xfId="124"/>
-    <cellStyle name="Superscript" xfId="125"/>
-    <cellStyle name="Table Data" xfId="126"/>
-    <cellStyle name="Table Head Top" xfId="127"/>
-    <cellStyle name="Table Hed Side" xfId="128"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Title 2" xfId="129"/>
-    <cellStyle name="Title Text" xfId="130"/>
-    <cellStyle name="Title Text 1" xfId="131"/>
-    <cellStyle name="Title Text 2" xfId="132"/>
-    <cellStyle name="Title-1" xfId="14"/>
-    <cellStyle name="Title-2" xfId="133"/>
-    <cellStyle name="Title-3" xfId="134"/>
-    <cellStyle name="Total 2" xfId="135"/>
-    <cellStyle name="Warning Text 2" xfId="136"/>
-    <cellStyle name="Wrap" xfId="137"/>
-    <cellStyle name="Wrap Bold" xfId="138"/>
-    <cellStyle name="Wrap Title" xfId="139"/>
+    <cellStyle name="Percent 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Percent 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Source Hed" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Source Superscript" xfId="123" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Source Text" xfId="9" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="State" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Superscript" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Table Data" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Table Head Top" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Table Hed Side" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Title 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Title Text" xfId="130" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Title Text 1" xfId="131" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Title Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Title-1" xfId="14" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Title-2" xfId="133" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Title-3" xfId="134" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Total 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Warning Text 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Wrap" xfId="137" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Wrap Bold" xfId="138" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Wrap Title" xfId="139" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3017,6 +3021,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3052,6 +3073,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3227,16 +3265,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="73.1328125" customWidth="1"/>
+    <col min="2" max="2" width="73.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3351,7 +3389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.5">
+    <row r="21" spans="2:2" ht="28.8">
       <c r="B21" s="38" t="s">
         <v>101</v>
       </c>
@@ -3382,7 +3420,7 @@
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="189" t="s">
+      <c r="B28" s="167" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3479,9 +3517,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B21" r:id="rId2"/>
-    <hyperlink ref="B28" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3489,18 +3527,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -3537,8 +3575,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.65" thickBot="1"/>
-    <row r="6" spans="1:18" ht="15.4">
+    <row r="5" spans="1:18" ht="15" thickBot="1"/>
+    <row r="6" spans="1:18" ht="15.6">
       <c r="A6" s="50"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -3558,7 +3596,7 @@
       <c r="Q6" s="52"/>
       <c r="R6" s="54"/>
     </row>
-    <row r="7" spans="1:18" ht="15.4">
+    <row r="7" spans="1:18" ht="15.6">
       <c r="A7" s="55"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56" t="s">
@@ -3582,7 +3620,7 @@
       <c r="Q7" s="56"/>
       <c r="R7" s="58"/>
     </row>
-    <row r="8" spans="1:18" ht="15.4">
+    <row r="8" spans="1:18" ht="15.6">
       <c r="A8" s="55"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3602,7 +3640,7 @@
       <c r="Q8" s="60"/>
       <c r="R8" s="63"/>
     </row>
-    <row r="9" spans="1:18" ht="15.4">
+    <row r="9" spans="1:18" ht="15.6">
       <c r="A9" s="55"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56" t="s">
@@ -3675,99 +3713,99 @@
       <c r="R11" s="71"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="174" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="168" t="s">
+      <c r="B12" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="179" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="171" t="s">
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="179" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="174" t="s">
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="180"/>
+      <c r="P12" s="180"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="182" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="166"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="177" t="s">
+      <c r="A13" s="174"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="177" t="s">
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="178"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="178"/>
-      <c r="O13" s="178"/>
-      <c r="P13" s="178"/>
-      <c r="Q13" s="179"/>
-      <c r="R13" s="175"/>
-    </row>
-    <row r="14" spans="1:18" ht="25.5">
-      <c r="A14" s="166"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="180" t="s">
+      <c r="L13" s="186"/>
+      <c r="M13" s="186"/>
+      <c r="N13" s="186"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="187"/>
+      <c r="R13" s="183"/>
+    </row>
+    <row r="14" spans="1:18" ht="26.4">
+      <c r="A14" s="174"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="183" t="s">
+      <c r="D14" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="183" t="s">
+      <c r="E14" s="171" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="180" t="s">
+      <c r="G14" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="180" t="s">
+      <c r="H14" s="168" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="180" t="s">
+      <c r="I14" s="168" t="s">
         <v>141</v>
       </c>
       <c r="J14" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="K14" s="180" t="s">
+      <c r="K14" s="168" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="183" t="s">
+      <c r="L14" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="M14" s="183" t="s">
+      <c r="M14" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="N14" s="180" t="s">
+      <c r="N14" s="168" t="s">
         <v>145</v>
       </c>
-      <c r="O14" s="183" t="s">
+      <c r="O14" s="171" t="s">
         <v>146</v>
       </c>
       <c r="P14" s="73" t="s">
@@ -3776,47 +3814,47 @@
       <c r="Q14" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="R14" s="175"/>
+      <c r="R14" s="183"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="166"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="181"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="181"/>
-      <c r="O15" s="184"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="172"/>
+      <c r="N15" s="169"/>
+      <c r="O15" s="172"/>
       <c r="P15" s="75"/>
       <c r="Q15" s="76"/>
-      <c r="R15" s="175"/>
+      <c r="R15" s="183"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="167"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
+      <c r="A16" s="175"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
       <c r="J16" s="77"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="185"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="173"/>
+      <c r="M16" s="173"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="173"/>
       <c r="P16" s="78"/>
       <c r="Q16" s="79"/>
-      <c r="R16" s="176"/>
+      <c r="R16" s="184"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="80">
@@ -3939,13 +3977,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:Q12"/>
     <mergeCell ref="R12:R16"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="K13:Q13"/>
@@ -3958,6 +3989,13 @@
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3965,20 +4003,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="4" max="4" width="21.73046875" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="17.73046875" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4077,7 +4115,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="41">
-        <v>0.6872269809588859</v>
+        <v>0.65629747428493324</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4095,7 +4133,7 @@
         <v>36</v>
       </c>
       <c r="H11" s="41">
-        <v>0.7181451682412896</v>
+        <v>0.68582415001963382</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4112,7 +4150,7 @@
         <v>34</v>
       </c>
       <c r="H12" s="41">
-        <v>0.11317598788024429</v>
+        <v>0.10063870297760362</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4132,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="41">
-        <v>0.22909010449952699</v>
+        <v>0.20371221328531078</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4149,7 +4187,7 @@
       </c>
       <c r="G15" s="6">
         <f>B23*(H10/SUM(H10:H11))</f>
-        <v>3100.9285297835759</v>
+        <v>3100.928529783575</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4162,7 +4200,7 @@
       </c>
       <c r="G16" s="6">
         <f>B23*(H11/SUM(H10:H11))</f>
-        <v>3240.4386067881528</v>
+        <v>3240.4386067881537</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -4185,7 +4223,7 @@
       </c>
       <c r="G18" s="6">
         <f>B24*(H12/SUM(H12:H13))</f>
-        <v>1793.0839335069468</v>
+        <v>1793.083933506947</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4237,16 +4275,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.265625" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4353,22 +4391,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="16.73046875" customWidth="1"/>
-    <col min="10" max="10" width="20.1328125" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.1328125" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" customWidth="1"/>
+    <col min="6" max="9" width="16.77734375" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:16">
@@ -4418,7 +4456,7 @@
       </c>
       <c r="N4" s="23"/>
       <c r="O4" s="24">
-        <v>125.78926798703105</v>
+        <v>120.12796522751495</v>
       </c>
     </row>
     <row r="5" spans="8:16">
@@ -4429,7 +4467,7 @@
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="24">
-        <v>1.7403814920202365</v>
+        <v>1.6620534541752214</v>
       </c>
     </row>
     <row r="6" spans="8:16">
@@ -4440,7 +4478,7 @@
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="24">
-        <v>0.60155495037288353</v>
+        <v>0.57448122019665182</v>
       </c>
     </row>
     <row r="7" spans="8:16">
@@ -4451,7 +4489,7 @@
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="28">
-        <v>0.20051831679096116</v>
+        <v>0.19149374006555059</v>
       </c>
       <c r="P7" t="s">
         <v>113</v>
@@ -4473,7 +4511,7 @@
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="24">
-        <v>12.225284097997806</v>
+        <v>11.675069952487402</v>
       </c>
     </row>
     <row r="9" spans="8:16">
@@ -4493,7 +4531,7 @@
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="24">
-        <v>0.16807356623326436</v>
+        <v>0.1605092059381063</v>
       </c>
     </row>
     <row r="10" spans="8:16">
@@ -4515,7 +4553,7 @@
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="24">
-        <v>139.2118858409529</v>
+        <v>132.94648143816963</v>
       </c>
     </row>
     <row r="11" spans="8:16">
@@ -4535,7 +4573,7 @@
       </c>
       <c r="N11" s="23"/>
       <c r="O11" s="24">
-        <v>43.779584242835888</v>
+        <v>41.809229497548799</v>
       </c>
     </row>
     <row r="12" spans="8:16">
@@ -4555,7 +4593,7 @@
       </c>
       <c r="N12" s="23"/>
       <c r="O12" s="24">
-        <v>5.1552046662759663</v>
+        <v>4.9231882560519438</v>
       </c>
     </row>
     <row r="13" spans="8:16">
@@ -4572,7 +4610,7 @@
       </c>
       <c r="N13" s="23"/>
       <c r="O13" s="24">
-        <v>5.1552046662759663</v>
+        <v>4.9231882560519438</v>
       </c>
     </row>
     <row r="14" spans="8:16">
@@ -4589,7 +4627,7 @@
       </c>
       <c r="N14" s="23"/>
       <c r="O14" s="24">
-        <v>3.7359912418031045</v>
+        <v>3.5678483003168031</v>
       </c>
     </row>
     <row r="15" spans="8:16">
@@ -4606,7 +4644,7 @@
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="24">
-        <v>1.2392318909317224</v>
+        <v>1.1834587153971015</v>
       </c>
     </row>
     <row r="16" spans="8:16">
@@ -4625,7 +4663,7 @@
       </c>
       <c r="N16" s="23"/>
       <c r="O16" s="24">
-        <v>71.939372545440037</v>
+        <v>68.701651435946445</v>
       </c>
     </row>
     <row r="17" spans="8:15">
@@ -4642,7 +4680,7 @@
       </c>
       <c r="N17" s="23"/>
       <c r="O17" s="24">
-        <v>569.33037033849519</v>
+        <v>543.70694754374654</v>
       </c>
     </row>
     <row r="18" spans="8:15">
@@ -4662,7 +4700,7 @@
       </c>
       <c r="N18" s="23"/>
       <c r="O18" s="24">
-        <v>3.0284554979831024</v>
+        <v>2.8921560843513205</v>
       </c>
     </row>
     <row r="19" spans="8:15">
@@ -4679,7 +4717,7 @@
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="24">
-        <v>26.524057947540875</v>
+        <v>25.330309666348402</v>
       </c>
     </row>
     <row r="20" spans="8:15">
@@ -4698,7 +4736,7 @@
       </c>
       <c r="N20" s="23"/>
       <c r="O20" s="24">
-        <v>20.447969551648026</v>
+        <v>19.527683200500949</v>
       </c>
     </row>
     <row r="21" spans="8:15">
@@ -4715,7 +4753,7 @@
       </c>
       <c r="N21" s="23"/>
       <c r="O21" s="24">
-        <v>15.669914537777572</v>
+        <v>14.96467050675858</v>
       </c>
     </row>
     <row r="22" spans="8:15">
@@ -4735,7 +4773,7 @@
       </c>
       <c r="N22" s="23"/>
       <c r="O22" s="24">
-        <v>72.337912086611439</v>
+        <v>69.082254208422739</v>
       </c>
     </row>
     <row r="23" spans="8:15">
@@ -4752,7 +4790,7 @@
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="24">
-        <v>66.285472708183747</v>
+        <v>63.302212406538928</v>
       </c>
     </row>
     <row r="24" spans="8:15">
@@ -4769,7 +4807,7 @@
       </c>
       <c r="N24" s="23"/>
       <c r="O24" s="24">
-        <v>6.1035113323078409</v>
+        <v>5.8288151988356685</v>
       </c>
     </row>
     <row r="25" spans="8:15">
@@ -4791,7 +4829,7 @@
       </c>
       <c r="N25" s="23"/>
       <c r="O25" s="24">
-        <v>2.0389345161320129</v>
+        <v>1.9471697273915227</v>
       </c>
     </row>
     <row r="26" spans="8:15">
@@ -4811,7 +4849,7 @@
       </c>
       <c r="N26" s="23"/>
       <c r="O26" s="24">
-        <v>1.2073742722641769</v>
+        <v>1.1530348885574313</v>
       </c>
     </row>
     <row r="27" spans="8:15">
@@ -4828,7 +4866,7 @@
       </c>
       <c r="N27" s="23"/>
       <c r="O27" s="24">
-        <v>67.756572043636965</v>
+        <v>64.707103083172527</v>
       </c>
     </row>
     <row r="28" spans="8:15">
@@ -4845,7 +4883,7 @@
       </c>
       <c r="N28" s="23"/>
       <c r="O28" s="24">
-        <v>2.2904155107107469</v>
+        <v>2.1873325064232736</v>
       </c>
     </row>
     <row r="29" spans="8:15">
@@ -5065,22 +5103,22 @@
       </c>
       <c r="G44" s="27">
         <f>O12/SUM(O10:O14)</f>
-        <v>2.6163522012578624E-2</v>
+        <v>2.6163522012578627E-2</v>
       </c>
       <c r="H44" s="27">
         <f>O10/SUM(O10:O14)</f>
-        <v>0.7065234991423669</v>
+        <v>0.70652349914236701</v>
       </c>
       <c r="I44" s="27">
         <f>O11/SUM(O10:O14)</f>
-        <v>0.22218867924528304</v>
+        <v>0.22218867924528302</v>
       </c>
       <c r="J44" s="27">
         <v>0</v>
       </c>
       <c r="K44" s="27">
         <f>O13/SUM(O10:O14)</f>
-        <v>2.6163522012578624E-2</v>
+        <v>2.6163522012578627E-2</v>
       </c>
       <c r="L44" s="43">
         <f>J44</f>
@@ -5105,18 +5143,18 @@
       </c>
       <c r="F45" s="27">
         <f>O6/SUM(O4:O6,O8:O9)</f>
-        <v>4.2807815332095885E-3</v>
+        <v>4.2807815332095893E-3</v>
       </c>
       <c r="G45" s="27">
         <f>(O5+O9)/SUM(O4:O6,O8:O9)</f>
-        <v>1.358093581520343E-2</v>
+        <v>1.3580935815203435E-2</v>
       </c>
       <c r="H45" s="27">
         <v>0</v>
       </c>
       <c r="I45" s="27">
         <f>(O4+O8)/SUM(O4:O6,O8:O9)</f>
-        <v>0.98213828265158698</v>
+        <v>0.9821382826515872</v>
       </c>
       <c r="J45" s="27">
         <v>0</v>
@@ -5148,7 +5186,7 @@
       </c>
       <c r="F46" s="27">
         <f>O19/SUM(O16:O19)</f>
-        <v>3.9539621259247815E-2</v>
+        <v>3.9539621259247822E-2</v>
       </c>
       <c r="G46" s="27">
         <v>0</v>
@@ -5279,26 +5317,26 @@
       </c>
       <c r="F52" s="27">
         <f>O24/SUM(O20:O24)</f>
-        <v>3.3749999999999995E-2</v>
+        <v>3.3750000000000002E-2</v>
       </c>
       <c r="G52" s="27">
         <f>O20/SUM(O20:O24)</f>
-        <v>0.11306917195600177</v>
+        <v>0.1130691719560018</v>
       </c>
       <c r="H52" s="27">
         <f>O22/SUM(O20:O24)</f>
-        <v>0.39999999999999991</v>
+        <v>0.4</v>
       </c>
       <c r="I52" s="27">
         <f>O23/SUM(O20:O24)</f>
-        <v>0.36653240767479706</v>
+        <v>0.36653240767479711</v>
       </c>
       <c r="J52" s="27">
         <v>0</v>
       </c>
       <c r="K52" s="27">
         <f>O21/SUM(O20:O24)</f>
-        <v>8.6648420369201187E-2</v>
+        <v>8.6648420369201201E-2</v>
       </c>
       <c r="L52" s="43">
         <f>J52</f>
@@ -5314,26 +5352,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.59765625" customWidth="1"/>
-    <col min="10" max="10" width="25.1328125" customWidth="1"/>
-    <col min="11" max="11" width="10.86328125" customWidth="1"/>
-    <col min="17" max="17" width="11.73046875" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5357,7 +5395,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="28.15">
+    <row r="2" spans="1:17" ht="28.8">
       <c r="A2" s="108" t="s">
         <v>129</v>
       </c>
@@ -6466,7 +6504,7 @@
       </c>
       <c r="K21" s="132"/>
       <c r="L21" s="115"/>
-      <c r="N21" s="188">
+      <c r="N21" s="166">
         <v>6341.3671365717291</v>
       </c>
       <c r="O21" s="115"/>
@@ -6645,18 +6683,18 @@
     </row>
     <row r="31" spans="1:17">
       <c r="B31" s="93"/>
-      <c r="C31" s="186" t="s">
+      <c r="C31" s="188" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="187"/>
-      <c r="E31" s="186" t="s">
+      <c r="D31" s="189"/>
+      <c r="E31" s="188" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="187"/>
+      <c r="F31" s="189"/>
       <c r="J31" s="104"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:17" ht="27.75">
+    <row r="32" spans="1:17" ht="28.8">
       <c r="B32" s="106" t="s">
         <v>222</v>
       </c>
@@ -6688,11 +6726,11 @@
         <v>22696.337099699485</v>
       </c>
       <c r="E33" s="105">
-        <f>C33*$A$42</f>
+        <f t="shared" ref="E33:F37" si="2">C33*$A$42</f>
         <v>6323.3454085243229</v>
       </c>
       <c r="F33" s="105">
-        <f>D33*$A$42</f>
+        <f t="shared" si="2"/>
         <v>14102.845679977368</v>
       </c>
       <c r="J33" s="104"/>
@@ -6710,11 +6748,11 @@
         <v>52587.489068145493</v>
       </c>
       <c r="E34" s="100">
-        <f>C34*$A$42</f>
+        <f t="shared" si="2"/>
         <v>38502.91821032294</v>
       </c>
       <c r="F34" s="100">
-        <f>D34*$A$42</f>
+        <f t="shared" si="2"/>
         <v>32676.340669762634</v>
       </c>
       <c r="J34" s="104"/>
@@ -6732,11 +6770,11 @@
         <v>15377464.7887324</v>
       </c>
       <c r="E35" s="100">
-        <f>C35*$A$42</f>
+        <f t="shared" si="2"/>
         <v>1785527.5624831805</v>
       </c>
       <c r="F35" s="100">
-        <f>D35*$A$42</f>
+        <f t="shared" si="2"/>
         <v>9555110.6732394397</v>
       </c>
     </row>
@@ -6753,11 +6791,11 @@
         <v>58816.434260125308</v>
       </c>
       <c r="E36" s="100">
-        <f>C36*$A$42</f>
+        <f t="shared" si="2"/>
         <v>122287.66940928693</v>
       </c>
       <c r="F36" s="100">
-        <f>D36*$A$42</f>
+        <f t="shared" si="2"/>
         <v>36546.826572648322</v>
       </c>
     </row>
@@ -6774,11 +6812,11 @@
         <v>28739.718348839429</v>
       </c>
       <c r="E37" s="96">
-        <f>C37*$A$42</f>
+        <f t="shared" si="2"/>
         <v>5846.0166189268666</v>
       </c>
       <c r="F37" s="96">
-        <f>D37*$A$42</f>
+        <f t="shared" si="2"/>
         <v>17858.027530136704</v>
       </c>
     </row>
@@ -6819,20 +6857,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5">
+    <row r="1" spans="1:3" ht="28.8">
       <c r="A1" s="37" t="s">
         <v>104</v>
       </c>
@@ -6915,7 +6953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6925,19 +6963,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="6" width="23.265625" customWidth="1"/>
-    <col min="7" max="7" width="19.265625" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="37" t="s">
         <v>96</v>
       </c>
@@ -6973,15 +7011,15 @@
       </c>
       <c r="C2" s="6">
         <f>'India Road'!$B44*'India Road'!G44</f>
-        <v>849794.15546040237</v>
+        <v>849794.15546040249</v>
       </c>
       <c r="D2" s="6">
         <f>'India Road'!$B44*'India Road'!H44</f>
-        <v>22947963.197690364</v>
+        <v>22947963.197690368</v>
       </c>
       <c r="E2" s="6">
         <f>'India Road'!$B44*'India Road'!I44</f>
-        <v>7216713.4432944935</v>
+        <v>7216713.4432944926</v>
       </c>
       <c r="F2" s="6">
         <f>'India Road'!$B44*'India Road'!J44</f>
@@ -6989,7 +7027,7 @@
       </c>
       <c r="G2" s="6">
         <f>'India Road'!$B44*'India Road'!K44</f>
-        <v>849794.15546040237</v>
+        <v>849794.15546040249</v>
       </c>
       <c r="H2" s="6">
         <f>'India Road'!$B44*'India Road'!L44</f>
@@ -7003,11 +7041,11 @@
       </c>
       <c r="B3" s="6">
         <f>'India Road'!$B45*'India Road'!F45</f>
-        <v>8406.8117715651661</v>
+        <v>8406.8117715651679</v>
       </c>
       <c r="C3" s="6">
         <f>'India Road'!$B45*'India Road'!G45</f>
-        <v>26670.917493544803</v>
+        <v>26670.91749354481</v>
       </c>
       <c r="D3" s="6">
         <f>'India Road'!$B45*'India Road'!H45</f>
@@ -7015,7 +7053,7 @@
       </c>
       <c r="E3" s="6">
         <f>'India Road'!$B45*'India Road'!I45</f>
-        <v>1928772.0272212988</v>
+        <v>1928772.027221299</v>
       </c>
       <c r="F3" s="6">
         <f>'India Road'!$B45*'India Road'!J45</f>
@@ -7065,7 +7103,7 @@
       </c>
       <c r="B5" s="7">
         <f>'India Rail'!G16</f>
-        <v>3240.4386067881528</v>
+        <v>3240.4386067881537</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -7075,7 +7113,7 @@
       </c>
       <c r="E5" s="7">
         <f>'India Rail'!G15</f>
-        <v>3100.9285297835759</v>
+        <v>3100.928529783575</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -7122,7 +7160,7 @@
       </c>
       <c r="B7" s="7">
         <f>'India Road'!$B46*'India Road'!F46</f>
-        <v>7487182.6612117002</v>
+        <v>7487182.6612117011</v>
       </c>
       <c r="C7" s="7">
         <f>'India Road'!$B46*'India Road'!G46</f>
@@ -7178,7 +7216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7188,19 +7226,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="6" width="23.265625" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="37" t="s">
         <v>96</v>
       </c>
@@ -7335,7 +7373,7 @@
       </c>
       <c r="E5" s="7">
         <f>'India Rail'!G18</f>
-        <v>1793.0839335069468</v>
+        <v>1793.083933506947</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -7380,19 +7418,19 @@
       </c>
       <c r="B7" s="7">
         <f>'India Road'!$C46*'India Road'!F52</f>
-        <v>293883.87403966149</v>
+        <v>293883.8740396616</v>
       </c>
       <c r="C7" s="7">
         <f>'India Road'!$C46*'India Road'!G52</f>
-        <v>984569.07522626547</v>
+        <v>984569.0752262657</v>
       </c>
       <c r="D7" s="7">
         <f>'India Road'!$C46*'India Road'!H52</f>
-        <v>3483068.1367663583</v>
+        <v>3483068.1367663592</v>
       </c>
       <c r="E7" s="7">
         <f>'India Road'!$C46*'India Road'!I52</f>
-        <v>3191643.3756608572</v>
+        <v>3191643.3756608581</v>
       </c>
       <c r="F7" s="7">
         <f>'India Road'!$C46*'India Road'!J52</f>
@@ -7400,7 +7438,7 @@
       </c>
       <c r="G7" s="7">
         <f>'India Road'!$C46*'India Road'!K52</f>
-        <v>754505.88022275455</v>
+        <v>754505.88022275467</v>
       </c>
       <c r="H7" s="7">
         <f>'India Road'!$C46*'India Road'!L52</f>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DCC66E-E534-476E-A9AD-D173EECC5D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263B2CC-E985-4409-9A4B-45893CE32F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="227">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -919,21 +919,30 @@
   <si>
     <t>Correction factor for 2018</t>
   </si>
+  <si>
+    <t>In India, we repurpose the passenger ship vehicle type to be taxis.</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>taxi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="###0.00_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0_)"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="###0.00_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="56">
     <font>
@@ -2061,7 +2070,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
       <alignment horizontal="left"/>
@@ -2096,28 +2105,28 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2206,7 +2215,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -2243,9 +2252,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2268,7 +2277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2297,7 +2306,7 @@
     </xf>
     <xf numFmtId="2" fontId="40" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="43" fillId="29" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="43" fillId="29" borderId="0" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2308,10 +2317,10 @@
     <xf numFmtId="9" fontId="40" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="43" fillId="29" borderId="0" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
@@ -2329,7 +2338,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2466,15 +2475,15 @@
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="51" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="51" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2483,7 +2492,7 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2495,7 +2504,7 @@
     <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="51" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="51" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2505,9 +2514,9 @@
     <xf numFmtId="1" fontId="51" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="51" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="51" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2524,7 +2533,7 @@
     <xf numFmtId="0" fontId="51" fillId="31" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2538,10 +2547,52 @@
     <xf numFmtId="1" fontId="51" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="31" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="31" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140"/>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2559,48 +2610,6 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3266,15 +3275,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="73.109375" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3389,7 +3398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.8">
+    <row r="21" spans="2:2" ht="30">
       <c r="B21" s="38" t="s">
         <v>101</v>
       </c>
@@ -3513,6 +3522,11 @@
     <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3531,14 +3545,14 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -3575,8 +3589,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1"/>
-    <row r="6" spans="1:18" ht="15.6">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="50"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -3596,7 +3610,7 @@
       <c r="Q6" s="52"/>
       <c r="R6" s="54"/>
     </row>
-    <row r="7" spans="1:18" ht="15.6">
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="55"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56" t="s">
@@ -3620,7 +3634,7 @@
       <c r="Q7" s="56"/>
       <c r="R7" s="58"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6">
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="55"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3640,7 +3654,7 @@
       <c r="Q8" s="60"/>
       <c r="R8" s="63"/>
     </row>
-    <row r="9" spans="1:18" ht="15.6">
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="55"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56" t="s">
@@ -3713,99 +3727,99 @@
       <c r="R11" s="71"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="168" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="170" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="179" t="s">
+      <c r="C12" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="179" t="s">
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="173" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
-      <c r="P12" s="180"/>
-      <c r="Q12" s="181"/>
-      <c r="R12" s="182" t="s">
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="175"/>
+      <c r="R12" s="176" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="174"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="185" t="s">
+      <c r="A13" s="168"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="179" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="185" t="s">
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="179" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="186"/>
-      <c r="M13" s="186"/>
-      <c r="N13" s="186"/>
-      <c r="O13" s="186"/>
-      <c r="P13" s="186"/>
-      <c r="Q13" s="187"/>
-      <c r="R13" s="183"/>
-    </row>
-    <row r="14" spans="1:18" ht="26.4">
-      <c r="A14" s="174"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="168" t="s">
+      <c r="L13" s="180"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="180"/>
+      <c r="O13" s="180"/>
+      <c r="P13" s="180"/>
+      <c r="Q13" s="181"/>
+      <c r="R13" s="177"/>
+    </row>
+    <row r="14" spans="1:18" ht="25.5">
+      <c r="A14" s="168"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="182" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="171" t="s">
+      <c r="D14" s="185" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="171" t="s">
+      <c r="E14" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="171" t="s">
+      <c r="F14" s="185" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="168" t="s">
+      <c r="G14" s="182" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="168" t="s">
+      <c r="H14" s="182" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="168" t="s">
+      <c r="I14" s="182" t="s">
         <v>141</v>
       </c>
       <c r="J14" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="K14" s="168" t="s">
+      <c r="K14" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="171" t="s">
+      <c r="L14" s="185" t="s">
         <v>143</v>
       </c>
-      <c r="M14" s="171" t="s">
+      <c r="M14" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="N14" s="168" t="s">
+      <c r="N14" s="182" t="s">
         <v>145</v>
       </c>
-      <c r="O14" s="171" t="s">
+      <c r="O14" s="185" t="s">
         <v>146</v>
       </c>
       <c r="P14" s="73" t="s">
@@ -3814,47 +3828,47 @@
       <c r="Q14" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="R14" s="183"/>
+      <c r="R14" s="177"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="174"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="172"/>
-      <c r="M15" s="172"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="172"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="186"/>
+      <c r="M15" s="186"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="186"/>
       <c r="P15" s="75"/>
       <c r="Q15" s="76"/>
-      <c r="R15" s="183"/>
+      <c r="R15" s="177"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="175"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
+      <c r="A16" s="169"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
       <c r="J16" s="77"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="173"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="187"/>
       <c r="P16" s="78"/>
       <c r="Q16" s="79"/>
-      <c r="R16" s="184"/>
+      <c r="R16" s="178"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="80">
@@ -3977,6 +3991,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:Q12"/>
     <mergeCell ref="R12:R16"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="K13:Q13"/>
@@ -3989,13 +4010,6 @@
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4010,13 +4024,13 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4282,9 +4296,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4392,21 +4406,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="16.77734375" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="6" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:16">
@@ -4761,7 +4775,7 @@
         <v>2341375</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="J22" t="s">
         <v>85</v>
@@ -5088,7 +5102,7 @@
       </c>
       <c r="B44">
         <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr LDV")*('2018 Calcs'!N9/'2018 Calcs'!L9)</f>
-        <v>32480113.15341441</v>
+        <v>29759632.918518826</v>
       </c>
       <c r="C44">
         <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt LDV")*('2018 Calcs'!N10/'2018 Calcs'!L10)</f>
@@ -5212,78 +5226,86 @@
       <c r="M46" s="43"/>
     </row>
     <row r="47" spans="1:15">
+      <c r="A47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47">
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Taxi")*('2018 Calcs'!N9/'2018 Calcs'!L9)</f>
+        <v>2720480.2348955842</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F47" s="27">
+        <f>$O$28/SUM($O$25:$O$28)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G47" s="27">
+        <f>$O$25/SUM($O$25:$O$28)</f>
+        <v>2.781884043797505E-2</v>
+      </c>
+      <c r="H47" s="27">
+        <v>0</v>
+      </c>
+      <c r="I47" s="27">
+        <f>$O$27/SUM($O$25:$O$28)</f>
+        <v>0.92445797125544238</v>
+      </c>
+      <c r="J47" s="27">
+        <v>0</v>
+      </c>
+      <c r="K47" s="27">
+        <f>$O$26/SUM($O$25:$O$28)</f>
+        <v>1.647318830658253E-2</v>
+      </c>
+      <c r="L47" s="27">
+        <v>0</v>
+      </c>
       <c r="M47" s="43"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="E48" s="2" t="s">
+      <c r="M48" s="43"/>
+    </row>
+    <row r="49" spans="5:13">
+      <c r="E49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="43"/>
-    </row>
-    <row r="49" spans="5:13">
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="43"/>
+    </row>
+    <row r="50" spans="5:13">
+      <c r="F50" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="26" t="s">
+      <c r="G50" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="H50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="I50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="26" t="s">
+      <c r="J50" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="26" t="s">
+      <c r="K50" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="L49" s="26" t="s">
+      <c r="L50" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="M49" s="43"/>
-    </row>
-    <row r="50" spans="5:13">
-      <c r="E50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="27">
-        <v>0</v>
-      </c>
-      <c r="G50" s="27">
-        <v>0</v>
-      </c>
-      <c r="H50" s="27">
-        <v>0</v>
-      </c>
-      <c r="I50" s="27">
-        <f>SUM(O33:O34)</f>
-        <v>1</v>
-      </c>
-      <c r="J50" s="27">
-        <v>0</v>
-      </c>
-      <c r="K50" s="43">
-        <f>J50</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="43">
-        <f>K50</f>
-        <v>0</v>
       </c>
       <c r="M50" s="43"/>
     </row>
     <row r="51" spans="5:13">
       <c r="E51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="27">
         <v>0</v>
@@ -5313,36 +5335,65 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="27">
+        <v>0</v>
+      </c>
+      <c r="G52" s="27">
+        <v>0</v>
+      </c>
+      <c r="H52" s="27">
+        <v>0</v>
+      </c>
+      <c r="I52" s="27">
+        <f>SUM(O33:O34)</f>
+        <v>1</v>
+      </c>
+      <c r="J52" s="27">
+        <v>0</v>
+      </c>
+      <c r="K52" s="43">
+        <f>J52</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="43">
+        <f>K52</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="43"/>
+    </row>
+    <row r="53" spans="5:13">
+      <c r="E53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="27">
+      <c r="F53" s="27">
         <f>O24/SUM(O20:O24)</f>
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="G52" s="27">
+      <c r="G53" s="27">
         <f>O20/SUM(O20:O24)</f>
         <v>0.1130691719560018</v>
       </c>
-      <c r="H52" s="27">
+      <c r="H53" s="27">
         <f>O22/SUM(O20:O24)</f>
         <v>0.4</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I53" s="27">
         <f>O23/SUM(O20:O24)</f>
         <v>0.36653240767479711</v>
       </c>
-      <c r="J52" s="27">
-        <v>0</v>
-      </c>
-      <c r="K52" s="27">
+      <c r="J53" s="27">
+        <v>0</v>
+      </c>
+      <c r="K53" s="27">
         <f>O21/SUM(O20:O24)</f>
         <v>8.6648420369201201E-2</v>
       </c>
-      <c r="L52" s="43">
-        <f>J52</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="43"/>
+      <c r="L53" s="43">
+        <f>J53</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5355,23 +5406,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5395,7 +5446,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="28.8">
+    <row r="2" spans="1:17" ht="28.5">
       <c r="A2" s="108" t="s">
         <v>129</v>
       </c>
@@ -6694,7 +6745,7 @@
       <c r="J31" s="104"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:17" ht="28.8">
+    <row r="32" spans="1:17" ht="28.5">
       <c r="B32" s="106" t="s">
         <v>222</v>
       </c>
@@ -6861,16 +6912,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8">
+    <row r="1" spans="1:3" ht="30">
       <c r="A1" s="37" t="s">
         <v>104</v>
       </c>
@@ -6885,8 +6936,8 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>2.1633908129876787</v>
+      <c r="B2" s="42">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1.7</v>
@@ -6930,7 +6981,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="42">
-        <v>756.78378378378375</v>
+        <v>3</v>
       </c>
       <c r="C6" s="42">
         <v>1974.4736422180429</v>
@@ -6941,10 +6992,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1.76</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6960,22 +7011,22 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="37" t="s">
         <v>96</v>
       </c>
@@ -7007,19 +7058,19 @@
       </c>
       <c r="B2" s="6">
         <f>'India Road'!$B44*'India Road'!F44</f>
-        <v>615848.20150874218</v>
+        <v>564265.78084453323</v>
       </c>
       <c r="C2" s="6">
         <f>'India Road'!$B44*'India Road'!G44</f>
-        <v>849794.15546040249</v>
+        <v>778616.81094992685</v>
       </c>
       <c r="D2" s="6">
         <f>'India Road'!$B44*'India Road'!H44</f>
-        <v>22947963.197690368</v>
+        <v>21025879.982784294</v>
       </c>
       <c r="E2" s="6">
         <f>'India Road'!$B44*'India Road'!I44</f>
-        <v>7216713.4432944926</v>
+        <v>6612253.5329901455</v>
       </c>
       <c r="F2" s="6">
         <f>'India Road'!$B44*'India Road'!J44</f>
@@ -7027,7 +7078,7 @@
       </c>
       <c r="G2" s="6">
         <f>'India Road'!$B44*'India Road'!K44</f>
-        <v>849794.15546040249</v>
+        <v>778616.81094992685</v>
       </c>
       <c r="H2" s="6">
         <f>'India Road'!$B44*'India Road'!L44</f>
@@ -7131,25 +7182,30 @@
         <v>14</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
+        <f>'India Road'!$B$47*'India Road'!F47</f>
+        <v>85015.007340487005</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <f>'India Road'!$B$47*'India Road'!G47</f>
+        <v>75680.605569225139</v>
       </c>
       <c r="D6" s="7">
+        <f>'India Road'!$B$47*'India Road'!H47</f>
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <f>'India Ships'!B2</f>
-        <v>101</v>
+        <f>'India Road'!$B$47*'India Road'!I47+'India Road'!$B$47*'India Road'!K47</f>
+        <v>2559784.6219858723</v>
       </c>
       <c r="F6" s="7">
+        <f>'India Road'!$B$47*'India Road'!J47</f>
         <v>0</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="H6" s="7">
+        <f>'India Road'!$B$47*'India Road'!L47</f>
         <v>0</v>
       </c>
       <c r="J6" s="6"/>
@@ -7226,19 +7282,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="37" t="s">
         <v>96</v>
       </c>
@@ -7269,31 +7325,31 @@
         <v>11</v>
       </c>
       <c r="B2" s="10">
-        <f>'India Road'!$C44*'India Road'!F50</f>
+        <f>'India Road'!$C44*'India Road'!F51</f>
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <f>'India Road'!$C44*'India Road'!G50</f>
+        <f>'India Road'!$C44*'India Road'!G51</f>
         <v>0</v>
       </c>
       <c r="D2" s="10">
-        <f>'India Road'!$C44*'India Road'!H50</f>
+        <f>'India Road'!$C44*'India Road'!H51</f>
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <f>'India Road'!$C44*'India Road'!I50</f>
+        <f>'India Road'!$C44*'India Road'!I51</f>
         <v>3091878.5080698477</v>
       </c>
       <c r="F2" s="10">
-        <f>'India Road'!$C44*'India Road'!J50</f>
+        <f>'India Road'!$C44*'India Road'!J51</f>
         <v>0</v>
       </c>
       <c r="G2" s="10">
-        <f>'India Road'!$C44*'India Road'!K50</f>
+        <f>'India Road'!$C44*'India Road'!K51</f>
         <v>0</v>
       </c>
       <c r="H2" s="10">
-        <f>'India Road'!$C44*'India Road'!L50</f>
+        <f>'India Road'!$C44*'India Road'!L51</f>
         <v>0</v>
       </c>
     </row>
@@ -7302,31 +7358,31 @@
         <v>12</v>
       </c>
       <c r="B3" s="10">
-        <f>'India Road'!$C45*'India Road'!F51</f>
+        <f>'India Road'!$C45*'India Road'!F52</f>
         <v>0</v>
       </c>
       <c r="C3" s="10">
-        <f>'India Road'!$C45*'India Road'!G51</f>
+        <f>'India Road'!$C45*'India Road'!G52</f>
         <v>0</v>
       </c>
       <c r="D3" s="10">
-        <f>'India Road'!$C45*'India Road'!H51</f>
+        <f>'India Road'!$C45*'India Road'!H52</f>
         <v>0</v>
       </c>
       <c r="E3" s="10">
-        <f>'India Road'!$C45*'India Road'!I51</f>
+        <f>'India Road'!$C45*'India Road'!I52</f>
         <v>6177534.8826565482</v>
       </c>
       <c r="F3" s="10">
-        <f>'India Road'!$C45*'India Road'!J51</f>
+        <f>'India Road'!$C45*'India Road'!J52</f>
         <v>0</v>
       </c>
       <c r="G3" s="10">
-        <f>'India Road'!$C45*'India Road'!K51</f>
+        <f>'India Road'!$C45*'India Road'!K52</f>
         <v>0</v>
       </c>
       <c r="H3" s="10">
-        <f>'India Road'!$C45*'India Road'!L51</f>
+        <f>'India Road'!$C45*'India Road'!L52</f>
         <v>0</v>
       </c>
     </row>
@@ -7417,31 +7473,31 @@
         <v>15</v>
       </c>
       <c r="B7" s="7">
-        <f>'India Road'!$C46*'India Road'!F52</f>
+        <f>'India Road'!$C46*'India Road'!F53</f>
         <v>293883.8740396616</v>
       </c>
       <c r="C7" s="7">
-        <f>'India Road'!$C46*'India Road'!G52</f>
+        <f>'India Road'!$C46*'India Road'!G53</f>
         <v>984569.0752262657</v>
       </c>
       <c r="D7" s="7">
-        <f>'India Road'!$C46*'India Road'!H52</f>
+        <f>'India Road'!$C46*'India Road'!H53</f>
         <v>3483068.1367663592</v>
       </c>
       <c r="E7" s="7">
-        <f>'India Road'!$C46*'India Road'!I52</f>
+        <f>'India Road'!$C46*'India Road'!I53</f>
         <v>3191643.3756608581</v>
       </c>
       <c r="F7" s="7">
-        <f>'India Road'!$C46*'India Road'!J52</f>
+        <f>'India Road'!$C46*'India Road'!J53</f>
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f>'India Road'!$C46*'India Road'!K52</f>
+        <f>'India Road'!$C46*'India Road'!K53</f>
         <v>754505.88022275467</v>
       </c>
       <c r="H7" s="7">
-        <f>'India Road'!$C46*'India Road'!L52</f>
+        <f>'India Road'!$C46*'India Road'!L53</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263B2CC-E985-4409-9A4B-45893CE32F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,12 +38,15 @@
     <definedName name="ti_tbl_69">#REF!</definedName>
     <definedName name="TWh_to_PJ">[1]Notes!$A$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="227">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -915,11 +919,20 @@
   <si>
     <t>Correction factor for 2018</t>
   </si>
+  <si>
+    <t>In India, we repurpose the passenger ship vehicle type to be taxis.</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>taxi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2536,6 +2549,8 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="51" fillId="31" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="51" fillId="31" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140"/>
     <xf numFmtId="0" fontId="47" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2602,154 +2617,152 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="51" fillId="31" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140"/>
   </cellXfs>
   <cellStyles count="144">
-    <cellStyle name="20% - Accent1 2" xfId="15"/>
-    <cellStyle name="20% - Accent2 2" xfId="16"/>
-    <cellStyle name="20% - Accent3 2" xfId="17"/>
-    <cellStyle name="20% - Accent4 2" xfId="18"/>
-    <cellStyle name="20% - Accent5 2" xfId="19"/>
-    <cellStyle name="20% - Accent6 2" xfId="20"/>
-    <cellStyle name="40% - Accent1 2" xfId="21"/>
-    <cellStyle name="40% - Accent2 2" xfId="22"/>
-    <cellStyle name="40% - Accent3 2" xfId="23"/>
-    <cellStyle name="40% - Accent4 2" xfId="24"/>
-    <cellStyle name="40% - Accent5 2" xfId="25"/>
-    <cellStyle name="40% - Accent6 2" xfId="26"/>
-    <cellStyle name="60% - Accent1 2" xfId="27"/>
-    <cellStyle name="60% - Accent2 2" xfId="28"/>
-    <cellStyle name="60% - Accent3 2" xfId="29"/>
-    <cellStyle name="60% - Accent4 2" xfId="30"/>
-    <cellStyle name="60% - Accent5 2" xfId="31"/>
-    <cellStyle name="60% - Accent6 2" xfId="32"/>
-    <cellStyle name="Accent1 2" xfId="33"/>
-    <cellStyle name="Accent2 2" xfId="34"/>
-    <cellStyle name="Accent3 2" xfId="35"/>
-    <cellStyle name="Accent4 2" xfId="36"/>
-    <cellStyle name="Accent5 2" xfId="37"/>
-    <cellStyle name="Accent6 2" xfId="38"/>
-    <cellStyle name="Bad 2" xfId="39"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Calculation 2" xfId="40"/>
-    <cellStyle name="Check Cell 2" xfId="41"/>
+    <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Calculation 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Check Cell 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Comma" xfId="141" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="42"/>
-    <cellStyle name="Comma 2 2" xfId="11"/>
-    <cellStyle name="Comma 2 2 2" xfId="43"/>
-    <cellStyle name="Comma 2 2 3" xfId="44"/>
-    <cellStyle name="Comma 2 3" xfId="45"/>
-    <cellStyle name="Comma 2 4" xfId="143"/>
-    <cellStyle name="Comma 3" xfId="46"/>
-    <cellStyle name="Comma 4" xfId="47"/>
-    <cellStyle name="Comma 5" xfId="48"/>
-    <cellStyle name="Comma 6" xfId="49"/>
-    <cellStyle name="Comma 7" xfId="50"/>
-    <cellStyle name="Currency 2" xfId="51"/>
-    <cellStyle name="Currency 3" xfId="52"/>
-    <cellStyle name="Currency 3 2" xfId="53"/>
-    <cellStyle name="Data" xfId="54"/>
-    <cellStyle name="Data no deci" xfId="55"/>
-    <cellStyle name="Data Superscript" xfId="56"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="57"/>
-    <cellStyle name="Explanatory Text 2" xfId="58"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Good 2" xfId="59"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Heading 1 2" xfId="60"/>
-    <cellStyle name="Heading 2 2" xfId="61"/>
-    <cellStyle name="Heading 3 2" xfId="62"/>
-    <cellStyle name="Heading 4 2" xfId="63"/>
-    <cellStyle name="Hed Side" xfId="13"/>
-    <cellStyle name="Hed Side bold" xfId="64"/>
-    <cellStyle name="Hed Side Indent" xfId="65"/>
-    <cellStyle name="Hed Side Regular" xfId="66"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="67"/>
-    <cellStyle name="Hed Top" xfId="68"/>
+    <cellStyle name="Comma 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 2 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 2 4" xfId="143" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Comma 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Comma 7" xfId="50" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Currency 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data" xfId="54" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="55" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="56" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="57" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Good 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Heading 1 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Heading 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Heading 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Hed Side" xfId="13" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Hed Side bold" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Top" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8"/>
-    <cellStyle name="Input 2" xfId="69"/>
-    <cellStyle name="Linked Cell 2" xfId="70"/>
-    <cellStyle name="Neutral 2" xfId="71"/>
+    <cellStyle name="Input 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Neutral 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="72"/>
-    <cellStyle name="Normal 11" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="73"/>
-    <cellStyle name="Normal 2 2 2" xfId="74"/>
-    <cellStyle name="Normal 2 2 3" xfId="75"/>
-    <cellStyle name="Normal 2 3" xfId="76"/>
-    <cellStyle name="Normal 2 4" xfId="77"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 3 2" xfId="78"/>
-    <cellStyle name="Normal 3 2 2" xfId="79"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="80"/>
-    <cellStyle name="Normal 3 2 3" xfId="81"/>
-    <cellStyle name="Normal 3 3" xfId="82"/>
-    <cellStyle name="Normal 3 3 2" xfId="83"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="84"/>
-    <cellStyle name="Normal 3 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 4" xfId="86"/>
-    <cellStyle name="Normal 3 4 2" xfId="87"/>
-    <cellStyle name="Normal 3 5" xfId="88"/>
-    <cellStyle name="Normal 3 6" xfId="89"/>
-    <cellStyle name="Normal 3 7" xfId="90"/>
-    <cellStyle name="Normal 3 8" xfId="91"/>
-    <cellStyle name="Normal 3 9" xfId="12"/>
-    <cellStyle name="Normal 4" xfId="92"/>
-    <cellStyle name="Normal 4 2" xfId="93"/>
-    <cellStyle name="Normal 4 2 2" xfId="94"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 3" xfId="96"/>
-    <cellStyle name="Normal 4 3" xfId="97"/>
-    <cellStyle name="Normal 4 3 2" xfId="98"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="99"/>
-    <cellStyle name="Normal 4 3 3" xfId="100"/>
-    <cellStyle name="Normal 4 4" xfId="101"/>
-    <cellStyle name="Normal 4 4 2" xfId="102"/>
-    <cellStyle name="Normal 4 5" xfId="103"/>
-    <cellStyle name="Normal 4 6" xfId="104"/>
-    <cellStyle name="Normal 4 7" xfId="105"/>
-    <cellStyle name="Normal 4 8" xfId="106"/>
-    <cellStyle name="Normal 5" xfId="107"/>
-    <cellStyle name="Normal 5 2" xfId="108"/>
-    <cellStyle name="Normal 5 3" xfId="109"/>
-    <cellStyle name="Normal 6" xfId="110"/>
-    <cellStyle name="Normal 6 2" xfId="111"/>
-    <cellStyle name="Normal 7" xfId="112"/>
-    <cellStyle name="Normal 8" xfId="113"/>
-    <cellStyle name="Normal 9" xfId="114"/>
-    <cellStyle name="Note 2" xfId="115"/>
-    <cellStyle name="Note 2 2" xfId="116"/>
-    <cellStyle name="Output 2" xfId="117"/>
-    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="72" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 11" xfId="10" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal 2 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 4" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 7" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 8" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 9" xfId="12" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 5" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 6" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 8" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 5" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 7" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 8" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 9" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Note 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
     <cellStyle name="Percent" xfId="142" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="118"/>
-    <cellStyle name="Percent 2 2" xfId="119"/>
-    <cellStyle name="Percent 3" xfId="120"/>
-    <cellStyle name="Percent 3 2" xfId="121"/>
-    <cellStyle name="Source Hed" xfId="122"/>
-    <cellStyle name="Source Superscript" xfId="123"/>
-    <cellStyle name="Source Text" xfId="9"/>
-    <cellStyle name="State" xfId="124"/>
-    <cellStyle name="Superscript" xfId="125"/>
-    <cellStyle name="Table Data" xfId="126"/>
-    <cellStyle name="Table Head Top" xfId="127"/>
-    <cellStyle name="Table Hed Side" xfId="128"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Title 2" xfId="129"/>
-    <cellStyle name="Title Text" xfId="130"/>
-    <cellStyle name="Title Text 1" xfId="131"/>
-    <cellStyle name="Title Text 2" xfId="132"/>
-    <cellStyle name="Title-1" xfId="14"/>
-    <cellStyle name="Title-2" xfId="133"/>
-    <cellStyle name="Title-3" xfId="134"/>
-    <cellStyle name="Total 2" xfId="135"/>
-    <cellStyle name="Warning Text 2" xfId="136"/>
-    <cellStyle name="Wrap" xfId="137"/>
-    <cellStyle name="Wrap Bold" xfId="138"/>
-    <cellStyle name="Wrap Title" xfId="139"/>
+    <cellStyle name="Percent 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Percent 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Source Hed" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Source Superscript" xfId="123" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Source Text" xfId="9" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="State" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Superscript" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Table Data" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Table Head Top" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Table Hed Side" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Title 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Title Text" xfId="130" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Title Text 1" xfId="131" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Title Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Title-1" xfId="14" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Title-2" xfId="133" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Title-3" xfId="134" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Total 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Warning Text 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Wrap" xfId="137" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Wrap Bold" xfId="138" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Wrap Title" xfId="139" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3017,6 +3030,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3052,6 +3082,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3227,16 +3274,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="73.1328125" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3351,7 +3398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.5">
+    <row r="21" spans="2:2" ht="30">
       <c r="B21" s="38" t="s">
         <v>101</v>
       </c>
@@ -3382,7 +3429,7 @@
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="189" t="s">
+      <c r="B28" s="167" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3477,11 +3524,16 @@
         <v>163</v>
       </c>
     </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B21" r:id="rId2"/>
-    <hyperlink ref="B28" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3489,18 +3541,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -3537,8 +3589,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.65" thickBot="1"/>
-    <row r="6" spans="1:18" ht="15.4">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="50"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -3558,7 +3610,7 @@
       <c r="Q6" s="52"/>
       <c r="R6" s="54"/>
     </row>
-    <row r="7" spans="1:18" ht="15.4">
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="55"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56" t="s">
@@ -3582,7 +3634,7 @@
       <c r="Q7" s="56"/>
       <c r="R7" s="58"/>
     </row>
-    <row r="8" spans="1:18" ht="15.4">
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="55"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3602,7 +3654,7 @@
       <c r="Q8" s="60"/>
       <c r="R8" s="63"/>
     </row>
-    <row r="9" spans="1:18" ht="15.4">
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="55"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56" t="s">
@@ -3675,99 +3727,99 @@
       <c r="R11" s="71"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="168" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="168" t="s">
+      <c r="B12" s="170" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="171" t="s">
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="173" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="174" t="s">
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="175"/>
+      <c r="R12" s="176" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="166"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="177" t="s">
+      <c r="A13" s="168"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="179" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="177" t="s">
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="179" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="178"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="178"/>
-      <c r="O13" s="178"/>
-      <c r="P13" s="178"/>
-      <c r="Q13" s="179"/>
-      <c r="R13" s="175"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="180"/>
+      <c r="O13" s="180"/>
+      <c r="P13" s="180"/>
+      <c r="Q13" s="181"/>
+      <c r="R13" s="177"/>
     </row>
     <row r="14" spans="1:18" ht="25.5">
-      <c r="A14" s="166"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="180" t="s">
+      <c r="A14" s="168"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="182" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="183" t="s">
+      <c r="D14" s="185" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="183" t="s">
+      <c r="E14" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="185" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="180" t="s">
+      <c r="G14" s="182" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="180" t="s">
+      <c r="H14" s="182" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="180" t="s">
+      <c r="I14" s="182" t="s">
         <v>141</v>
       </c>
       <c r="J14" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="K14" s="180" t="s">
+      <c r="K14" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="183" t="s">
+      <c r="L14" s="185" t="s">
         <v>143</v>
       </c>
-      <c r="M14" s="183" t="s">
+      <c r="M14" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="N14" s="180" t="s">
+      <c r="N14" s="182" t="s">
         <v>145</v>
       </c>
-      <c r="O14" s="183" t="s">
+      <c r="O14" s="185" t="s">
         <v>146</v>
       </c>
       <c r="P14" s="73" t="s">
@@ -3776,47 +3828,47 @@
       <c r="Q14" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="R14" s="175"/>
+      <c r="R14" s="177"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="166"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="181"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="181"/>
-      <c r="O15" s="184"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="186"/>
+      <c r="M15" s="186"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="186"/>
       <c r="P15" s="75"/>
       <c r="Q15" s="76"/>
-      <c r="R15" s="175"/>
+      <c r="R15" s="177"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="167"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
+      <c r="A16" s="169"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
       <c r="J16" s="77"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="185"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="187"/>
       <c r="P16" s="78"/>
       <c r="Q16" s="79"/>
-      <c r="R16" s="176"/>
+      <c r="R16" s="178"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="80">
@@ -3965,20 +4017,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="4" max="4" width="21.73046875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="17.73046875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4077,7 +4129,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="41">
-        <v>0.6872269809588859</v>
+        <v>0.65629747428493324</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4095,7 +4147,7 @@
         <v>36</v>
       </c>
       <c r="H11" s="41">
-        <v>0.7181451682412896</v>
+        <v>0.68582415001963382</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4112,7 +4164,7 @@
         <v>34</v>
       </c>
       <c r="H12" s="41">
-        <v>0.11317598788024429</v>
+        <v>0.10063870297760362</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4132,7 +4184,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="41">
-        <v>0.22909010449952699</v>
+        <v>0.20371221328531078</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4149,7 +4201,7 @@
       </c>
       <c r="G15" s="6">
         <f>B23*(H10/SUM(H10:H11))</f>
-        <v>3100.9285297835759</v>
+        <v>3100.928529783575</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4162,7 +4214,7 @@
       </c>
       <c r="G16" s="6">
         <f>B23*(H11/SUM(H10:H11))</f>
-        <v>3240.4386067881528</v>
+        <v>3240.4386067881537</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -4185,7 +4237,7 @@
       </c>
       <c r="G18" s="6">
         <f>B24*(H12/SUM(H12:H13))</f>
-        <v>1793.0839335069468</v>
+        <v>1793.083933506947</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4237,16 +4289,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.265625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4353,22 +4405,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="16.73046875" customWidth="1"/>
-    <col min="10" max="10" width="20.1328125" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.1328125" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" customWidth="1"/>
+    <col min="6" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:16">
@@ -4418,7 +4470,7 @@
       </c>
       <c r="N4" s="23"/>
       <c r="O4" s="24">
-        <v>125.78926798703105</v>
+        <v>120.12796522751495</v>
       </c>
     </row>
     <row r="5" spans="8:16">
@@ -4429,7 +4481,7 @@
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="24">
-        <v>1.7403814920202365</v>
+        <v>1.6620534541752214</v>
       </c>
     </row>
     <row r="6" spans="8:16">
@@ -4440,7 +4492,7 @@
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="24">
-        <v>0.60155495037288353</v>
+        <v>0.57448122019665182</v>
       </c>
     </row>
     <row r="7" spans="8:16">
@@ -4451,7 +4503,7 @@
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="28">
-        <v>0.20051831679096116</v>
+        <v>0.19149374006555059</v>
       </c>
       <c r="P7" t="s">
         <v>113</v>
@@ -4473,7 +4525,7 @@
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="24">
-        <v>12.225284097997806</v>
+        <v>11.675069952487402</v>
       </c>
     </row>
     <row r="9" spans="8:16">
@@ -4493,7 +4545,7 @@
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="24">
-        <v>0.16807356623326436</v>
+        <v>0.1605092059381063</v>
       </c>
     </row>
     <row r="10" spans="8:16">
@@ -4515,7 +4567,7 @@
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="24">
-        <v>139.2118858409529</v>
+        <v>132.94648143816963</v>
       </c>
     </row>
     <row r="11" spans="8:16">
@@ -4535,7 +4587,7 @@
       </c>
       <c r="N11" s="23"/>
       <c r="O11" s="24">
-        <v>43.779584242835888</v>
+        <v>41.809229497548799</v>
       </c>
     </row>
     <row r="12" spans="8:16">
@@ -4555,7 +4607,7 @@
       </c>
       <c r="N12" s="23"/>
       <c r="O12" s="24">
-        <v>5.1552046662759663</v>
+        <v>4.9231882560519438</v>
       </c>
     </row>
     <row r="13" spans="8:16">
@@ -4572,7 +4624,7 @@
       </c>
       <c r="N13" s="23"/>
       <c r="O13" s="24">
-        <v>5.1552046662759663</v>
+        <v>4.9231882560519438</v>
       </c>
     </row>
     <row r="14" spans="8:16">
@@ -4589,7 +4641,7 @@
       </c>
       <c r="N14" s="23"/>
       <c r="O14" s="24">
-        <v>3.7359912418031045</v>
+        <v>3.5678483003168031</v>
       </c>
     </row>
     <row r="15" spans="8:16">
@@ -4606,7 +4658,7 @@
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="24">
-        <v>1.2392318909317224</v>
+        <v>1.1834587153971015</v>
       </c>
     </row>
     <row r="16" spans="8:16">
@@ -4625,7 +4677,7 @@
       </c>
       <c r="N16" s="23"/>
       <c r="O16" s="24">
-        <v>71.939372545440037</v>
+        <v>68.701651435946445</v>
       </c>
     </row>
     <row r="17" spans="8:15">
@@ -4642,7 +4694,7 @@
       </c>
       <c r="N17" s="23"/>
       <c r="O17" s="24">
-        <v>569.33037033849519</v>
+        <v>543.70694754374654</v>
       </c>
     </row>
     <row r="18" spans="8:15">
@@ -4662,7 +4714,7 @@
       </c>
       <c r="N18" s="23"/>
       <c r="O18" s="24">
-        <v>3.0284554979831024</v>
+        <v>2.8921560843513205</v>
       </c>
     </row>
     <row r="19" spans="8:15">
@@ -4679,7 +4731,7 @@
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="24">
-        <v>26.524057947540875</v>
+        <v>25.330309666348402</v>
       </c>
     </row>
     <row r="20" spans="8:15">
@@ -4698,7 +4750,7 @@
       </c>
       <c r="N20" s="23"/>
       <c r="O20" s="24">
-        <v>20.447969551648026</v>
+        <v>19.527683200500949</v>
       </c>
     </row>
     <row r="21" spans="8:15">
@@ -4715,7 +4767,7 @@
       </c>
       <c r="N21" s="23"/>
       <c r="O21" s="24">
-        <v>15.669914537777572</v>
+        <v>14.96467050675858</v>
       </c>
     </row>
     <row r="22" spans="8:15">
@@ -4723,7 +4775,7 @@
         <v>2341375</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="J22" t="s">
         <v>85</v>
@@ -4735,7 +4787,7 @@
       </c>
       <c r="N22" s="23"/>
       <c r="O22" s="24">
-        <v>72.337912086611439</v>
+        <v>69.082254208422739</v>
       </c>
     </row>
     <row r="23" spans="8:15">
@@ -4752,7 +4804,7 @@
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="24">
-        <v>66.285472708183747</v>
+        <v>63.302212406538928</v>
       </c>
     </row>
     <row r="24" spans="8:15">
@@ -4769,7 +4821,7 @@
       </c>
       <c r="N24" s="23"/>
       <c r="O24" s="24">
-        <v>6.1035113323078409</v>
+        <v>5.8288151988356685</v>
       </c>
     </row>
     <row r="25" spans="8:15">
@@ -4791,7 +4843,7 @@
       </c>
       <c r="N25" s="23"/>
       <c r="O25" s="24">
-        <v>2.0389345161320129</v>
+        <v>1.9471697273915227</v>
       </c>
     </row>
     <row r="26" spans="8:15">
@@ -4811,7 +4863,7 @@
       </c>
       <c r="N26" s="23"/>
       <c r="O26" s="24">
-        <v>1.2073742722641769</v>
+        <v>1.1530348885574313</v>
       </c>
     </row>
     <row r="27" spans="8:15">
@@ -4828,7 +4880,7 @@
       </c>
       <c r="N27" s="23"/>
       <c r="O27" s="24">
-        <v>67.756572043636965</v>
+        <v>64.707103083172527</v>
       </c>
     </row>
     <row r="28" spans="8:15">
@@ -4845,7 +4897,7 @@
       </c>
       <c r="N28" s="23"/>
       <c r="O28" s="24">
-        <v>2.2904155107107469</v>
+        <v>2.1873325064232736</v>
       </c>
     </row>
     <row r="29" spans="8:15">
@@ -5050,7 +5102,7 @@
       </c>
       <c r="B44">
         <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Psgr LDV")*('2018 Calcs'!N9/'2018 Calcs'!L9)</f>
-        <v>32480113.15341441</v>
+        <v>29759632.918518826</v>
       </c>
       <c r="C44">
         <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Frgt LDV")*('2018 Calcs'!N10/'2018 Calcs'!L10)</f>
@@ -5065,22 +5117,22 @@
       </c>
       <c r="G44" s="27">
         <f>O12/SUM(O10:O14)</f>
-        <v>2.6163522012578624E-2</v>
+        <v>2.6163522012578627E-2</v>
       </c>
       <c r="H44" s="27">
         <f>O10/SUM(O10:O14)</f>
-        <v>0.7065234991423669</v>
+        <v>0.70652349914236701</v>
       </c>
       <c r="I44" s="27">
         <f>O11/SUM(O10:O14)</f>
-        <v>0.22218867924528304</v>
+        <v>0.22218867924528302</v>
       </c>
       <c r="J44" s="27">
         <v>0</v>
       </c>
       <c r="K44" s="27">
         <f>O13/SUM(O10:O14)</f>
-        <v>2.6163522012578624E-2</v>
+        <v>2.6163522012578627E-2</v>
       </c>
       <c r="L44" s="43">
         <f>J44</f>
@@ -5105,18 +5157,18 @@
       </c>
       <c r="F45" s="27">
         <f>O6/SUM(O4:O6,O8:O9)</f>
-        <v>4.2807815332095885E-3</v>
+        <v>4.2807815332095893E-3</v>
       </c>
       <c r="G45" s="27">
         <f>(O5+O9)/SUM(O4:O6,O8:O9)</f>
-        <v>1.358093581520343E-2</v>
+        <v>1.3580935815203435E-2</v>
       </c>
       <c r="H45" s="27">
         <v>0</v>
       </c>
       <c r="I45" s="27">
         <f>(O4+O8)/SUM(O4:O6,O8:O9)</f>
-        <v>0.98213828265158698</v>
+        <v>0.9821382826515872</v>
       </c>
       <c r="J45" s="27">
         <v>0</v>
@@ -5148,7 +5200,7 @@
       </c>
       <c r="F46" s="27">
         <f>O19/SUM(O16:O19)</f>
-        <v>3.9539621259247815E-2</v>
+        <v>3.9539621259247822E-2</v>
       </c>
       <c r="G46" s="27">
         <v>0</v>
@@ -5174,78 +5226,86 @@
       <c r="M46" s="43"/>
     </row>
     <row r="47" spans="1:15">
+      <c r="A47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47">
+        <f>SUMIFS($H$9:$H$39,$I$9:$I$39,"Taxi")*('2018 Calcs'!N9/'2018 Calcs'!L9)</f>
+        <v>2720480.2348955842</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F47" s="27">
+        <f>$O$28/SUM($O$25:$O$28)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G47" s="27">
+        <f>$O$25/SUM($O$25:$O$28)</f>
+        <v>2.781884043797505E-2</v>
+      </c>
+      <c r="H47" s="27">
+        <v>0</v>
+      </c>
+      <c r="I47" s="27">
+        <f>$O$27/SUM($O$25:$O$28)</f>
+        <v>0.92445797125544238</v>
+      </c>
+      <c r="J47" s="27">
+        <v>0</v>
+      </c>
+      <c r="K47" s="27">
+        <f>$O$26/SUM($O$25:$O$28)</f>
+        <v>1.647318830658253E-2</v>
+      </c>
+      <c r="L47" s="27">
+        <v>0</v>
+      </c>
       <c r="M47" s="43"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="E48" s="2" t="s">
+      <c r="M48" s="43"/>
+    </row>
+    <row r="49" spans="5:13">
+      <c r="E49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="43"/>
-    </row>
-    <row r="49" spans="5:13">
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="43"/>
+    </row>
+    <row r="50" spans="5:13">
+      <c r="F50" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="26" t="s">
+      <c r="G50" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="H50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="I50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="26" t="s">
+      <c r="J50" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="26" t="s">
+      <c r="K50" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="L49" s="26" t="s">
+      <c r="L50" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="M49" s="43"/>
-    </row>
-    <row r="50" spans="5:13">
-      <c r="E50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="27">
-        <v>0</v>
-      </c>
-      <c r="G50" s="27">
-        <v>0</v>
-      </c>
-      <c r="H50" s="27">
-        <v>0</v>
-      </c>
-      <c r="I50" s="27">
-        <f>SUM(O33:O34)</f>
-        <v>1</v>
-      </c>
-      <c r="J50" s="27">
-        <v>0</v>
-      </c>
-      <c r="K50" s="43">
-        <f>J50</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="43">
-        <f>K50</f>
-        <v>0</v>
       </c>
       <c r="M50" s="43"/>
     </row>
     <row r="51" spans="5:13">
       <c r="E51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="27">
         <v>0</v>
@@ -5275,36 +5335,65 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="27">
+        <v>0</v>
+      </c>
+      <c r="G52" s="27">
+        <v>0</v>
+      </c>
+      <c r="H52" s="27">
+        <v>0</v>
+      </c>
+      <c r="I52" s="27">
+        <f>SUM(O33:O34)</f>
+        <v>1</v>
+      </c>
+      <c r="J52" s="27">
+        <v>0</v>
+      </c>
+      <c r="K52" s="43">
+        <f>J52</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="43">
+        <f>K52</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="43"/>
+    </row>
+    <row r="53" spans="5:13">
+      <c r="E53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="27">
+      <c r="F53" s="27">
         <f>O24/SUM(O20:O24)</f>
-        <v>3.3749999999999995E-2</v>
-      </c>
-      <c r="G52" s="27">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="G53" s="27">
         <f>O20/SUM(O20:O24)</f>
-        <v>0.11306917195600177</v>
-      </c>
-      <c r="H52" s="27">
+        <v>0.1130691719560018</v>
+      </c>
+      <c r="H53" s="27">
         <f>O22/SUM(O20:O24)</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="I52" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="I53" s="27">
         <f>O23/SUM(O20:O24)</f>
-        <v>0.36653240767479706</v>
-      </c>
-      <c r="J52" s="27">
-        <v>0</v>
-      </c>
-      <c r="K52" s="27">
+        <v>0.36653240767479711</v>
+      </c>
+      <c r="J53" s="27">
+        <v>0</v>
+      </c>
+      <c r="K53" s="27">
         <f>O21/SUM(O20:O24)</f>
-        <v>8.6648420369201187E-2</v>
-      </c>
-      <c r="L52" s="43">
-        <f>J52</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="43"/>
+        <v>8.6648420369201201E-2</v>
+      </c>
+      <c r="L53" s="43">
+        <f>J53</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5314,26 +5403,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.59765625" customWidth="1"/>
-    <col min="10" max="10" width="25.1328125" customWidth="1"/>
-    <col min="11" max="11" width="10.86328125" customWidth="1"/>
-    <col min="17" max="17" width="11.73046875" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5357,7 +5446,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="28.15">
+    <row r="2" spans="1:17" ht="28.5">
       <c r="A2" s="108" t="s">
         <v>129</v>
       </c>
@@ -6466,7 +6555,7 @@
       </c>
       <c r="K21" s="132"/>
       <c r="L21" s="115"/>
-      <c r="N21" s="188">
+      <c r="N21" s="166">
         <v>6341.3671365717291</v>
       </c>
       <c r="O21" s="115"/>
@@ -6645,18 +6734,18 @@
     </row>
     <row r="31" spans="1:17">
       <c r="B31" s="93"/>
-      <c r="C31" s="186" t="s">
+      <c r="C31" s="188" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="187"/>
-      <c r="E31" s="186" t="s">
+      <c r="D31" s="189"/>
+      <c r="E31" s="188" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="187"/>
+      <c r="F31" s="189"/>
       <c r="J31" s="104"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:17" ht="27.75">
+    <row r="32" spans="1:17" ht="28.5">
       <c r="B32" s="106" t="s">
         <v>222</v>
       </c>
@@ -6688,11 +6777,11 @@
         <v>22696.337099699485</v>
       </c>
       <c r="E33" s="105">
-        <f>C33*$A$42</f>
+        <f t="shared" ref="E33:F37" si="2">C33*$A$42</f>
         <v>6323.3454085243229</v>
       </c>
       <c r="F33" s="105">
-        <f>D33*$A$42</f>
+        <f t="shared" si="2"/>
         <v>14102.845679977368</v>
       </c>
       <c r="J33" s="104"/>
@@ -6710,11 +6799,11 @@
         <v>52587.489068145493</v>
       </c>
       <c r="E34" s="100">
-        <f>C34*$A$42</f>
+        <f t="shared" si="2"/>
         <v>38502.91821032294</v>
       </c>
       <c r="F34" s="100">
-        <f>D34*$A$42</f>
+        <f t="shared" si="2"/>
         <v>32676.340669762634</v>
       </c>
       <c r="J34" s="104"/>
@@ -6732,11 +6821,11 @@
         <v>15377464.7887324</v>
       </c>
       <c r="E35" s="100">
-        <f>C35*$A$42</f>
+        <f t="shared" si="2"/>
         <v>1785527.5624831805</v>
       </c>
       <c r="F35" s="100">
-        <f>D35*$A$42</f>
+        <f t="shared" si="2"/>
         <v>9555110.6732394397</v>
       </c>
     </row>
@@ -6753,11 +6842,11 @@
         <v>58816.434260125308</v>
       </c>
       <c r="E36" s="100">
-        <f>C36*$A$42</f>
+        <f t="shared" si="2"/>
         <v>122287.66940928693</v>
       </c>
       <c r="F36" s="100">
-        <f>D36*$A$42</f>
+        <f t="shared" si="2"/>
         <v>36546.826572648322</v>
       </c>
     </row>
@@ -6774,11 +6863,11 @@
         <v>28739.718348839429</v>
       </c>
       <c r="E37" s="96">
-        <f>C37*$A$42</f>
+        <f t="shared" si="2"/>
         <v>5846.0166189268666</v>
       </c>
       <c r="F37" s="96">
-        <f>D37*$A$42</f>
+        <f t="shared" si="2"/>
         <v>17858.027530136704</v>
       </c>
     </row>
@@ -6819,20 +6908,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5">
+    <row r="1" spans="1:3" ht="30">
       <c r="A1" s="37" t="s">
         <v>104</v>
       </c>
@@ -6847,8 +6936,8 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>2.1633908129876787</v>
+      <c r="B2" s="42">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1.7</v>
@@ -6892,7 +6981,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="42">
-        <v>756.78378378378375</v>
+        <v>3</v>
       </c>
       <c r="C6" s="42">
         <v>1974.4736422180429</v>
@@ -6903,10 +6992,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1.76</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6915,29 +7004,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="6" width="23.265625" customWidth="1"/>
-    <col min="7" max="7" width="19.265625" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="37" t="s">
         <v>96</v>
       </c>
@@ -6969,19 +7058,19 @@
       </c>
       <c r="B2" s="6">
         <f>'India Road'!$B44*'India Road'!F44</f>
-        <v>615848.20150874218</v>
+        <v>564265.78084453323</v>
       </c>
       <c r="C2" s="6">
         <f>'India Road'!$B44*'India Road'!G44</f>
-        <v>849794.15546040237</v>
+        <v>778616.81094992685</v>
       </c>
       <c r="D2" s="6">
         <f>'India Road'!$B44*'India Road'!H44</f>
-        <v>22947963.197690364</v>
+        <v>21025879.982784294</v>
       </c>
       <c r="E2" s="6">
         <f>'India Road'!$B44*'India Road'!I44</f>
-        <v>7216713.4432944935</v>
+        <v>6612253.5329901455</v>
       </c>
       <c r="F2" s="6">
         <f>'India Road'!$B44*'India Road'!J44</f>
@@ -6989,7 +7078,7 @@
       </c>
       <c r="G2" s="6">
         <f>'India Road'!$B44*'India Road'!K44</f>
-        <v>849794.15546040237</v>
+        <v>778616.81094992685</v>
       </c>
       <c r="H2" s="6">
         <f>'India Road'!$B44*'India Road'!L44</f>
@@ -7003,11 +7092,11 @@
       </c>
       <c r="B3" s="6">
         <f>'India Road'!$B45*'India Road'!F45</f>
-        <v>8406.8117715651661</v>
+        <v>8406.8117715651679</v>
       </c>
       <c r="C3" s="6">
         <f>'India Road'!$B45*'India Road'!G45</f>
-        <v>26670.917493544803</v>
+        <v>26670.91749354481</v>
       </c>
       <c r="D3" s="6">
         <f>'India Road'!$B45*'India Road'!H45</f>
@@ -7015,7 +7104,7 @@
       </c>
       <c r="E3" s="6">
         <f>'India Road'!$B45*'India Road'!I45</f>
-        <v>1928772.0272212988</v>
+        <v>1928772.027221299</v>
       </c>
       <c r="F3" s="6">
         <f>'India Road'!$B45*'India Road'!J45</f>
@@ -7065,7 +7154,7 @@
       </c>
       <c r="B5" s="7">
         <f>'India Rail'!G16</f>
-        <v>3240.4386067881528</v>
+        <v>3240.4386067881537</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -7075,7 +7164,7 @@
       </c>
       <c r="E5" s="7">
         <f>'India Rail'!G15</f>
-        <v>3100.9285297835759</v>
+        <v>3100.928529783575</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -7093,25 +7182,30 @@
         <v>14</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
+        <f>'India Road'!$B$47*'India Road'!F47</f>
+        <v>85015.007340487005</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <f>'India Road'!$B$47*'India Road'!G47</f>
+        <v>75680.605569225139</v>
       </c>
       <c r="D6" s="7">
+        <f>'India Road'!$B$47*'India Road'!H47</f>
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <f>'India Ships'!B2</f>
-        <v>101</v>
+        <f>'India Road'!$B$47*'India Road'!I47+'India Road'!$B$47*'India Road'!K47</f>
+        <v>2559784.6219858723</v>
       </c>
       <c r="F6" s="7">
+        <f>'India Road'!$B$47*'India Road'!J47</f>
         <v>0</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="H6" s="7">
+        <f>'India Road'!$B$47*'India Road'!L47</f>
         <v>0</v>
       </c>
       <c r="J6" s="6"/>
@@ -7122,7 +7216,7 @@
       </c>
       <c r="B7" s="7">
         <f>'India Road'!$B46*'India Road'!F46</f>
-        <v>7487182.6612117002</v>
+        <v>7487182.6612117011</v>
       </c>
       <c r="C7" s="7">
         <f>'India Road'!$B46*'India Road'!G46</f>
@@ -7178,7 +7272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7188,19 +7282,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="6" width="23.265625" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="37" t="s">
         <v>96</v>
       </c>
@@ -7231,31 +7325,31 @@
         <v>11</v>
       </c>
       <c r="B2" s="10">
-        <f>'India Road'!$C44*'India Road'!F50</f>
+        <f>'India Road'!$C44*'India Road'!F51</f>
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <f>'India Road'!$C44*'India Road'!G50</f>
+        <f>'India Road'!$C44*'India Road'!G51</f>
         <v>0</v>
       </c>
       <c r="D2" s="10">
-        <f>'India Road'!$C44*'India Road'!H50</f>
+        <f>'India Road'!$C44*'India Road'!H51</f>
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <f>'India Road'!$C44*'India Road'!I50</f>
+        <f>'India Road'!$C44*'India Road'!I51</f>
         <v>3091878.5080698477</v>
       </c>
       <c r="F2" s="10">
-        <f>'India Road'!$C44*'India Road'!J50</f>
+        <f>'India Road'!$C44*'India Road'!J51</f>
         <v>0</v>
       </c>
       <c r="G2" s="10">
-        <f>'India Road'!$C44*'India Road'!K50</f>
+        <f>'India Road'!$C44*'India Road'!K51</f>
         <v>0</v>
       </c>
       <c r="H2" s="10">
-        <f>'India Road'!$C44*'India Road'!L50</f>
+        <f>'India Road'!$C44*'India Road'!L51</f>
         <v>0</v>
       </c>
     </row>
@@ -7264,31 +7358,31 @@
         <v>12</v>
       </c>
       <c r="B3" s="10">
-        <f>'India Road'!$C45*'India Road'!F51</f>
+        <f>'India Road'!$C45*'India Road'!F52</f>
         <v>0</v>
       </c>
       <c r="C3" s="10">
-        <f>'India Road'!$C45*'India Road'!G51</f>
+        <f>'India Road'!$C45*'India Road'!G52</f>
         <v>0</v>
       </c>
       <c r="D3" s="10">
-        <f>'India Road'!$C45*'India Road'!H51</f>
+        <f>'India Road'!$C45*'India Road'!H52</f>
         <v>0</v>
       </c>
       <c r="E3" s="10">
-        <f>'India Road'!$C45*'India Road'!I51</f>
+        <f>'India Road'!$C45*'India Road'!I52</f>
         <v>6177534.8826565482</v>
       </c>
       <c r="F3" s="10">
-        <f>'India Road'!$C45*'India Road'!J51</f>
+        <f>'India Road'!$C45*'India Road'!J52</f>
         <v>0</v>
       </c>
       <c r="G3" s="10">
-        <f>'India Road'!$C45*'India Road'!K51</f>
+        <f>'India Road'!$C45*'India Road'!K52</f>
         <v>0</v>
       </c>
       <c r="H3" s="10">
-        <f>'India Road'!$C45*'India Road'!L51</f>
+        <f>'India Road'!$C45*'India Road'!L52</f>
         <v>0</v>
       </c>
     </row>
@@ -7335,7 +7429,7 @@
       </c>
       <c r="E5" s="7">
         <f>'India Rail'!G18</f>
-        <v>1793.0839335069468</v>
+        <v>1793.083933506947</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -7379,31 +7473,31 @@
         <v>15</v>
       </c>
       <c r="B7" s="7">
-        <f>'India Road'!$C46*'India Road'!F52</f>
-        <v>293883.87403966149</v>
+        <f>'India Road'!$C46*'India Road'!F53</f>
+        <v>293883.8740396616</v>
       </c>
       <c r="C7" s="7">
-        <f>'India Road'!$C46*'India Road'!G52</f>
-        <v>984569.07522626547</v>
+        <f>'India Road'!$C46*'India Road'!G53</f>
+        <v>984569.0752262657</v>
       </c>
       <c r="D7" s="7">
-        <f>'India Road'!$C46*'India Road'!H52</f>
-        <v>3483068.1367663583</v>
+        <f>'India Road'!$C46*'India Road'!H53</f>
+        <v>3483068.1367663592</v>
       </c>
       <c r="E7" s="7">
-        <f>'India Road'!$C46*'India Road'!I52</f>
-        <v>3191643.3756608572</v>
+        <f>'India Road'!$C46*'India Road'!I53</f>
+        <v>3191643.3756608581</v>
       </c>
       <c r="F7" s="7">
-        <f>'India Road'!$C46*'India Road'!J52</f>
+        <f>'India Road'!$C46*'India Road'!J53</f>
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f>'India Road'!$C46*'India Road'!K52</f>
-        <v>754505.88022275455</v>
+        <f>'India Road'!$C46*'India Road'!K53</f>
+        <v>754505.88022275467</v>
       </c>
       <c r="H7" s="7">
-        <f>'India Road'!$C46*'India Road'!L52</f>
+        <f>'India Road'!$C46*'India Road'!L53</f>
         <v>0</v>
       </c>
     </row>
